--- a/assets/dolar_blue.xlsx
+++ b/assets/dolar_blue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Downloads\app_var_fin_1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Downloads\app_var_fin_streamlit\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -917,10 +917,10 @@
   <dimension ref="A1:L3868"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B939" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="F959" sqref="F959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -22936,97 +22936,205 @@
       <c r="L953" s="53"/>
     </row>
     <row r="954" spans="1:12">
-      <c r="A954" s="45"/>
-      <c r="B954" s="52"/>
-      <c r="D954" s="43"/>
-      <c r="E954" s="52"/>
-      <c r="F954"/>
+      <c r="A954" s="45">
+        <v>45231</v>
+      </c>
+      <c r="B954">
+        <v>915</v>
+      </c>
+      <c r="C954">
+        <v>883.05</v>
+      </c>
+      <c r="D954" s="43">
+        <v>840.28</v>
+      </c>
+      <c r="E954" s="52">
+        <v>887.94</v>
+      </c>
+      <c r="F954">
+        <v>619303</v>
+      </c>
+      <c r="G954">
+        <v>11.083</v>
+      </c>
       <c r="H954" s="53"/>
       <c r="I954" s="53"/>
       <c r="J954" s="53"/>
       <c r="K954" s="53"/>
     </row>
     <row r="955" spans="1:12">
-      <c r="A955" s="45"/>
-      <c r="B955" s="52"/>
-      <c r="D955" s="43"/>
-      <c r="E955" s="52"/>
+      <c r="A955" s="45">
+        <v>45232</v>
+      </c>
+      <c r="B955">
+        <v>925</v>
+      </c>
+      <c r="C955">
+        <v>883.21</v>
+      </c>
+      <c r="D955" s="43">
+        <v>863.64</v>
+      </c>
+      <c r="E955" s="52">
+        <v>886.81</v>
+      </c>
+      <c r="F955" s="47">
+        <v>650551</v>
+      </c>
+      <c r="G955">
+        <v>11.083</v>
+      </c>
+      <c r="I955" s="53"/>
+      <c r="J955" s="53"/>
     </row>
     <row r="956" spans="1:12">
-      <c r="A956" s="45"/>
-      <c r="B956" s="52"/>
-      <c r="D956" s="43"/>
-      <c r="E956" s="52"/>
-      <c r="F956"/>
-    </row>
-    <row r="957" spans="1:12" ht="15" thickBot="1">
-      <c r="A957" s="45"/>
-      <c r="B957" s="52"/>
-      <c r="D957" s="43"/>
-      <c r="E957" s="52"/>
+      <c r="A956" s="45">
+        <v>45233</v>
+      </c>
+      <c r="B956">
+        <v>925</v>
+      </c>
+      <c r="C956">
+        <v>868.08</v>
+      </c>
+      <c r="D956">
+        <v>844.01</v>
+      </c>
+      <c r="E956" s="52">
+        <v>889.67</v>
+      </c>
+      <c r="F956">
+        <v>630800</v>
+      </c>
+      <c r="G956">
+        <v>11.083</v>
+      </c>
+      <c r="I956" s="53"/>
+      <c r="J956" s="53"/>
+    </row>
+    <row r="957" spans="1:12">
+      <c r="A957" s="45">
+        <v>45236</v>
+      </c>
+      <c r="B957">
+        <v>915</v>
+      </c>
+      <c r="C957">
+        <v>868.08</v>
+      </c>
+      <c r="D957">
+        <v>844.01</v>
+      </c>
+      <c r="E957" s="52">
+        <v>880.02</v>
+      </c>
+      <c r="F957" s="47">
+        <v>630880</v>
+      </c>
+      <c r="G957">
+        <v>11.083</v>
+      </c>
+      <c r="I957" s="53"/>
+      <c r="J957" s="53"/>
     </row>
     <row r="958" spans="1:12">
-      <c r="A958" s="44"/>
-      <c r="B958" s="52"/>
-      <c r="D958" s="43"/>
-      <c r="E958" s="52"/>
-      <c r="F958"/>
+      <c r="A958" s="45">
+        <v>45237</v>
+      </c>
+      <c r="B958" s="52">
+        <v>905</v>
+      </c>
+      <c r="C958">
+        <v>858.93</v>
+      </c>
+      <c r="D958">
+        <v>851.73</v>
+      </c>
+      <c r="E958" s="52">
+        <v>879.92</v>
+      </c>
+      <c r="F958">
+        <v>633339</v>
+      </c>
+      <c r="G958">
+        <v>11.083</v>
+      </c>
+      <c r="I958" s="53"/>
+      <c r="J958" s="53"/>
     </row>
     <row r="959" spans="1:12" ht="15" thickBot="1">
       <c r="A959" s="45"/>
       <c r="B959" s="52"/>
       <c r="D959" s="43"/>
       <c r="E959" s="52"/>
+      <c r="I959" s="53"/>
+      <c r="J959" s="53"/>
     </row>
     <row r="960" spans="1:12" ht="15" thickBot="1">
       <c r="A960" s="44"/>
-    </row>
-    <row r="961" spans="1:1" ht="15" thickBot="1">
+      <c r="I960" s="53"/>
+      <c r="J960" s="53"/>
+    </row>
+    <row r="961" spans="1:10" ht="15" thickBot="1">
       <c r="A961" s="44"/>
-    </row>
-    <row r="962" spans="1:1" ht="15" thickBot="1">
+      <c r="I961" s="53"/>
+      <c r="J961" s="53"/>
+    </row>
+    <row r="962" spans="1:10" ht="15" thickBot="1">
       <c r="A962" s="44"/>
-    </row>
-    <row r="963" spans="1:1" ht="15" thickBot="1">
+      <c r="I962" s="53"/>
+      <c r="J962" s="53"/>
+    </row>
+    <row r="963" spans="1:10" ht="15" thickBot="1">
       <c r="A963" s="44"/>
-    </row>
-    <row r="964" spans="1:1" ht="15" thickBot="1">
+      <c r="I963" s="53"/>
+      <c r="J963" s="53"/>
+    </row>
+    <row r="964" spans="1:10" ht="15" thickBot="1">
       <c r="A964" s="44"/>
-    </row>
-    <row r="965" spans="1:1" ht="15" thickBot="1">
+      <c r="I964" s="53"/>
+      <c r="J964" s="53"/>
+    </row>
+    <row r="965" spans="1:10" ht="15" thickBot="1">
       <c r="A965" s="44"/>
-    </row>
-    <row r="966" spans="1:1" ht="15" thickBot="1">
+      <c r="I965" s="53"/>
+      <c r="J965" s="53"/>
+    </row>
+    <row r="966" spans="1:10" ht="15" thickBot="1">
       <c r="A966" s="44"/>
-    </row>
-    <row r="967" spans="1:1" ht="15" thickBot="1">
+      <c r="I966" s="53"/>
+      <c r="J966" s="53"/>
+    </row>
+    <row r="967" spans="1:10" ht="15" thickBot="1">
       <c r="A967" s="44"/>
-    </row>
-    <row r="968" spans="1:1" ht="15" thickBot="1">
+      <c r="I967" s="53"/>
+      <c r="J967" s="53"/>
+    </row>
+    <row r="968" spans="1:10" ht="15" thickBot="1">
       <c r="A968" s="44"/>
     </row>
-    <row r="969" spans="1:1" ht="15" thickBot="1">
+    <row r="969" spans="1:10" ht="15" thickBot="1">
       <c r="A969" s="44"/>
     </row>
-    <row r="970" spans="1:1" ht="15" thickBot="1">
+    <row r="970" spans="1:10" ht="15" thickBot="1">
       <c r="A970" s="44"/>
     </row>
-    <row r="971" spans="1:1" ht="15" thickBot="1">
+    <row r="971" spans="1:10" ht="15" thickBot="1">
       <c r="A971" s="44"/>
     </row>
-    <row r="972" spans="1:1" ht="15" thickBot="1">
+    <row r="972" spans="1:10" ht="15" thickBot="1">
       <c r="A972" s="44"/>
     </row>
-    <row r="973" spans="1:1" ht="15" thickBot="1">
+    <row r="973" spans="1:10" ht="15" thickBot="1">
       <c r="A973" s="44"/>
     </row>
-    <row r="974" spans="1:1" ht="15" thickBot="1">
+    <row r="974" spans="1:10" ht="15" thickBot="1">
       <c r="A974" s="44"/>
     </row>
-    <row r="975" spans="1:1" ht="15" thickBot="1">
+    <row r="975" spans="1:10" ht="15" thickBot="1">
       <c r="A975" s="44"/>
     </row>
-    <row r="976" spans="1:1" ht="15" thickBot="1">
+    <row r="976" spans="1:10" ht="15" thickBot="1">
       <c r="A976" s="44"/>
     </row>
     <row r="977" spans="1:1" ht="15" thickBot="1">
@@ -29696,6 +29804,9 @@
       <c r="A3868" s="44"/>
     </row>
   </sheetData>
+  <sortState ref="I944:J964">
+    <sortCondition ref="I944:I964"/>
+  </sortState>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="120" orientation="portrait" r:id="rId1"/>

--- a/assets/dolar_blue.xlsx
+++ b/assets/dolar_blue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Downloads\app_var_fin_streamlit\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,9 +50,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -139,6 +136,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,10 +146,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFEFEFF1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -374,11 +372,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,8 +610,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G959" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:G959"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G975" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G975"/>
   <tableColumns count="7">
     <tableColumn id="1" name="fecha" dataDxfId="3"/>
     <tableColumn id="3" name="Dólar Blue" dataDxfId="2"/>
@@ -914,13 +912,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3868"/>
+  <dimension ref="A1:G3868"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B939" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B957" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F959" sqref="F959"/>
+      <selection pane="bottomRight" activeCell="A967" sqref="A967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -934,7 +932,7 @@
     <col min="7" max="7" width="11.5546875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -957,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2" s="45">
         <v>43830</v>
       </c>
@@ -980,7 +978,7 @@
         <v>4.5830000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3" s="45">
         <v>43832</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>4.5830000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="A4" s="45">
         <v>43833</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>4.5830000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:7">
       <c r="A5" s="45">
         <v>43836</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>4.5830000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:7">
       <c r="A6" s="45">
         <v>43837</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>4.5830000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:7">
       <c r="A7" s="45">
         <v>43838</v>
       </c>
@@ -1094,9 +1092,8 @@
       <c r="G7">
         <v>4.5830000000000002</v>
       </c>
-      <c r="I7" s="55"/>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="45">
         <v>43839</v>
       </c>
@@ -1119,7 +1116,7 @@
         <v>4.5830000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:7">
       <c r="A9" s="45">
         <v>43840</v>
       </c>
@@ -1142,7 +1139,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:7">
       <c r="A10" s="45">
         <v>43843</v>
       </c>
@@ -1165,7 +1162,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:7">
       <c r="A11" s="45">
         <v>43844</v>
       </c>
@@ -1188,7 +1185,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:7">
       <c r="A12" s="45">
         <v>43845</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:7">
       <c r="A13" s="45">
         <v>43846</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:7">
       <c r="A14" s="45">
         <v>43847</v>
       </c>
@@ -1257,7 +1254,7 @@
         <v>4.1669999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:7">
       <c r="A15" s="45">
         <v>43850</v>
       </c>
@@ -1280,7 +1277,7 @@
         <v>4.1669999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:7">
       <c r="A16" s="45">
         <v>43851</v>
       </c>
@@ -15303,7 +15300,7 @@
       <c r="E625" s="43">
         <v>291.1312346685761</v>
       </c>
-      <c r="F625" s="54">
+      <c r="F625" s="53">
         <v>102270</v>
       </c>
       <c r="G625">
@@ -22279,7 +22276,7 @@
         <v>9.8330000000000002</v>
       </c>
     </row>
-    <row r="929" spans="1:11">
+    <row r="929" spans="1:7">
       <c r="A929" s="45">
         <v>45194</v>
       </c>
@@ -22302,7 +22299,7 @@
         <v>9.8330000000000002</v>
       </c>
     </row>
-    <row r="930" spans="1:11">
+    <row r="930" spans="1:7">
       <c r="A930" s="45">
         <v>45195</v>
       </c>
@@ -22325,7 +22322,7 @@
         <v>9.8330000000000002</v>
       </c>
     </row>
-    <row r="931" spans="1:11">
+    <row r="931" spans="1:7">
       <c r="A931" s="45">
         <v>45196</v>
       </c>
@@ -22348,7 +22345,7 @@
         <v>9.8330000000000002</v>
       </c>
     </row>
-    <row r="932" spans="1:11">
+    <row r="932" spans="1:7">
       <c r="A932" s="45">
         <v>45197</v>
       </c>
@@ -22371,7 +22368,7 @@
         <v>9.8330000000000002</v>
       </c>
     </row>
-    <row r="933" spans="1:11">
+    <row r="933" spans="1:7">
       <c r="A933" s="45">
         <v>45198</v>
       </c>
@@ -22394,11 +22391,11 @@
         <v>9.8330000000000002</v>
       </c>
     </row>
-    <row r="934" spans="1:11">
+    <row r="934" spans="1:7" ht="16.8">
       <c r="A934" s="45">
         <v>45201</v>
       </c>
-      <c r="B934" s="46">
+      <c r="B934" s="54">
         <v>800</v>
       </c>
       <c r="C934" s="47">
@@ -22416,17 +22413,13 @@
       <c r="G934">
         <v>9.8330000000000002</v>
       </c>
-      <c r="H934" s="53"/>
-      <c r="I934" s="53"/>
-      <c r="J934" s="53"/>
-      <c r="K934" s="53"/>
-    </row>
-    <row r="935" spans="1:11">
+    </row>
+    <row r="935" spans="1:7" ht="16.8">
       <c r="A935" s="45">
         <v>45202</v>
       </c>
-      <c r="B935" s="46">
-        <v>810</v>
+      <c r="B935" s="54">
+        <v>800</v>
       </c>
       <c r="C935" s="47">
         <v>822.23</v>
@@ -22443,17 +22436,13 @@
       <c r="G935">
         <v>9.8330000000000002</v>
       </c>
-      <c r="H935" s="53"/>
-      <c r="I935" s="53"/>
-      <c r="J935" s="53"/>
-      <c r="K935" s="53"/>
-    </row>
-    <row r="936" spans="1:11">
+    </row>
+    <row r="936" spans="1:7" ht="16.8">
       <c r="A936" s="45">
         <v>45203</v>
       </c>
-      <c r="B936" s="46">
-        <v>845</v>
+      <c r="B936" s="54">
+        <v>810</v>
       </c>
       <c r="C936" s="47">
         <v>829.67</v>
@@ -22470,17 +22459,13 @@
       <c r="G936">
         <v>9.8330000000000002</v>
       </c>
-      <c r="H936" s="53"/>
-      <c r="I936" s="53"/>
-      <c r="J936" s="53"/>
-      <c r="K936" s="53"/>
-    </row>
-    <row r="937" spans="1:11">
+    </row>
+    <row r="937" spans="1:7" ht="16.8">
       <c r="A937" s="45">
         <v>45204</v>
       </c>
-      <c r="B937" s="46">
-        <v>843</v>
+      <c r="B937" s="54">
+        <v>845</v>
       </c>
       <c r="C937" s="47">
         <v>837.8</v>
@@ -22497,17 +22482,13 @@
       <c r="G937">
         <v>9.8330000000000002</v>
       </c>
-      <c r="H937" s="53"/>
-      <c r="I937" s="53"/>
-      <c r="J937" s="53"/>
-      <c r="K937" s="53"/>
-    </row>
-    <row r="938" spans="1:11">
+    </row>
+    <row r="938" spans="1:7" ht="16.8">
       <c r="A938" s="45">
         <v>45205</v>
       </c>
-      <c r="B938" s="46">
-        <v>895</v>
+      <c r="B938" s="54">
+        <v>843</v>
       </c>
       <c r="C938" s="47">
         <v>904.99</v>
@@ -22524,17 +22505,13 @@
       <c r="G938">
         <v>9.8330000000000002</v>
       </c>
-      <c r="H938" s="53"/>
-      <c r="I938" s="53"/>
-      <c r="J938" s="53"/>
-      <c r="K938" s="53"/>
-    </row>
-    <row r="939" spans="1:11">
+    </row>
+    <row r="939" spans="1:7" ht="16.8">
       <c r="A939" s="45">
         <v>45208</v>
       </c>
-      <c r="B939" s="46">
-        <v>945</v>
+      <c r="B939" s="54">
+        <v>895</v>
       </c>
       <c r="C939" s="47">
         <v>893.88</v>
@@ -22551,17 +22528,13 @@
       <c r="G939">
         <v>9.8330000000000002</v>
       </c>
-      <c r="H939" s="53"/>
-      <c r="I939" s="53"/>
-      <c r="J939" s="53"/>
-      <c r="K939" s="53"/>
-    </row>
-    <row r="940" spans="1:11">
+    </row>
+    <row r="940" spans="1:7" ht="16.8">
       <c r="A940" s="45">
         <v>45209</v>
       </c>
-      <c r="B940" s="46">
-        <v>1010</v>
+      <c r="B940" s="54">
+        <v>945</v>
       </c>
       <c r="C940" s="47">
         <v>891.96</v>
@@ -22578,16 +22551,12 @@
       <c r="G940">
         <v>9.8330000000000002</v>
       </c>
-      <c r="H940" s="53"/>
-      <c r="I940" s="53"/>
-      <c r="J940" s="53"/>
-      <c r="K940" s="53"/>
-    </row>
-    <row r="941" spans="1:11">
+    </row>
+    <row r="941" spans="1:7" ht="16.8">
       <c r="A941" s="45">
         <v>45210</v>
       </c>
-      <c r="B941" s="46">
+      <c r="B941" s="54">
         <v>1010</v>
       </c>
       <c r="C941" s="47">
@@ -22605,17 +22574,13 @@
       <c r="G941">
         <v>9.8330000000000002</v>
       </c>
-      <c r="H941" s="53"/>
-      <c r="I941" s="53"/>
-      <c r="J941" s="53"/>
-      <c r="K941" s="53"/>
-    </row>
-    <row r="942" spans="1:11">
+    </row>
+    <row r="942" spans="1:7" ht="16.8">
       <c r="A942" s="45">
         <v>45211</v>
       </c>
-      <c r="B942" s="46">
-        <v>980</v>
+      <c r="B942" s="54">
+        <v>1010</v>
       </c>
       <c r="C942" s="47">
         <v>966.77</v>
@@ -22632,17 +22597,13 @@
       <c r="G942">
         <v>11.083</v>
       </c>
-      <c r="H942" s="53"/>
-      <c r="I942" s="53"/>
-      <c r="J942" s="53"/>
-      <c r="K942" s="53"/>
-    </row>
-    <row r="943" spans="1:11">
+    </row>
+    <row r="943" spans="1:7" ht="16.8">
       <c r="A943" s="45">
         <v>45216</v>
       </c>
-      <c r="B943" s="46">
-        <v>985</v>
+      <c r="B943" s="54">
+        <v>980</v>
       </c>
       <c r="C943" s="50">
         <v>962.15</v>
@@ -22659,17 +22620,13 @@
       <c r="G943">
         <v>11.083</v>
       </c>
-      <c r="H943" s="53"/>
-      <c r="I943" s="53"/>
-      <c r="J943" s="53"/>
-      <c r="K943" s="53"/>
-    </row>
-    <row r="944" spans="1:11">
+    </row>
+    <row r="944" spans="1:7" ht="16.8">
       <c r="A944" s="45">
         <v>45217</v>
       </c>
-      <c r="B944" s="46">
-        <v>905</v>
+      <c r="B944" s="54">
+        <v>985</v>
       </c>
       <c r="C944">
         <v>952.59</v>
@@ -22686,17 +22643,13 @@
       <c r="G944">
         <v>11.083</v>
       </c>
-      <c r="H944" s="53"/>
-      <c r="I944" s="53"/>
-      <c r="J944" s="53"/>
-      <c r="K944" s="53"/>
-    </row>
-    <row r="945" spans="1:12">
+    </row>
+    <row r="945" spans="1:7" ht="16.8">
       <c r="A945" s="45">
         <v>45218</v>
       </c>
-      <c r="B945" s="46">
-        <v>900</v>
+      <c r="B945" s="54">
+        <v>905</v>
       </c>
       <c r="C945">
         <v>957.07</v>
@@ -22713,16 +22666,12 @@
       <c r="G945">
         <v>11.083</v>
       </c>
-      <c r="H945" s="53"/>
-      <c r="I945" s="53"/>
-      <c r="J945" s="53"/>
-      <c r="K945" s="53"/>
-    </row>
-    <row r="946" spans="1:12">
+    </row>
+    <row r="946" spans="1:7" ht="16.8">
       <c r="A946" s="45">
         <v>45219</v>
       </c>
-      <c r="B946" s="46">
+      <c r="B946" s="54">
         <v>900</v>
       </c>
       <c r="C946">
@@ -22740,17 +22689,13 @@
       <c r="G946">
         <v>11.083</v>
       </c>
-      <c r="H946" s="53"/>
-      <c r="I946" s="53"/>
-      <c r="J946" s="53"/>
-      <c r="K946" s="53"/>
-    </row>
-    <row r="947" spans="1:12">
+    </row>
+    <row r="947" spans="1:7" ht="16.8">
       <c r="A947" s="45">
         <v>45222</v>
       </c>
-      <c r="B947" s="46">
-        <v>1100</v>
+      <c r="B947" s="54">
+        <v>900</v>
       </c>
       <c r="C947">
         <v>935.45</v>
@@ -22767,16 +22712,12 @@
       <c r="G947">
         <v>11.083</v>
       </c>
-      <c r="H947" s="53"/>
-      <c r="I947" s="53"/>
-      <c r="J947" s="53"/>
-      <c r="K947" s="53"/>
-    </row>
-    <row r="948" spans="1:12">
+    </row>
+    <row r="948" spans="1:7" ht="16.8">
       <c r="A948" s="45">
         <v>45223</v>
       </c>
-      <c r="B948" s="46">
+      <c r="B948" s="54">
         <v>1100</v>
       </c>
       <c r="C948">
@@ -22794,17 +22735,13 @@
       <c r="G948">
         <v>11.083</v>
       </c>
-      <c r="H948" s="53"/>
-      <c r="I948" s="53"/>
-      <c r="J948" s="53"/>
-      <c r="K948" s="53"/>
-    </row>
-    <row r="949" spans="1:12">
+    </row>
+    <row r="949" spans="1:7" ht="16.8">
       <c r="A949" s="45">
         <v>45224</v>
       </c>
-      <c r="B949">
-        <v>1000</v>
+      <c r="B949" s="54">
+        <v>1100</v>
       </c>
       <c r="C949">
         <v>888.91</v>
@@ -22821,17 +22758,13 @@
       <c r="G949">
         <v>11.083</v>
       </c>
-      <c r="H949" s="53"/>
-      <c r="I949" s="53"/>
-      <c r="J949" s="53"/>
-      <c r="K949" s="53"/>
-    </row>
-    <row r="950" spans="1:12">
+    </row>
+    <row r="950" spans="1:7" ht="16.8">
       <c r="A950" s="45">
         <v>45225</v>
       </c>
-      <c r="B950">
-        <v>980</v>
+      <c r="B950" s="54">
+        <v>1000</v>
       </c>
       <c r="C950">
         <v>872.78</v>
@@ -22848,17 +22781,13 @@
       <c r="G950">
         <v>11.083</v>
       </c>
-      <c r="H950" s="53"/>
-      <c r="I950" s="53"/>
-      <c r="J950" s="53"/>
-      <c r="K950" s="53"/>
-    </row>
-    <row r="951" spans="1:12">
+    </row>
+    <row r="951" spans="1:7" ht="16.8">
       <c r="A951" s="45">
         <v>45226</v>
       </c>
-      <c r="B951" s="52">
-        <v>990</v>
+      <c r="B951" s="54">
+        <v>980</v>
       </c>
       <c r="C951">
         <v>859.73</v>
@@ -22875,17 +22804,13 @@
       <c r="G951">
         <v>11.083</v>
       </c>
-      <c r="H951" s="53"/>
-      <c r="I951" s="53"/>
-      <c r="J951" s="53"/>
-      <c r="K951" s="53"/>
-    </row>
-    <row r="952" spans="1:12">
+    </row>
+    <row r="952" spans="1:7" ht="16.8">
       <c r="A952" s="45">
         <v>45229</v>
       </c>
-      <c r="B952" s="52">
-        <v>970</v>
+      <c r="B952" s="54">
+        <v>990</v>
       </c>
       <c r="C952">
         <v>853.07</v>
@@ -22902,17 +22827,13 @@
       <c r="G952">
         <v>11.083</v>
       </c>
-      <c r="H952" s="53"/>
-      <c r="I952" s="53"/>
-      <c r="J952" s="53"/>
-      <c r="K952" s="53"/>
-    </row>
-    <row r="953" spans="1:12">
+    </row>
+    <row r="953" spans="1:7" ht="16.8">
       <c r="A953" s="45">
         <v>45230</v>
       </c>
-      <c r="B953" s="52">
-        <v>920</v>
+      <c r="B953" s="54">
+        <v>970</v>
       </c>
       <c r="C953">
         <v>864.84</v>
@@ -22929,69 +22850,58 @@
       <c r="G953">
         <v>11.083</v>
       </c>
-      <c r="H953" s="53"/>
-      <c r="I953" s="53"/>
-      <c r="J953" s="53"/>
-      <c r="K953" s="53"/>
-      <c r="L953" s="53"/>
-    </row>
-    <row r="954" spans="1:12">
+    </row>
+    <row r="954" spans="1:7" ht="16.8">
       <c r="A954" s="45">
         <v>45231</v>
       </c>
-      <c r="B954">
-        <v>915</v>
+      <c r="B954" s="54">
+        <v>920</v>
       </c>
       <c r="C954">
         <v>883.05</v>
       </c>
-      <c r="D954" s="43">
+      <c r="D954">
         <v>840.28</v>
       </c>
       <c r="E954" s="52">
         <v>887.94</v>
       </c>
-      <c r="F954">
-        <v>619303</v>
+      <c r="F954" s="55">
+        <v>616255.38</v>
       </c>
       <c r="G954">
         <v>11.083</v>
       </c>
-      <c r="H954" s="53"/>
-      <c r="I954" s="53"/>
-      <c r="J954" s="53"/>
-      <c r="K954" s="53"/>
-    </row>
-    <row r="955" spans="1:12">
+    </row>
+    <row r="955" spans="1:7" ht="16.8">
       <c r="A955" s="45">
         <v>45232</v>
       </c>
-      <c r="B955">
-        <v>925</v>
+      <c r="B955" s="54">
+        <v>915</v>
       </c>
       <c r="C955">
         <v>883.21</v>
       </c>
-      <c r="D955" s="43">
+      <c r="D955">
         <v>863.64</v>
       </c>
       <c r="E955" s="52">
-        <v>886.81</v>
-      </c>
-      <c r="F955" s="47">
-        <v>650551</v>
+        <v>896.36</v>
+      </c>
+      <c r="F955" s="55">
+        <v>654094.88</v>
       </c>
       <c r="G955">
         <v>11.083</v>
       </c>
-      <c r="I955" s="53"/>
-      <c r="J955" s="53"/>
-    </row>
-    <row r="956" spans="1:12">
+    </row>
+    <row r="956" spans="1:7" ht="16.8">
       <c r="A956" s="45">
         <v>45233</v>
       </c>
-      <c r="B956">
+      <c r="B956" s="54">
         <v>925</v>
       </c>
       <c r="C956">
@@ -23001,23 +22911,21 @@
         <v>844.01</v>
       </c>
       <c r="E956" s="52">
-        <v>889.67</v>
-      </c>
-      <c r="F956">
-        <v>630800</v>
+        <v>886.81</v>
+      </c>
+      <c r="F956" s="55">
+        <v>637284.13</v>
       </c>
       <c r="G956">
         <v>11.083</v>
       </c>
-      <c r="I956" s="53"/>
-      <c r="J956" s="53"/>
-    </row>
-    <row r="957" spans="1:12">
+    </row>
+    <row r="957" spans="1:7" ht="16.8">
       <c r="A957" s="45">
         <v>45236</v>
       </c>
-      <c r="B957">
-        <v>915</v>
+      <c r="B957" s="54">
+        <v>925</v>
       </c>
       <c r="C957">
         <v>868.08</v>
@@ -23026,115 +22934,355 @@
         <v>844.01</v>
       </c>
       <c r="E957" s="52">
-        <v>880.02</v>
-      </c>
-      <c r="F957" s="47">
-        <v>630880</v>
+        <v>889.67</v>
+      </c>
+      <c r="F957" s="55">
+        <v>637284.13</v>
       </c>
       <c r="G957">
         <v>11.083</v>
       </c>
-      <c r="I957" s="53"/>
-      <c r="J957" s="53"/>
-    </row>
-    <row r="958" spans="1:12">
+    </row>
+    <row r="958" spans="1:7" ht="16.8">
       <c r="A958" s="45">
         <v>45237</v>
       </c>
-      <c r="B958" s="52">
-        <v>905</v>
+      <c r="B958" s="54">
+        <v>925</v>
       </c>
       <c r="C958">
-        <v>858.93</v>
+        <v>857.74</v>
       </c>
       <c r="D958">
-        <v>851.73</v>
+        <v>848.8</v>
       </c>
       <c r="E958" s="52">
-        <v>879.92</v>
-      </c>
-      <c r="F958">
-        <v>633339</v>
+        <v>862.09</v>
+      </c>
+      <c r="F958" s="55">
+        <v>611207.43999999994</v>
       </c>
       <c r="G958">
         <v>11.083</v>
       </c>
-      <c r="I958" s="53"/>
-      <c r="J958" s="53"/>
-    </row>
-    <row r="959" spans="1:12" ht="15" thickBot="1">
-      <c r="A959" s="45"/>
-      <c r="B959" s="52"/>
-      <c r="D959" s="43"/>
-      <c r="E959" s="52"/>
-      <c r="I959" s="53"/>
-      <c r="J959" s="53"/>
-    </row>
-    <row r="960" spans="1:12" ht="15" thickBot="1">
-      <c r="A960" s="44"/>
-      <c r="I960" s="53"/>
-      <c r="J960" s="53"/>
-    </row>
-    <row r="961" spans="1:10" ht="15" thickBot="1">
-      <c r="A961" s="44"/>
-      <c r="I961" s="53"/>
-      <c r="J961" s="53"/>
-    </row>
-    <row r="962" spans="1:10" ht="15" thickBot="1">
-      <c r="A962" s="44"/>
-      <c r="I962" s="53"/>
-      <c r="J962" s="53"/>
-    </row>
-    <row r="963" spans="1:10" ht="15" thickBot="1">
-      <c r="A963" s="44"/>
-      <c r="I963" s="53"/>
-      <c r="J963" s="53"/>
-    </row>
-    <row r="964" spans="1:10" ht="15" thickBot="1">
-      <c r="A964" s="44"/>
-      <c r="I964" s="53"/>
-      <c r="J964" s="53"/>
-    </row>
-    <row r="965" spans="1:10" ht="15" thickBot="1">
-      <c r="A965" s="44"/>
-      <c r="I965" s="53"/>
-      <c r="J965" s="53"/>
-    </row>
-    <row r="966" spans="1:10" ht="15" thickBot="1">
-      <c r="A966" s="44"/>
-      <c r="I966" s="53"/>
-      <c r="J966" s="53"/>
-    </row>
-    <row r="967" spans="1:10" ht="15" thickBot="1">
-      <c r="A967" s="44"/>
-      <c r="I967" s="53"/>
-      <c r="J967" s="53"/>
-    </row>
-    <row r="968" spans="1:10" ht="15" thickBot="1">
-      <c r="A968" s="44"/>
-    </row>
-    <row r="969" spans="1:10" ht="15" thickBot="1">
-      <c r="A969" s="44"/>
-    </row>
-    <row r="970" spans="1:10" ht="15" thickBot="1">
-      <c r="A970" s="44"/>
-    </row>
-    <row r="971" spans="1:10" ht="15" thickBot="1">
-      <c r="A971" s="44"/>
-    </row>
-    <row r="972" spans="1:10" ht="15" thickBot="1">
-      <c r="A972" s="44"/>
-    </row>
-    <row r="973" spans="1:10" ht="15" thickBot="1">
-      <c r="A973" s="44"/>
-    </row>
-    <row r="974" spans="1:10" ht="15" thickBot="1">
-      <c r="A974" s="44"/>
-    </row>
-    <row r="975" spans="1:10" ht="15" thickBot="1">
-      <c r="A975" s="44"/>
-    </row>
-    <row r="976" spans="1:10" ht="15" thickBot="1">
+    </row>
+    <row r="959" spans="1:7" ht="16.8">
+      <c r="A959" s="45">
+        <v>45238</v>
+      </c>
+      <c r="B959" s="54">
+        <v>890</v>
+      </c>
+      <c r="C959">
+        <v>823.26</v>
+      </c>
+      <c r="D959">
+        <v>840.97</v>
+      </c>
+      <c r="E959" s="52">
+        <v>868.01</v>
+      </c>
+      <c r="F959" s="55">
+        <v>584969.68999999994</v>
+      </c>
+      <c r="G959">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" ht="16.8">
+      <c r="A960" s="45">
+        <v>45239</v>
+      </c>
+      <c r="B960" s="54">
+        <v>890</v>
+      </c>
+      <c r="C960">
+        <v>871.33</v>
+      </c>
+      <c r="D960">
+        <v>863.3</v>
+      </c>
+      <c r="E960" s="52">
+        <v>901.86</v>
+      </c>
+      <c r="F960" s="55">
+        <v>623995.56000000006</v>
+      </c>
+      <c r="G960">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" ht="16.8">
+      <c r="A961" s="45">
+        <v>45240</v>
+      </c>
+      <c r="B961" s="54">
+        <v>950</v>
+      </c>
+      <c r="C961">
+        <v>877.02</v>
+      </c>
+      <c r="D961">
+        <v>881.71</v>
+      </c>
+      <c r="E961" s="52">
+        <v>919.85</v>
+      </c>
+      <c r="F961" s="55">
+        <v>660274.68999999994</v>
+      </c>
+      <c r="G961">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" ht="16.8">
+      <c r="A962" s="45">
+        <v>45243</v>
+      </c>
+      <c r="B962" s="54">
+        <v>960</v>
+      </c>
+      <c r="C962">
+        <v>878.29</v>
+      </c>
+      <c r="D962">
+        <v>870.63</v>
+      </c>
+      <c r="E962" s="52">
+        <v>909.76</v>
+      </c>
+      <c r="F962" s="55">
+        <v>636964.25</v>
+      </c>
+      <c r="G962">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" ht="16.8">
+      <c r="A963" s="45">
+        <v>45244</v>
+      </c>
+      <c r="B963" s="54">
+        <v>925</v>
+      </c>
+      <c r="C963">
+        <v>875.28</v>
+      </c>
+      <c r="D963">
+        <v>868.42</v>
+      </c>
+      <c r="E963" s="52">
+        <v>902.11</v>
+      </c>
+      <c r="F963" s="55">
+        <v>634516.25</v>
+      </c>
+      <c r="G963">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" ht="16.8">
+      <c r="A964" s="45">
+        <v>45245</v>
+      </c>
+      <c r="B964" s="54">
+        <v>925</v>
+      </c>
+      <c r="C964">
+        <v>875.19</v>
+      </c>
+      <c r="D964">
+        <v>882.35</v>
+      </c>
+      <c r="E964" s="52">
+        <v>929.68</v>
+      </c>
+      <c r="F964" s="55">
+        <v>629361.5</v>
+      </c>
+      <c r="G964">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" ht="16.8">
+      <c r="A965" s="45">
+        <v>45246</v>
+      </c>
+      <c r="B965" s="54">
+        <v>970</v>
+      </c>
+      <c r="C965">
+        <v>870.26</v>
+      </c>
+      <c r="D965">
+        <v>857.14</v>
+      </c>
+      <c r="E965" s="52">
+        <v>930.45</v>
+      </c>
+      <c r="F965" s="55">
+        <v>602278.18999999994</v>
+      </c>
+      <c r="G965">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" ht="16.8">
+      <c r="A966" s="45">
+        <v>45247</v>
+      </c>
+      <c r="B966" s="54">
+        <v>950</v>
+      </c>
+      <c r="C966">
+        <v>876.27</v>
+      </c>
+      <c r="D966">
+        <v>872.61</v>
+      </c>
+      <c r="E966" s="52">
+        <v>976.77</v>
+      </c>
+      <c r="F966" s="55">
+        <v>645079.56000000006</v>
+      </c>
+      <c r="G966">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" ht="16.8">
+      <c r="A967" s="45">
+        <v>45251</v>
+      </c>
+      <c r="B967" s="54">
+        <v>1075</v>
+      </c>
+      <c r="C967">
+        <v>881.85</v>
+      </c>
+      <c r="D967">
+        <v>930.44</v>
+      </c>
+      <c r="E967" s="52">
+        <v>1012.05</v>
+      </c>
+      <c r="F967" s="55">
+        <v>792443.19</v>
+      </c>
+      <c r="G967">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" ht="16.8">
+      <c r="A968" s="45">
+        <v>45252</v>
+      </c>
+      <c r="B968" s="54">
+        <v>1080</v>
+      </c>
+      <c r="C968">
+        <v>947.16</v>
+      </c>
+      <c r="D968">
+        <v>984.19</v>
+      </c>
+      <c r="E968" s="52">
+        <v>993.96</v>
+      </c>
+      <c r="F968" s="55">
+        <v>838616.63</v>
+      </c>
+      <c r="G968">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" ht="16.8">
+      <c r="A969" s="45">
+        <v>45253</v>
+      </c>
+      <c r="B969" s="54">
+        <v>1045</v>
+      </c>
+      <c r="C969">
+        <v>950.02</v>
+      </c>
+      <c r="D969">
+        <v>1006.39</v>
+      </c>
+      <c r="E969" s="52">
+        <v>1005.5</v>
+      </c>
+      <c r="F969" s="55">
+        <v>884977.69</v>
+      </c>
+      <c r="G969">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7">
+      <c r="A970" s="45">
+        <v>45254</v>
+      </c>
+      <c r="B970" s="46">
+        <v>995</v>
+      </c>
+      <c r="C970">
+        <v>925.18</v>
+      </c>
+      <c r="D970" s="43">
+        <v>972.75</v>
+      </c>
+      <c r="E970" s="52">
+        <v>980.98</v>
+      </c>
+      <c r="F970" s="55">
+        <v>878971.2</v>
+      </c>
+      <c r="G970">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7">
+      <c r="A971" s="45">
+        <v>45255</v>
+      </c>
+      <c r="B971" s="46"/>
+      <c r="D971" s="43"/>
+      <c r="E971" s="52"/>
+    </row>
+    <row r="972" spans="1:7">
+      <c r="A972" s="45">
+        <v>45257</v>
+      </c>
+      <c r="B972" s="46"/>
+      <c r="D972" s="43"/>
+      <c r="E972" s="52"/>
+    </row>
+    <row r="973" spans="1:7">
+      <c r="A973" s="45">
+        <v>45258</v>
+      </c>
+      <c r="B973" s="46"/>
+      <c r="D973" s="43"/>
+      <c r="E973" s="52"/>
+    </row>
+    <row r="974" spans="1:7">
+      <c r="A974" s="45">
+        <v>45259</v>
+      </c>
+      <c r="B974" s="46"/>
+      <c r="D974" s="43"/>
+      <c r="E974" s="52"/>
+    </row>
+    <row r="975" spans="1:7" ht="15" thickBot="1">
+      <c r="A975" s="45">
+        <v>45260</v>
+      </c>
+      <c r="B975" s="46"/>
+      <c r="D975" s="43"/>
+      <c r="E975" s="52"/>
+    </row>
+    <row r="976" spans="1:7" ht="15" thickBot="1">
       <c r="A976" s="44"/>
     </row>
     <row r="977" spans="1:1" ht="15" thickBot="1">
@@ -29804,9 +29952,6 @@
       <c r="A3868" s="44"/>
     </row>
   </sheetData>
-  <sortState ref="I944:J964">
-    <sortCondition ref="I944:I964"/>
-  </sortState>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="120" orientation="portrait" r:id="rId1"/>

--- a/assets/dolar_blue.xlsx
+++ b/assets/dolar_blue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin_1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,12 +141,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF121212"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -224,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -372,8 +366,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -915,10 +908,10 @@
   <dimension ref="A1:G3868"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B957" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B958" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A967" sqref="A967"/>
+      <selection pane="bottomRight" activeCell="A970" sqref="A970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -971,7 +964,7 @@
       <c r="E2" s="43">
         <v>74.375234018009863</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="47">
         <v>41107</v>
       </c>
       <c r="G2">
@@ -994,7 +987,7 @@
       <c r="E3" s="43">
         <v>74.406319115937961</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="47">
         <v>41107</v>
       </c>
       <c r="G3">
@@ -1017,7 +1010,7 @@
       <c r="E4" s="43">
         <v>75.896742698599752</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="47">
         <v>40499.199219000002</v>
       </c>
       <c r="G4">
@@ -1040,7 +1033,7 @@
       <c r="E5" s="43">
         <v>77.637369517487983</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="47">
         <v>41469.699219000002</v>
       </c>
       <c r="G5">
@@ -1063,7 +1056,7 @@
       <c r="E6" s="43">
         <v>77.563616164811833</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="47">
         <v>41115.699219000002</v>
       </c>
       <c r="G6">
@@ -1086,7 +1079,7 @@
       <c r="E7" s="43">
         <v>77.917436598336607</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="47">
         <v>41016</v>
       </c>
       <c r="G7">
@@ -1109,7 +1102,7 @@
       <c r="E8" s="43">
         <v>77.71593704136879</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="47">
         <v>42035.699219000002</v>
       </c>
       <c r="G8">
@@ -1132,7 +1125,7 @@
       <c r="E9" s="43">
         <v>81.228293364306353</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="47">
         <v>42740.398437999997</v>
       </c>
       <c r="G9">
@@ -1155,7 +1148,7 @@
       <c r="E10" s="43">
         <v>80.87048572505752</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="47">
         <v>42017.800780999998</v>
       </c>
       <c r="G10">
@@ -1178,7 +1171,7 @@
       <c r="E11" s="43">
         <v>80.627922435460036</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="47">
         <v>41633.699219000002</v>
       </c>
       <c r="G11">
@@ -1201,7 +1194,7 @@
       <c r="E12" s="43">
         <v>81.764655335532879</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="47">
         <v>41246.199219000002</v>
       </c>
       <c r="G12">
@@ -1224,7 +1217,7 @@
       <c r="E13" s="43">
         <v>81.900110290781171</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="47">
         <v>42362.300780999998</v>
       </c>
       <c r="G13">
@@ -1247,7 +1240,7 @@
       <c r="E14" s="43">
         <v>80.43327749736099</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="47">
         <v>42339.800780999998</v>
       </c>
       <c r="G14">
@@ -1270,7 +1263,7 @@
       <c r="E15" s="43">
         <v>81.515054172563254</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="47">
         <v>43054</v>
       </c>
       <c r="G15">
@@ -1293,7 +1286,7 @@
       <c r="E16" s="43">
         <v>81.429477518743766</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="47">
         <v>41485.898437999997</v>
       </c>
       <c r="G16">
@@ -1316,7 +1309,7 @@
       <c r="E17" s="43">
         <v>82.569474208369897</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="47">
         <v>42002.300780999998</v>
       </c>
       <c r="G17">
@@ -1339,7 +1332,7 @@
       <c r="E18" s="43">
         <v>82.826437783070887</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="47">
         <v>41140.199219000002</v>
       </c>
       <c r="G18">
@@ -1362,7 +1355,7 @@
       <c r="E19" s="43">
         <v>83.197145718021176</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="47">
         <v>39917.800780999998</v>
       </c>
       <c r="G19">
@@ -1385,7 +1378,7 @@
       <c r="E20" s="43">
         <v>82.808326865119895</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="47">
         <v>39604.601562999997</v>
       </c>
       <c r="G20">
@@ -1408,7 +1401,7 @@
       <c r="E21" s="43">
         <v>83.743122191364009</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="47">
         <v>40829.699219000002</v>
       </c>
       <c r="G21">
@@ -1431,7 +1424,7 @@
       <c r="E22" s="43">
         <v>84.320025092763174</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="47">
         <v>40341.398437999997</v>
       </c>
       <c r="G22">
@@ -1454,7 +1447,7 @@
       <c r="E23" s="43">
         <v>83.080860303515777</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="47">
         <v>40395</v>
       </c>
       <c r="G23">
@@ -1477,7 +1470,7 @@
       <c r="E24" s="43">
         <v>84.534228795687113</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="47">
         <v>40105</v>
       </c>
       <c r="G24">
@@ -1500,7 +1493,7 @@
       <c r="E25" s="43">
         <v>83.355829794491129</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="47">
         <v>41577.101562999997</v>
       </c>
       <c r="G25">
@@ -1523,7 +1516,7 @@
       <c r="E26" s="43">
         <v>84.713948633414304</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="47">
         <v>41033.800780999998</v>
       </c>
       <c r="G26">
@@ -1546,7 +1539,7 @@
       <c r="E27" s="43">
         <v>84.071945513769919</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="47">
         <v>40767.101562999997</v>
       </c>
       <c r="G27">
@@ -1569,7 +1562,7 @@
       <c r="E28" s="43">
         <v>83.707844730404148</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="47">
         <v>40906.101562999997</v>
       </c>
       <c r="G28">
@@ -1592,7 +1585,7 @@
       <c r="E29" s="43">
         <v>83.994228378097347</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="47">
         <v>41213.898437999997</v>
       </c>
       <c r="G29">
@@ -1615,7 +1608,7 @@
       <c r="E30" s="43">
         <v>83.706412872503961</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="47">
         <v>41053</v>
       </c>
       <c r="G30">
@@ -1638,7 +1631,7 @@
       <c r="E31" s="43">
         <v>83.152954865206141</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="47">
         <v>39824.5</v>
       </c>
       <c r="G31">
@@ -1661,7 +1654,7 @@
       <c r="E32" s="43">
         <v>81.942101810281486</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="47">
         <v>39936.199219000002</v>
       </c>
       <c r="G32">
@@ -1684,7 +1677,7 @@
       <c r="E33" s="43">
         <v>84.575948912991578</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="47">
         <v>38669.5</v>
       </c>
       <c r="G33">
@@ -1707,7 +1700,7 @@
       <c r="E34" s="43">
         <v>84.007851927589442</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="47">
         <v>38647.699219000002</v>
       </c>
       <c r="G34">
@@ -1730,7 +1723,7 @@
       <c r="E35" s="43">
         <v>84.943672043320149</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="47">
         <v>39200.300780999998</v>
       </c>
       <c r="G35">
@@ -1753,7 +1746,7 @@
       <c r="E36" s="43">
         <v>81.625136212933583</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="47">
         <v>38157</v>
       </c>
       <c r="G36">
@@ -1776,7 +1769,7 @@
       <c r="E37" s="43">
         <v>80.633979519847017</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="47">
         <v>38390.800780999998</v>
       </c>
       <c r="G37">
@@ -1799,7 +1792,7 @@
       <c r="E38" s="43">
         <v>80.088026783904354</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="47">
         <v>38961.398437999997</v>
       </c>
       <c r="G38">
@@ -1822,7 +1815,7 @@
       <c r="E39" s="43">
         <v>79.195907319125425</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="47">
         <v>38602.5</v>
       </c>
       <c r="G39">
@@ -1845,7 +1838,7 @@
       <c r="E40" s="43">
         <v>80.683985581308946</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="47">
         <v>36422.199219000002</v>
       </c>
       <c r="G40">
@@ -1868,7 +1861,7 @@
       <c r="E41" s="43">
         <v>81.708300089396573</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="47">
         <v>35387.101562999997</v>
       </c>
       <c r="G41">
@@ -1891,7 +1884,7 @@
       <c r="E42" s="43">
         <v>80.655996224608487</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="47">
         <v>34973.199219000002</v>
       </c>
       <c r="G42">
@@ -1914,7 +1907,7 @@
       <c r="E43" s="43">
         <v>80.712916476001723</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="47">
         <v>36253.300780999998</v>
       </c>
       <c r="G43">
@@ -1937,7 +1930,7 @@
       <c r="E44" s="43">
         <v>80.541101643091693</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="47">
         <v>35999.199219000002</v>
       </c>
       <c r="G44">
@@ -1960,7 +1953,7 @@
       <c r="E45" s="43">
         <v>80.029621785360149</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="47">
         <v>37243.398437999997</v>
       </c>
       <c r="G45">
@@ -1983,7 +1976,7 @@
       <c r="E46" s="43">
         <v>81.695535220679787</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="47">
         <v>36772.199219000002</v>
       </c>
       <c r="G46">
@@ -2006,7 +1999,7 @@
       <c r="E47" s="43">
         <v>82.981342206660216</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="47">
         <v>35222.398437999997</v>
       </c>
       <c r="G47">
@@ -2029,7 +2022,7 @@
       <c r="E48" s="43">
         <v>85.614458766683867</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="47">
         <v>30379.900390999999</v>
       </c>
       <c r="G48">
@@ -2052,7 +2045,7 @@
       <c r="E49" s="43">
         <v>83.651565982845995</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="47">
         <v>32832.300780999998</v>
       </c>
       <c r="G49">
@@ -2075,7 +2068,7 @@
       <c r="E50" s="43">
         <v>86.958009254877325</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="47">
         <v>31419.599609000001</v>
       </c>
       <c r="G50">
@@ -2098,7 +2091,7 @@
       <c r="E51" s="43">
         <v>89.717269921530971</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="47">
         <v>28351.900390999999</v>
       </c>
       <c r="G51">
@@ -2121,7 +2114,7 @@
       <c r="E52" s="43">
         <v>86.765992764800231</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="47">
         <v>28448</v>
       </c>
       <c r="G52">
@@ -2144,7 +2137,7 @@
       <c r="E53" s="43">
         <v>91.969733251589361</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="47">
         <v>25697.5</v>
       </c>
       <c r="G53">
@@ -2167,7 +2160,7 @@
       <c r="E54" s="43">
         <v>87.834802171301234</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="47">
         <v>25823.5</v>
       </c>
       <c r="G54">
@@ -2190,7 +2183,7 @@
       <c r="E55" s="43">
         <v>89.554279208902656</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="47">
         <v>22087.099609000001</v>
       </c>
       <c r="G55">
@@ -2213,7 +2206,7 @@
       <c r="E56" s="43">
         <v>91.213489803566986</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="47">
         <v>22656.400390999999</v>
       </c>
       <c r="G56">
@@ -2236,7 +2229,7 @@
       <c r="E57" s="43">
         <v>88.992180178693729</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="47">
         <v>23890.400390999999</v>
       </c>
       <c r="G57">
@@ -2259,7 +2252,7 @@
       <c r="E58" s="43">
         <v>86.63232382695675</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="47">
         <v>26338</v>
       </c>
       <c r="G58">
@@ -2282,7 +2275,7 @@
       <c r="E59" s="43">
         <v>82.829479709348192</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="47">
         <v>25483.900390999999</v>
       </c>
       <c r="G59">
@@ -2305,7 +2298,7 @@
       <c r="E60" s="43">
         <v>87.633540750773136</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="47">
         <v>24058.599609000001</v>
       </c>
       <c r="G60">
@@ -2328,7 +2321,7 @@
       <c r="E61" s="43">
         <v>85.477471367535813</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="47">
         <v>24384.199218999998</v>
       </c>
       <c r="G61">
@@ -2351,7 +2344,7 @@
       <c r="E62" s="43">
         <v>87.938519051277822</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="47">
         <v>25324.300781000002</v>
       </c>
       <c r="G62">
@@ -2374,7 +2367,7 @@
       <c r="E63" s="43">
         <v>88.583722349249371</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="47">
         <v>26003.300781000002</v>
       </c>
       <c r="G63">
@@ -2397,7 +2390,7 @@
       <c r="E64" s="43">
         <v>87.976064630656694</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="47">
         <v>26505.400390999999</v>
       </c>
       <c r="G64">
@@ -2420,7 +2413,7 @@
       <c r="E65" s="43">
         <v>90.347460711160394</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="47">
         <v>26922.599609000001</v>
       </c>
       <c r="G65">
@@ -2443,7 +2436,7 @@
       <c r="E66" s="43">
         <v>90.029603511451384</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="47">
         <v>26696.099609000001</v>
       </c>
       <c r="G66">
@@ -2466,7 +2459,7 @@
       <c r="E67" s="43">
         <v>93.202484526214334</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="47">
         <v>28017.599609000001</v>
       </c>
       <c r="G67">
@@ -2489,7 +2482,7 @@
       <c r="E68" s="43">
         <v>101.81241194789899</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="47">
         <v>28880.599609000001</v>
       </c>
       <c r="G68">
@@ -2512,7 +2505,7 @@
       <c r="E69" s="43">
         <v>107.49485408672713</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="47">
         <v>30781.599609000001</v>
       </c>
       <c r="G69">
@@ -2535,7 +2528,7 @@
       <c r="E70" s="43">
         <v>108.50171361410871</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="47">
         <v>32070.699218999998</v>
       </c>
       <c r="G70">
@@ -2558,7 +2551,7 @@
       <c r="E71" s="43">
         <v>105.63911640442817</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="47">
         <v>30077.699218999998</v>
       </c>
       <c r="G71">
@@ -2581,7 +2574,7 @@
       <c r="E72" s="43">
         <v>102.72233919423658</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="47">
         <v>29883.300781000002</v>
       </c>
       <c r="G72">
@@ -2604,7 +2597,7 @@
       <c r="E73" s="43">
         <v>105.98177561922348</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="47">
         <v>30535.699218999998</v>
       </c>
       <c r="G73">
@@ -2627,7 +2620,7 @@
       <c r="E74" s="43">
         <v>109.55810559605473</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="47">
         <v>30237.099609000001</v>
       </c>
       <c r="G74">
@@ -2650,7 +2643,7 @@
       <c r="E75" s="43">
         <v>111.10082100181324</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="47">
         <v>30554.900390999999</v>
       </c>
       <c r="G75">
@@ -2673,7 +2666,7 @@
       <c r="E76" s="43">
         <v>112.81991364457694</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="47">
         <v>30378.900390999999</v>
       </c>
       <c r="G76">
@@ -2696,7 +2689,7 @@
       <c r="E77" s="43">
         <v>111.14864145554719</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="47">
         <v>29258.099609000001</v>
       </c>
       <c r="G77">
@@ -2719,7 +2712,7 @@
       <c r="E78" s="43">
         <v>116.76234503393965</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="47">
         <v>29986.199218999998</v>
       </c>
       <c r="G78">
@@ -2742,7 +2735,7 @@
       <c r="E79" s="43">
         <v>115.90855088923259</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="47">
         <v>33064.800780999998</v>
       </c>
       <c r="G79">
@@ -2765,7 +2758,7 @@
       <c r="E80" s="43">
         <v>109.55413390935638</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="47">
         <v>33185.101562999997</v>
       </c>
       <c r="G80">
@@ -2788,7 +2781,7 @@
       <c r="E81" s="43">
         <v>112.44435774441726</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="47">
         <v>32742.800781000002</v>
       </c>
       <c r="G81">
@@ -2811,7 +2804,7 @@
       <c r="E82" s="43">
         <v>114.52483578111347</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="47">
         <v>32387.300781000002</v>
       </c>
       <c r="G82">
@@ -2834,7 +2827,7 @@
       <c r="E83" s="43">
         <v>120.20171209928361</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="47">
         <v>33546.5</v>
       </c>
       <c r="G83">
@@ -2857,7 +2850,7 @@
       <c r="E84" s="43">
         <v>118.50655020884891</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="47">
         <v>34158.898437999997</v>
       </c>
       <c r="G84">
@@ -2880,7 +2873,7 @@
       <c r="E85" s="43">
         <v>119.02140730161662</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="47">
         <v>35850.199219000002</v>
       </c>
       <c r="G85">
@@ -2903,7 +2896,7 @@
       <c r="E86" s="43">
         <v>115.62990683824069</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="47">
         <v>36183.898437999997</v>
       </c>
       <c r="G86">
@@ -2926,7 +2919,7 @@
       <c r="E87" s="43">
         <v>118.08606868892504</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="47">
         <v>38581.601562999997</v>
       </c>
       <c r="G87">
@@ -2949,7 +2942,7 @@
       <c r="E88" s="43">
         <v>120.41899727110598</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="47">
         <v>39133.699219000002</v>
       </c>
       <c r="G88">
@@ -2972,7 +2965,7 @@
       <c r="E89" s="43">
         <v>124.86853232561413</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="47">
         <v>37842.800780999998</v>
       </c>
       <c r="G89">
@@ -2995,7 +2988,7 @@
       <c r="E90" s="43">
         <v>122.61940869934865</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="47">
         <v>39225.699219000002</v>
       </c>
       <c r="G90">
@@ -3018,7 +3011,7 @@
       <c r="E91" s="43">
         <v>121.54533643518303</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="47">
         <v>39388.300780999998</v>
       </c>
       <c r="G91">
@@ -3041,7 +3034,7 @@
       <c r="E92" s="43">
         <v>119.089203043756</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="47">
         <v>40286.699219000002</v>
       </c>
       <c r="G92">
@@ -3064,7 +3057,7 @@
       <c r="E93" s="43">
         <v>119.20454928113115</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="47">
         <v>39388.699219000002</v>
       </c>
       <c r="G93">
@@ -3087,7 +3080,7 @@
       <c r="E94" s="43">
         <v>118.76007593030108</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="47">
         <v>39809.199219000002</v>
       </c>
       <c r="G94">
@@ -3110,7 +3103,7 @@
       <c r="E95" s="43">
         <v>117.47174782261814</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="47">
         <v>41388.5</v>
       </c>
       <c r="G95">
@@ -3133,7 +3126,7 @@
       <c r="E96" s="43">
         <v>114.1435986367209</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="47">
         <v>40962.699219000002</v>
       </c>
       <c r="G96">
@@ -3156,7 +3149,7 @@
       <c r="E97" s="43">
         <v>113.22698251177235</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="47">
         <v>41060.300780999998</v>
       </c>
       <c r="G97">
@@ -3179,7 +3172,7 @@
       <c r="E98" s="43">
         <v>110.62421396501972</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="47">
         <v>40431.601562999997</v>
       </c>
       <c r="G98">
@@ -3202,7 +3195,7 @@
       <c r="E99" s="43">
         <v>112.7595981716579</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="47">
         <v>38985.800780999998</v>
       </c>
       <c r="G99">
@@ -3225,7 +3218,7 @@
       <c r="E100" s="43">
         <v>115.44194446668186</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="47">
         <v>37824.699219000002</v>
       </c>
       <c r="G100">
@@ -3248,7 +3241,7 @@
       <c r="E101" s="43">
         <v>115.85253024308599</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="47">
         <v>40017</v>
       </c>
       <c r="G101">
@@ -3271,7 +3264,7 @@
       <c r="E102" s="43">
         <v>114.12225500052807</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="47">
         <v>42037.601562999997</v>
       </c>
       <c r="G102">
@@ -3294,7 +3287,7 @@
       <c r="E103" s="43">
         <v>114.65755489955244</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="47">
         <v>43853.101562999997</v>
       </c>
       <c r="G103">
@@ -3317,7 +3310,7 @@
       <c r="E104" s="43">
         <v>114.52980814968275</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="47">
         <v>43676.199219000002</v>
       </c>
       <c r="G104">
@@ -3340,7 +3333,7 @@
       <c r="E105" s="43">
         <v>116.06901021863303</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="47">
         <v>45128.800780999998</v>
       </c>
       <c r="G105">
@@ -3363,7 +3356,7 @@
       <c r="E106" s="43">
         <v>115.23826617776928</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="47">
         <v>48881.199219000002</v>
       </c>
       <c r="G106">
@@ -3386,7 +3379,7 @@
       <c r="E107" s="43">
         <v>116.22851080835265</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="47">
         <v>46471.101562999997</v>
       </c>
       <c r="G107">
@@ -3409,7 +3402,7 @@
       <c r="E108" s="43">
         <v>116.81922445111195</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="47">
         <v>46476.101562999997</v>
       </c>
       <c r="G108">
@@ -3432,7 +3425,7 @@
       <c r="E109" s="43">
         <v>115.97951792556688</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="47">
         <v>43057.898437999997</v>
       </c>
       <c r="G109">
@@ -3455,7 +3448,7 @@
       <c r="E110" s="43">
         <v>110.44244320244228</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="47">
         <v>43417.199219000002</v>
       </c>
       <c r="G110">
@@ -3478,7 +3471,7 @@
       <c r="E111" s="43">
         <v>111.64170470239247</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="47">
         <v>42686.101562999997</v>
       </c>
       <c r="G111">
@@ -3501,7 +3494,7 @@
       <c r="E112" s="43">
         <v>108.49520458658613</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="47">
         <v>40471.199219000002</v>
       </c>
       <c r="G112">
@@ -3524,7 +3517,7 @@
       <c r="E113" s="43">
         <v>109.16389100693588</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="47">
         <v>37990.601562999997</v>
       </c>
       <c r="G113">
@@ -3547,7 +3540,7 @@
       <c r="E114" s="43">
         <v>110.68193008935047</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="47">
         <v>40951.5</v>
       </c>
       <c r="G114">
@@ -3570,7 +3563,7 @@
       <c r="E115" s="43">
         <v>111.0098615745776</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="47">
         <v>40344.300780999998</v>
       </c>
       <c r="G115">
@@ -3593,7 +3586,7 @@
       <c r="E116" s="43">
         <v>108.42996607839498</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="47">
         <v>40803.601562999997</v>
       </c>
       <c r="G116">
@@ -3616,7 +3609,7 @@
       <c r="E117" s="43">
         <v>109.25513432815963</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="47">
         <v>40435.300780999998</v>
       </c>
       <c r="G117">
@@ -3639,7 +3632,7 @@
       <c r="E118" s="43">
         <v>108.15381225417615</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="47">
         <v>41996.699219000002</v>
       </c>
       <c r="G118">
@@ -3662,7 +3655,7 @@
       <c r="E119" s="43">
         <v>107.33877174048558</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="47">
         <v>40589.898437999997</v>
       </c>
       <c r="G119">
@@ -3685,7 +3678,7 @@
       <c r="E120" s="43">
         <v>105.5152685735263</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="47">
         <v>40308.101562999997</v>
       </c>
       <c r="G120">
@@ -3708,7 +3701,7 @@
       <c r="E121" s="43">
         <v>105.61394208253299</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="47">
         <v>38686.699219000002</v>
       </c>
       <c r="G121">
@@ -3731,7 +3724,7 @@
       <c r="E122" s="43">
         <v>107.6514013069512</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="47">
         <v>39846.699219000002</v>
       </c>
       <c r="G122">
@@ -3754,7 +3747,7 @@
       <c r="E123" s="43">
         <v>110.30477975253048</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="47">
         <v>39500.898437999997</v>
       </c>
       <c r="G123">
@@ -3777,7 +3770,7 @@
       <c r="E124" s="43">
         <v>111.97361731832611</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="47">
         <v>39758.199219000002</v>
       </c>
       <c r="G124">
@@ -3800,7 +3793,7 @@
       <c r="E125" s="43">
         <v>107.38055708293619</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="47">
         <v>43339.699219000002</v>
       </c>
       <c r="G125">
@@ -3823,7 +3816,7 @@
       <c r="E126" s="43">
         <v>109.29608190809411</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="47">
         <v>42497.601562999997</v>
       </c>
       <c r="G126">
@@ -3846,7 +3839,7 @@
       <c r="E127" s="43">
         <v>108.85381399948776</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="47">
         <v>42747.601562999997</v>
       </c>
       <c r="G127">
@@ -3869,7 +3862,7 @@
       <c r="E128" s="43">
         <v>114.13094756789792</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="47">
         <v>42747.601562999997</v>
       </c>
       <c r="G128">
@@ -3892,7 +3885,7 @@
       <c r="E129" s="43">
         <v>105.59873073125301</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="47">
         <v>42747.601562999997</v>
       </c>
       <c r="G129">
@@ -3915,7 +3908,7 @@
       <c r="E130" s="43">
         <v>110.4301063490404</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="47">
         <v>43237</v>
       </c>
       <c r="G130">
@@ -3938,7 +3931,7 @@
       <c r="E131" s="43">
         <v>112.48128556829778</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="47">
         <v>44001.898437999997</v>
       </c>
       <c r="G131">
@@ -3961,7 +3954,7 @@
       <c r="E132" s="43">
         <v>112.10248579584602</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="47">
         <v>45120.601562999997</v>
       </c>
       <c r="G132">
@@ -3984,7 +3977,7 @@
       <c r="E133" s="43">
         <v>113.8875819176328</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="47">
         <v>45245.199219000002</v>
       </c>
       <c r="G133">
@@ -4007,7 +4000,7 @@
       <c r="E134" s="43">
         <v>116.32938259506729</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="47">
         <v>45475.199219000002</v>
       </c>
       <c r="G134">
@@ -4030,7 +4023,7 @@
       <c r="E135" s="43">
         <v>118.04706094327575</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="47">
         <v>45683</v>
       </c>
       <c r="G135">
@@ -4053,7 +4046,7 @@
       <c r="E136" s="43">
         <v>117.70707141337594</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="47">
         <v>46781.300780999998</v>
       </c>
       <c r="G136">
@@ -4076,7 +4069,7 @@
       <c r="E137" s="43">
         <v>115.53126563655171</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="47">
         <v>48634.101562999997</v>
       </c>
       <c r="G137">
@@ -4099,7 +4092,7 @@
       <c r="E138" s="43">
         <v>113.87665422174861</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="47">
         <v>48408.300780999998</v>
       </c>
       <c r="G138">
@@ -4122,7 +4115,7 @@
       <c r="E139" s="43">
         <v>115.3891718241416</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="47">
         <v>48605.101562999997</v>
       </c>
       <c r="G139">
@@ -4145,7 +4138,7 @@
       <c r="E140" s="43">
         <v>117.30367886554808</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="47">
         <v>49449.898437999997</v>
       </c>
       <c r="G140">
@@ -4168,7 +4161,7 @@
       <c r="E141" s="43">
         <v>118.68403422803257</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="47">
         <v>48934.398437999997</v>
       </c>
       <c r="G141">
@@ -4191,7 +4184,7 @@
       <c r="E142" s="43">
         <v>117.59982666315385</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="47">
         <v>48884.5</v>
       </c>
       <c r="G142">
@@ -4214,7 +4207,7 @@
       <c r="E143" s="43">
         <v>120.48232591663128</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="47">
         <v>49405.800780999998</v>
       </c>
       <c r="G143">
@@ -4237,7 +4230,7 @@
       <c r="E144" s="43">
         <v>123.54844139635854</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="47">
         <v>49253.601562999997</v>
       </c>
       <c r="G144">
@@ -4260,7 +4253,7 @@
       <c r="E145" s="43">
         <v>123.20716552726611</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="47">
         <v>52504.199219000002</v>
       </c>
       <c r="G145">
@@ -4283,7 +4276,7 @@
       <c r="E146" s="43">
         <v>121.48081435491571</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="47">
         <v>52186.300780999998</v>
       </c>
       <c r="G146">
@@ -4306,7 +4299,7 @@
       <c r="E147" s="43">
         <v>121.28072208222241</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="47">
         <v>50994.398437999997</v>
       </c>
       <c r="G147">
@@ -4329,7 +4322,7 @@
       <c r="E148" s="43">
         <v>122.5020695522706</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="47">
         <v>51083.800780999998</v>
       </c>
       <c r="G148">
@@ -4352,7 +4345,7 @@
       <c r="E149" s="43">
         <v>125.26424220600518</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="47">
         <v>52325.800780999998</v>
       </c>
       <c r="G149">
@@ -4375,7 +4368,7 @@
       <c r="E150" s="43">
         <v>126.83918476281882</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="47">
         <v>52180.898437999997</v>
       </c>
       <c r="G150">
@@ -4398,7 +4391,7 @@
       <c r="E151" s="43">
         <v>129.52668741219975</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="47">
         <v>50998.5</v>
       </c>
       <c r="G151">
@@ -4421,7 +4414,7 @@
       <c r="E152" s="43">
         <v>129.37009570299185</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="47">
         <v>48970.5</v>
       </c>
       <c r="G152">
@@ -4444,7 +4437,7 @@
       <c r="E153" s="43">
         <v>129.10125167928697</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="47">
         <v>49626.800780999998</v>
       </c>
       <c r="G153">
@@ -4467,7 +4460,7 @@
       <c r="E154" s="43">
         <v>126.63989989720898</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="47">
         <v>48547.898437999997</v>
       </c>
       <c r="G154">
@@ -4490,7 +4483,7 @@
       <c r="E155" s="43">
         <v>133.4472346460889</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="47">
         <v>48547.898437999997</v>
       </c>
       <c r="G155">
@@ -4513,7 +4506,7 @@
       <c r="E156" s="43">
         <v>127.85762195571098</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="47">
         <v>46491.398437999997</v>
       </c>
       <c r="G156">
@@ -4536,7 +4529,7 @@
       <c r="E157" s="43">
         <v>132.29473989456122</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="47">
         <v>47471.601562999997</v>
       </c>
       <c r="G157">
@@ -4559,7 +4552,7 @@
       <c r="E158" s="43">
         <v>133.45616546042149</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="47">
         <v>47737.199219000002</v>
       </c>
       <c r="G158">
@@ -4582,7 +4575,7 @@
       <c r="E159" s="43">
         <v>133.3404463188281</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="47">
         <v>47411.300780999998</v>
       </c>
       <c r="G159">
@@ -4605,7 +4598,7 @@
       <c r="E160" s="43">
         <v>133.41111105143577</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="47">
         <v>46736.699219000002</v>
       </c>
       <c r="G160">
@@ -4628,7 +4621,7 @@
       <c r="E161" s="43">
         <v>130.74800023340478</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="47">
         <v>46579.300780999998</v>
       </c>
       <c r="G161">
@@ -4651,7 +4644,7 @@
       <c r="E162" s="43">
         <v>128.78263571259777</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="47">
         <v>45831.699219000002</v>
       </c>
       <c r="G162">
@@ -4674,7 +4667,7 @@
       <c r="E163" s="43">
         <v>125.13900020303285</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="47">
         <v>44254.898437999997</v>
       </c>
       <c r="G163">
@@ -4697,7 +4690,7 @@
       <c r="E164" s="43">
         <v>124.60122261462183</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="47">
         <v>46396.601562999997</v>
       </c>
       <c r="G164">
@@ -4720,7 +4713,7 @@
       <c r="E165" s="43">
         <v>128.14627563096997</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="47">
         <v>46835.398437999997</v>
       </c>
       <c r="G165">
@@ -4743,7 +4736,7 @@
       <c r="E166" s="43">
         <v>125.94744025842711</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="47">
         <v>46545.5</v>
       </c>
       <c r="G166">
@@ -4766,7 +4759,7 @@
       <c r="E167" s="43">
         <v>123.57065662167611</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="47">
         <v>44877.5</v>
       </c>
       <c r="G167">
@@ -4789,7 +4782,7 @@
       <c r="E168" s="43">
         <v>121.38232535687894</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="47">
         <v>44800.101562999997</v>
       </c>
       <c r="G168">
@@ -4812,7 +4805,7 @@
       <c r="E169" s="43">
         <v>122.96474080608074</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="47">
         <v>45075.101562999997</v>
       </c>
       <c r="G169">
@@ -4835,7 +4828,7 @@
       <c r="E170" s="43">
         <v>126.71901719072186</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="47">
         <v>45691</v>
       </c>
       <c r="G170">
@@ -4858,7 +4851,7 @@
       <c r="E171" s="43">
         <v>123.94101804015351</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="47">
         <v>45481.800780999998</v>
       </c>
       <c r="G171">
@@ -4881,7 +4874,7 @@
       <c r="E172" s="43">
         <v>126.9348183624663</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="47">
         <v>46520.199219000002</v>
       </c>
       <c r="G172">
@@ -4904,7 +4897,7 @@
       <c r="E173" s="43">
         <v>129.00117009672954</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="47">
         <v>46868.5</v>
       </c>
       <c r="G173">
@@ -4927,7 +4920,7 @@
       <c r="E174" s="43">
         <v>130.04839827212083</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="47">
         <v>45840</v>
       </c>
       <c r="G174">
@@ -4950,7 +4943,7 @@
       <c r="E175" s="43">
         <v>130.04839827212083</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="47">
         <v>44614.101562999997</v>
       </c>
       <c r="G175">
@@ -4973,7 +4966,7 @@
       <c r="E176" s="43">
         <v>128.33511755627686</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="47">
         <v>44628.398437999997</v>
       </c>
       <c r="G176">
@@ -4996,7 +4989,7 @@
       <c r="E177" s="43">
         <v>128.06402933859164</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="47">
         <v>42167.898437999997</v>
       </c>
       <c r="G177">
@@ -5019,7 +5012,7 @@
       <c r="E178" s="43">
         <v>128.5582883986126</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="47">
         <v>39799.898437999997</v>
       </c>
       <c r="G178">
@@ -5042,7 +5035,7 @@
       <c r="E179" s="43">
         <v>135.70541075489234</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="47">
         <v>41484.101562999997</v>
       </c>
       <c r="G179">
@@ -5065,7 +5058,7 @@
       <c r="E180" s="43">
         <v>138.06216681685916</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="47">
         <v>40745.101562999997</v>
       </c>
       <c r="G180">
@@ -5088,7 +5081,7 @@
       <c r="E181" s="43">
         <v>143.01570386266783</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="47">
         <v>40944.5</v>
       </c>
       <c r="G181">
@@ -5111,7 +5104,7 @@
       <c r="E182" s="43">
         <v>149.33749827996925</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="47">
         <v>40974.101562999997</v>
       </c>
       <c r="G182">
@@ -5134,7 +5127,7 @@
       <c r="E183" s="43">
         <v>143.95944723867746</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="47">
         <v>41875.699219000002</v>
       </c>
       <c r="G183">
@@ -5157,7 +5150,7 @@
       <c r="E184" s="43">
         <v>144.20822609805234</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="47">
         <v>42042.5</v>
       </c>
       <c r="G184">
@@ -5180,7 +5173,7 @@
       <c r="E185" s="43">
         <v>145.53949313430937</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="47">
         <v>42077.898437999997</v>
       </c>
       <c r="G185">
@@ -5203,7 +5196,7 @@
       <c r="E186" s="43">
         <v>148.62609016378079</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="47">
         <v>42196.898437999997</v>
       </c>
       <c r="G186">
@@ -5226,7 +5219,7 @@
       <c r="E187" s="43">
         <v>145.20135996915928</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="47">
         <v>41260.898437999997</v>
       </c>
       <c r="G187">
@@ -5249,7 +5242,7 @@
       <c r="E188" s="43">
         <v>145.75941594312903</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="47">
         <v>42916.199219000002</v>
       </c>
       <c r="G188">
@@ -5272,7 +5265,7 @@
       <c r="E189" s="43">
         <v>149.03954900130421</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="47">
         <v>43654.398437999997</v>
       </c>
       <c r="G189">
@@ -5295,7 +5288,7 @@
       <c r="E190" s="43">
         <v>150.29760402787647</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="47">
         <v>44273.199219000002</v>
       </c>
       <c r="G190">
@@ -5318,7 +5311,7 @@
       <c r="E191" s="43">
         <v>151.13010446984788</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="47">
         <v>44438.398437999997</v>
       </c>
       <c r="G191">
@@ -5341,7 +5334,7 @@
       <c r="E192" s="43">
         <v>149.74702284455481</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="47">
         <v>44739.898437999997</v>
       </c>
       <c r="G192">
@@ -5364,7 +5357,7 @@
       <c r="E193" s="43">
         <v>150.54644939875689</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="47">
         <v>45482.199219000002</v>
       </c>
       <c r="G193">
@@ -5387,7 +5380,7 @@
       <c r="E194" s="43">
         <v>151.5749207759896</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="47">
         <v>45856.101562999997</v>
       </c>
       <c r="G194">
@@ -5410,7 +5403,7 @@
       <c r="E195" s="43">
         <v>157.6022003944787</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="47">
         <v>45994.699219000002</v>
       </c>
       <c r="G195">
@@ -5433,7 +5426,7 @@
       <c r="E196" s="43">
         <v>161.81884963484956</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="47">
         <v>47295.300780999998</v>
       </c>
       <c r="G196">
@@ -5456,7 +5449,7 @@
       <c r="E197" s="43">
         <v>166.0030541433336</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="47">
         <v>48239.300780999998</v>
       </c>
       <c r="G197">
@@ -5479,7 +5472,7 @@
       <c r="E198" s="43">
         <v>167.84670675417294</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="47">
         <v>49024.101562999997</v>
       </c>
       <c r="G198">
@@ -5502,7 +5495,7 @@
       <c r="E199" s="43">
         <v>167.84670675417294</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="47">
         <v>49162.101562999997</v>
       </c>
       <c r="G199">
@@ -5525,7 +5518,7 @@
       <c r="E200" s="43">
         <v>170.82964404607253</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="47">
         <v>49683.800780999998</v>
       </c>
       <c r="G200">
@@ -5548,7 +5541,7 @@
       <c r="E201" s="43">
         <v>175.90024066999885</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="47">
         <v>50088.800780999998</v>
       </c>
       <c r="G201">
@@ -5571,7 +5564,7 @@
       <c r="E202" s="43">
         <v>180.33853514835877</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="47">
         <v>51671.601562999997</v>
       </c>
       <c r="G202">
@@ -5594,7 +5587,7 @@
       <c r="E203" s="43">
         <v>177.34056405290104</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="47">
         <v>52512.601562999997</v>
       </c>
       <c r="G203">
@@ -5617,7 +5610,7 @@
       <c r="E204" s="43">
         <v>165.74364059343054</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="47">
         <v>49596.5</v>
       </c>
       <c r="G204">
@@ -5640,7 +5633,7 @@
       <c r="E205" s="43">
         <v>165.52623898635392</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="47">
         <v>46707.898437999997</v>
       </c>
       <c r="G205">
@@ -5663,7 +5656,7 @@
       <c r="E206" s="43">
         <v>158.87893072298135</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="47">
         <v>43532.699219000002</v>
       </c>
       <c r="G206">
@@ -5686,7 +5679,7 @@
       <c r="E207" s="43">
         <v>158.18525749866112</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="47">
         <v>44914.199219000002</v>
       </c>
       <c r="G207">
@@ -5709,7 +5702,7 @@
       <c r="E208" s="43">
         <v>152.86779132075986</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="47">
         <v>45290</v>
       </c>
       <c r="G208">
@@ -5732,7 +5725,7 @@
       <c r="E209" s="43">
         <v>154.26733217156681</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="47">
         <v>47467.699219000002</v>
       </c>
       <c r="G209">
@@ -5755,7 +5748,7 @@
       <c r="E210" s="43">
         <v>153.2683939168364</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="47">
         <v>47965.300780999998</v>
       </c>
       <c r="G210">
@@ -5778,7 +5771,7 @@
       <c r="E211" s="43">
         <v>151.80225631754266</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="47">
         <v>47028.398437999997</v>
       </c>
       <c r="G211">
@@ -5801,7 +5794,7 @@
       <c r="E212" s="43">
         <v>151.80752153567525</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="47">
         <v>48501.101562999997</v>
       </c>
       <c r="G212">
@@ -5824,7 +5817,7 @@
       <c r="E213" s="43">
         <v>150.33827659777563</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="47">
         <v>48492.5</v>
       </c>
       <c r="G213">
@@ -5847,7 +5840,7 @@
       <c r="E214" s="43">
         <v>150.0690818791586</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="47">
         <v>49650.398437999997</v>
       </c>
       <c r="G214">
@@ -5870,7 +5863,7 @@
       <c r="E215" s="43">
         <v>145.23719599885979</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="47">
         <v>51819</v>
       </c>
       <c r="G215">
@@ -5893,7 +5886,7 @@
       <c r="E216" s="43">
         <v>150.33859092394115</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="47">
         <v>51435</v>
       </c>
       <c r="G216">
@@ -5916,7 +5909,7 @@
       <c r="E217" s="43">
         <v>149.46811864787676</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="47">
         <v>49553.199219000002</v>
       </c>
       <c r="G217">
@@ -5939,7 +5932,7 @@
       <c r="E218" s="43">
         <v>144.8773379754368</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="47">
         <v>49895.5</v>
       </c>
       <c r="G218">
@@ -5962,7 +5955,7 @@
       <c r="E219" s="43">
         <v>146.88716305365296</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="47">
         <v>51084.898437999997</v>
       </c>
       <c r="G219">
@@ -5985,7 +5978,7 @@
       <c r="E220" s="43">
         <v>146.53983196852187</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="47">
         <v>51911.5</v>
       </c>
       <c r="G220">
@@ -6008,7 +6001,7 @@
       <c r="E221" s="43">
         <v>150.2972635574545</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="47">
         <v>51295.5</v>
       </c>
       <c r="G221">
@@ -6031,7 +6024,7 @@
       <c r="E222" s="43">
         <v>148.90337764543108</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="47">
         <v>50950.199219000002</v>
       </c>
       <c r="G222">
@@ -6054,7 +6047,7 @@
       <c r="E223" s="43">
         <v>151.77630816650395</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="47">
         <v>51492.300780999998</v>
       </c>
       <c r="G223">
@@ -6077,7 +6070,7 @@
       <c r="E224" s="43">
         <v>148.34062867473418</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="47">
         <v>54135.800780999998</v>
       </c>
       <c r="G224">
@@ -6100,7 +6093,7 @@
       <c r="E225" s="43">
         <v>148.62007593758597</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="47">
         <v>54150.699219000002</v>
       </c>
       <c r="G225">
@@ -6123,7 +6116,7 @@
       <c r="E226" s="43">
         <v>148.96003798700013</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="47">
         <v>54465.699219000002</v>
       </c>
       <c r="G226">
@@ -6146,7 +6139,7 @@
       <c r="E227" s="43">
         <v>148.95810141523759</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="47">
         <v>55427.300780999998</v>
       </c>
       <c r="G227">
@@ -6169,7 +6162,7 @@
       <c r="E228" s="43">
         <v>150.57515385592546</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="47">
         <v>54572.5</v>
       </c>
       <c r="G228">
@@ -6192,7 +6185,7 @@
       <c r="E229" s="43">
         <v>148.06306513050021</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="47">
         <v>54913.398437999997</v>
       </c>
       <c r="G229">
@@ -6215,7 +6208,7 @@
       <c r="E230" s="43">
         <v>144.71274896169658</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="47">
         <v>55268.898437999997</v>
       </c>
       <c r="G230">
@@ -6238,7 +6231,7 @@
       <c r="E231" s="43">
         <v>147.188028441791</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="47">
         <v>55152.300780999998</v>
       </c>
       <c r="G231">
@@ -6261,7 +6254,7 @@
       <c r="E232" s="43">
         <v>142.34375748483797</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="47">
         <v>54730.398437999997</v>
       </c>
       <c r="G232">
@@ -6284,7 +6277,7 @@
       <c r="E233" s="43">
         <v>140.88506910327811</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="47">
         <v>51956.898437999997</v>
       </c>
       <c r="G233">
@@ -6307,7 +6300,7 @@
       <c r="E234" s="43">
         <v>137.31494846833152</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="47">
         <v>53690.398437999997</v>
       </c>
       <c r="G234">
@@ -6330,7 +6323,7 @@
       <c r="E235" s="43">
         <v>142.11245608429746</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="47">
         <v>53822.398437999997</v>
       </c>
       <c r="G235">
@@ -6353,7 +6346,7 @@
       <c r="E236" s="43">
         <v>143.15682277602548</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="47">
         <v>53034.101562999997</v>
       </c>
       <c r="G236">
@@ -6376,7 +6369,7 @@
       <c r="E237" s="43">
         <v>140.52139943360376</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="47">
         <v>53280.199219000002</v>
       </c>
       <c r="G237">
@@ -6399,7 +6392,7 @@
       <c r="E238" s="43">
         <v>139.73417998068354</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="47">
         <v>53206</v>
       </c>
       <c r="G238">
@@ -6422,7 +6415,7 @@
       <c r="E239" s="43">
         <v>141.15147895902598</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="47">
         <v>53115.601562999997</v>
       </c>
       <c r="G239">
@@ -6445,7 +6438,7 @@
       <c r="E240" s="43">
         <v>138.61261347825877</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="47">
         <v>52346.800780999998</v>
       </c>
       <c r="G240">
@@ -6468,7 +6461,7 @@
       <c r="E241" s="43">
         <v>140.23053235163675</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="47">
         <v>50159.898437999997</v>
       </c>
       <c r="G241">
@@ -6491,7 +6484,7 @@
       <c r="E242" s="43">
         <v>141.73721903685677</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="47">
         <v>50406.898437999997</v>
       </c>
       <c r="G242">
@@ -6514,7 +6507,7 @@
       <c r="E243" s="43">
         <v>143.47728601661538</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="47">
         <v>51619</v>
       </c>
       <c r="G243">
@@ -6537,7 +6530,7 @@
       <c r="E244" s="43">
         <v>143.46476908090793</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="47">
         <v>50483.800780999998</v>
       </c>
       <c r="G244">
@@ -6560,7 +6553,7 @@
       <c r="E245" s="43">
         <v>139.6071098187158</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="47">
         <v>51320.101562999997</v>
       </c>
       <c r="G245">
@@ -6583,7 +6576,7 @@
       <c r="E246" s="43">
         <v>140.5750731149619</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="47">
         <v>51226.5</v>
       </c>
       <c r="G246">
@@ -6606,7 +6599,7 @@
       <c r="E247" s="43">
         <v>147.76442266344026</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="47">
         <v>50730.898437999997</v>
       </c>
       <c r="G247">
@@ -6629,7 +6622,7 @@
       <c r="E248" s="43">
         <v>149.87303741031701</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="47">
         <v>51594.699219000002</v>
       </c>
       <c r="G248">
@@ -6652,7 +6645,7 @@
       <c r="E249" s="43">
         <v>146.99206272980209</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="47">
         <v>51880</v>
       </c>
       <c r="G249">
@@ -6675,7 +6668,7 @@
       <c r="E250" s="43">
         <v>147.82955521048888</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="47">
         <v>52500.5</v>
       </c>
       <c r="G250">
@@ -6698,7 +6691,7 @@
       <c r="E251" s="43">
         <v>148.11840444616243</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="47">
         <v>51673.800780999998</v>
       </c>
       <c r="G251">
@@ -6721,7 +6714,7 @@
       <c r="E252" s="43">
         <v>150.34115165291971</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="47">
         <v>50967.5</v>
       </c>
       <c r="G252">
@@ -6744,7 +6737,7 @@
       <c r="E253" s="43">
         <v>148.65857143474989</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="47">
         <v>51201.601562999997</v>
       </c>
       <c r="G253">
@@ -6767,7 +6760,7 @@
       <c r="E254" s="43">
         <v>148.53571498457856</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="47">
         <v>50961.199219000002</v>
       </c>
       <c r="G254">
@@ -6790,7 +6783,7 @@
       <c r="E255" s="43">
         <v>145.48238106106939</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="47">
         <v>51085</v>
       </c>
       <c r="G255">
@@ -6813,7 +6806,7 @@
       <c r="E256" s="43">
         <v>148.96542071945007</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="47">
         <v>50500.800780999998</v>
       </c>
       <c r="G256">
@@ -6836,7 +6829,7 @@
       <c r="E257" s="43">
         <v>147.16617157290111</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="47">
         <v>50220.199219000002</v>
       </c>
       <c r="G257">
@@ -6859,7 +6852,7 @@
       <c r="E258" s="43">
         <v>149.22236517252526</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="47">
         <v>50516.601562999997</v>
       </c>
       <c r="G258">
@@ -6882,7 +6875,7 @@
       <c r="E259" s="43">
         <v>148.65142607581012</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="47">
         <v>50224.5</v>
       </c>
       <c r="G259">
@@ -6905,7 +6898,7 @@
       <c r="E260" s="43">
         <v>149.75127248090925</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="47">
         <v>48472.601562999997</v>
       </c>
       <c r="G260">
@@ -6928,7 +6921,7 @@
       <c r="E261" s="43">
         <v>150.09778976558192</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="47">
         <v>48470.898437999997</v>
       </c>
       <c r="G261">
@@ -6951,7 +6944,7 @@
       <c r="E262" s="43">
         <v>151.05554931871967</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="47">
         <v>47470</v>
       </c>
       <c r="G262">
@@ -6974,7 +6967,7 @@
       <c r="E263" s="43">
         <v>150.30692276462347</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="47">
         <v>49463.800780999998</v>
       </c>
       <c r="G263">
@@ -6997,7 +6990,7 @@
       <c r="E264" s="43">
         <v>152.95911166690158</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="47">
         <v>49970.398437999997</v>
       </c>
       <c r="G264">
@@ -7020,7 +7013,7 @@
       <c r="E265" s="43">
         <v>153.06626777315611</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="47">
         <v>49630.101562999997</v>
       </c>
       <c r="G265">
@@ -7043,7 +7036,7 @@
       <c r="E266" s="43">
         <v>153.95997134563262</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="47">
         <v>48257.101562999997</v>
       </c>
       <c r="G266">
@@ -7066,7 +7059,7 @@
       <c r="E267" s="43">
         <v>150.48208181893679</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="47">
         <v>49576.898437999997</v>
       </c>
       <c r="G267">
@@ -7089,7 +7082,7 @@
       <c r="E268" s="43">
         <v>152.09325291632285</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="47">
         <v>49686.800780999998</v>
       </c>
       <c r="G268">
@@ -7112,7 +7105,7 @@
       <c r="E269" s="43">
         <v>151.00869532422465</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="47">
         <v>49857.601562999997</v>
       </c>
       <c r="G269">
@@ -7135,7 +7128,7 @@
       <c r="E270" s="43">
         <v>152.80234389299989</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="47">
         <v>50682.699219000002</v>
       </c>
       <c r="G270">
@@ -7158,7 +7151,7 @@
       <c r="E271" s="43">
         <v>151.48412945468149</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="47">
         <v>51052.699219000002</v>
       </c>
       <c r="G271">
@@ -7181,7 +7174,7 @@
       <c r="E272" s="43">
         <v>151.65089283664483</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="47">
         <v>52028.601562999997</v>
       </c>
       <c r="G272">
@@ -7204,7 +7197,7 @@
       <c r="E273" s="43">
         <v>152.38439171372875</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="47">
         <v>52266.800780999998</v>
       </c>
       <c r="G273">
@@ -7227,7 +7220,7 @@
       <c r="E274" s="43">
         <v>153.7874572729956</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="47">
         <v>51940.898437999997</v>
       </c>
       <c r="G274">
@@ -7250,7 +7243,7 @@
       <c r="E275" s="43">
         <v>149.97978760431616</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="47">
         <v>51654.601562999997</v>
       </c>
       <c r="G275">
@@ -7273,7 +7266,7 @@
       <c r="E276" s="43">
         <v>148.48376265206608</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="47">
         <v>51466.199219000002</v>
       </c>
       <c r="G276">
@@ -7296,7 +7289,7 @@
       <c r="E277" s="43">
         <v>148.48376265206608</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="47">
         <v>51466.199219000002</v>
       </c>
       <c r="G277">
@@ -7319,7 +7312,7 @@
       <c r="E278" s="43">
         <v>143.1252101000122</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="47">
         <v>51466.199219000002</v>
       </c>
       <c r="G278">
@@ -7342,7 +7335,7 @@
       <c r="E279" s="43">
         <v>144.99243532025048</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="47">
         <v>52386.601562999997</v>
       </c>
       <c r="G279">
@@ -7365,7 +7358,7 @@
       <c r="E280" s="43">
         <v>146.45580683550534</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="47">
         <v>51826.898437999997</v>
       </c>
       <c r="G280">
@@ -7388,7 +7381,7 @@
       <c r="E281" s="43">
         <v>145.51006003976551</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="47">
         <v>50992.898437999997</v>
       </c>
       <c r="G281">
@@ -7411,7 +7404,7 @@
       <c r="E282" s="43">
         <v>148.40888739173238</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="47">
         <v>49268.398437999997</v>
       </c>
       <c r="G282">
@@ -7434,7 +7427,7 @@
       <c r="E283" s="43">
         <v>142.22301646804468</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="47">
         <v>47856.699219000002</v>
       </c>
       <c r="G283">
@@ -7457,7 +7450,7 @@
       <c r="E284" s="43">
         <v>143.79394802034224</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="47">
         <v>49606.699219000002</v>
       </c>
       <c r="G284">
@@ -7480,7 +7473,7 @@
       <c r="E285" s="43">
         <v>149.74683904385407</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="47">
         <v>48920.699219000002</v>
       </c>
       <c r="G285">
@@ -7503,7 +7496,7 @@
       <c r="E286" s="43">
         <v>150.10259947882196</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="47">
         <v>48432.300780999998</v>
       </c>
       <c r="G286">
@@ -7526,7 +7519,7 @@
       <c r="E287" s="43">
         <v>150.79981943362742</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="47">
         <v>48996.300780999998</v>
       </c>
       <c r="G287">
@@ -7549,7 +7542,7 @@
       <c r="E288" s="43">
         <v>148.64452779293973</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="47">
         <v>48127.300780999998</v>
       </c>
       <c r="G288">
@@ -7572,7 +7565,7 @@
       <c r="E289" s="43">
         <v>153.19866738520011</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="47">
         <v>47325.101562999997</v>
       </c>
       <c r="G289">
@@ -7595,7 +7588,7 @@
       <c r="E290" s="43">
         <v>152.39592416665451</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="47">
         <v>47808.199219000002</v>
       </c>
       <c r="G290">
@@ -7618,7 +7611,7 @@
       <c r="E291" s="43">
         <v>153.22547943101983</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="47">
         <v>47242.300780999998</v>
       </c>
       <c r="G291">
@@ -7641,7 +7634,7 @@
       <c r="E292" s="43">
         <v>152.59289565161012</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="47">
         <v>46291.800780999998</v>
       </c>
       <c r="G292">
@@ -7664,7 +7657,7 @@
       <c r="E293" s="43">
         <v>153.32146580922409</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="47">
         <v>46476</v>
       </c>
       <c r="G293">
@@ -7687,7 +7680,7 @@
       <c r="E294" s="43">
         <v>147.23822159434116</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="47">
         <v>47339.5</v>
       </c>
       <c r="G294">
@@ -7710,7 +7703,7 @@
       <c r="E295" s="43">
         <v>147.07208080416262</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="47">
         <v>48360.699219000002</v>
       </c>
       <c r="G295">
@@ -7733,7 +7726,7 @@
       <c r="E296" s="43">
         <v>149.15342529891217</v>
       </c>
-      <c r="F296">
+      <c r="F296" s="47">
         <v>49071</v>
       </c>
       <c r="G296">
@@ -7756,7 +7749,7 @@
       <c r="E297" s="43">
         <v>148.78261253784831</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="47">
         <v>50458.300780999998</v>
       </c>
       <c r="G297">
@@ -7779,7 +7772,7 @@
       <c r="E298" s="43">
         <v>149.15154994150689</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="47">
         <v>49646.800780999998</v>
       </c>
       <c r="G298">
@@ -7802,7 +7795,7 @@
       <c r="E299" s="43">
         <v>148.16531877234533</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="47">
         <v>49916.5</v>
       </c>
       <c r="G299">
@@ -7825,7 +7818,7 @@
       <c r="E300" s="43">
         <v>149.98515432062948</v>
       </c>
-      <c r="F300">
+      <c r="F300" s="47">
         <v>48599.300780999998</v>
       </c>
       <c r="G300">
@@ -7848,7 +7841,7 @@
       <c r="E301" s="43">
         <v>148.77803810196119</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="47">
         <v>48976</v>
       </c>
       <c r="G301">
@@ -7871,7 +7864,7 @@
       <c r="E302" s="43">
         <v>147.33266691077736</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="47">
         <v>49185.898437999997</v>
       </c>
       <c r="G302">
@@ -7894,7 +7887,7 @@
       <c r="E303" s="43">
         <v>146.82477719606763</v>
       </c>
-      <c r="F303">
+      <c r="F303" s="47">
         <v>48615.300780999998</v>
       </c>
       <c r="G303">
@@ -7917,7 +7910,7 @@
       <c r="E304" s="43">
         <v>145.83387819396626</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="47">
         <v>46856.398437999997</v>
       </c>
       <c r="G304">
@@ -7940,7 +7933,7 @@
       <c r="E305" s="43">
         <v>142.93426621041215</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="47">
         <v>46440.800780999998</v>
       </c>
       <c r="G305">
@@ -7963,7 +7956,7 @@
       <c r="E306" s="43">
         <v>142.82168501432537</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="47">
         <v>47241</v>
       </c>
       <c r="G306">
@@ -7986,7 +7979,7 @@
       <c r="E307" s="43">
         <v>145.35805913006237</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="47">
         <v>48090.699219000002</v>
       </c>
       <c r="G307">
@@ -8009,7 +8002,7 @@
       <c r="E308" s="43">
         <v>145.31613026456978</v>
       </c>
-      <c r="F308">
+      <c r="F308" s="47">
         <v>47982.398437999997</v>
       </c>
       <c r="G308">
@@ -8032,7 +8025,7 @@
       <c r="E309" s="43">
         <v>146.05602926802595</v>
       </c>
-      <c r="F309">
+      <c r="F309" s="47">
         <v>48597.699219000002</v>
       </c>
       <c r="G309">
@@ -8055,7 +8048,7 @@
       <c r="E310" s="43">
         <v>148.07613665851545</v>
       </c>
-      <c r="F310">
+      <c r="F310" s="47">
         <v>50328.300780999998</v>
       </c>
       <c r="G310">
@@ -8078,7 +8071,7 @@
       <c r="E311" s="43">
         <v>149.03113687121004</v>
       </c>
-      <c r="F311">
+      <c r="F311" s="47">
         <v>50128.199219000002</v>
       </c>
       <c r="G311">
@@ -8101,7 +8094,7 @@
       <c r="E312" s="43">
         <v>149.29013966528905</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="47">
         <v>49627.5</v>
       </c>
       <c r="G312">
@@ -8124,7 +8117,7 @@
       <c r="E313" s="43">
         <v>150.02692732140233</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="47">
         <v>48846</v>
       </c>
       <c r="G313">
@@ -8147,7 +8140,7 @@
       <c r="E314" s="43">
         <v>149.44583075160594</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="47">
         <v>48109.601562999997</v>
       </c>
       <c r="G314">
@@ -8170,7 +8163,7 @@
       <c r="E315" s="43">
         <v>150.19700552621126</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="47">
         <v>47679.101562999997</v>
       </c>
       <c r="G315">
@@ -8193,7 +8186,7 @@
       <c r="E316" s="43">
         <v>149.03862140351421</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="47">
         <v>47299</v>
       </c>
       <c r="G316">
@@ -8216,7 +8209,7 @@
       <c r="E317" s="43">
         <v>151.24722710836744</v>
       </c>
-      <c r="F317">
+      <c r="F317" s="47">
         <v>47093.300780999998</v>
       </c>
       <c r="G317">
@@ -8239,7 +8232,7 @@
       <c r="E318" s="43">
         <v>149.50949722878684</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="47">
         <v>47664.398437999997</v>
       </c>
       <c r="G318">
@@ -8262,7 +8255,7 @@
       <c r="E319" s="43">
         <v>150.57569769985136</v>
       </c>
-      <c r="F319">
+      <c r="F319" s="47">
         <v>48026.300780999998</v>
       </c>
       <c r="G319">
@@ -8285,7 +8278,7 @@
       <c r="E320" s="43">
         <v>150.97435647221346</v>
       </c>
-      <c r="F320">
+      <c r="F320" s="47">
         <v>46894.5</v>
       </c>
       <c r="G320">
@@ -8308,7 +8301,7 @@
       <c r="E321" s="43">
         <v>151.92400863501308</v>
       </c>
-      <c r="F321">
+      <c r="F321" s="47">
         <v>47616.5</v>
       </c>
       <c r="G321">
@@ -8331,7 +8324,7 @@
       <c r="E322" s="43">
         <v>150.4911280792989</v>
       </c>
-      <c r="F322">
+      <c r="F322" s="47">
         <v>47122.601562999997</v>
       </c>
       <c r="G322">
@@ -8354,7 +8347,7 @@
       <c r="E323" s="43">
         <v>150.97148011272549</v>
       </c>
-      <c r="F323">
+      <c r="F323" s="47">
         <v>47374.5</v>
       </c>
       <c r="G323">
@@ -8377,7 +8370,7 @@
       <c r="E324" s="43">
         <v>153.05632834898933</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="47">
         <v>47931.300780999998</v>
       </c>
       <c r="G324">
@@ -8400,7 +8393,7 @@
       <c r="E325" s="43">
         <v>153.59679153494463</v>
       </c>
-      <c r="F325">
+      <c r="F325" s="47">
         <v>48962.199219000002</v>
       </c>
       <c r="G325">
@@ -8423,7 +8416,7 @@
       <c r="E326" s="43">
         <v>154.76521365030518</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="47">
         <v>50043.800780999998</v>
       </c>
       <c r="G326">
@@ -8446,7 +8439,7 @@
       <c r="E327" s="43">
         <v>155.08329065387312</v>
       </c>
-      <c r="F327">
+      <c r="F327" s="47">
         <v>50065.199219000002</v>
       </c>
       <c r="G327">
@@ -8469,7 +8462,7 @@
       <c r="E328" s="43">
         <v>154.73492959593878</v>
       </c>
-      <c r="F328">
+      <c r="F328" s="47">
         <v>49056.101562999997</v>
       </c>
       <c r="G328">
@@ -8492,7 +8485,7 @@
       <c r="E329" s="43">
         <v>156.70114104671677</v>
       </c>
-      <c r="F329">
+      <c r="F329" s="47">
         <v>48872.5</v>
       </c>
       <c r="G329">
@@ -8515,7 +8508,7 @@
       <c r="E330" s="43">
         <v>156.71874829533382</v>
       </c>
-      <c r="F330">
+      <c r="F330" s="47">
         <v>48655.5</v>
       </c>
       <c r="G330">
@@ -8538,7 +8531,7 @@
       <c r="E331" s="43">
         <v>157.97121154051001</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="47">
         <v>49152.300780999998</v>
       </c>
       <c r="G331">
@@ -8561,7 +8554,7 @@
       <c r="E332" s="43">
         <v>156.28866581282955</v>
       </c>
-      <c r="F332">
+      <c r="F332" s="47">
         <v>49389.300780999998</v>
       </c>
       <c r="G332">
@@ -8584,7 +8577,7 @@
       <c r="E333" s="43">
         <v>155.63454004849748</v>
       </c>
-      <c r="F333">
+      <c r="F333" s="47">
         <v>51419.5</v>
       </c>
       <c r="G333">
@@ -8607,7 +8600,7 @@
       <c r="E334" s="43">
         <v>155.71717620267725</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="47">
         <v>51750.300780999998</v>
       </c>
       <c r="G334">
@@ -8630,7 +8623,7 @@
       <c r="E335" s="43">
         <v>155.22623869194391</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="47">
         <v>51094</v>
       </c>
       <c r="G335">
@@ -8653,7 +8646,7 @@
       <c r="E336" s="43">
         <v>155.09961702729709</v>
       </c>
-      <c r="F336">
+      <c r="F336" s="47">
         <v>51020.199219000002</v>
       </c>
       <c r="G336">
@@ -8676,7 +8669,7 @@
       <c r="E337" s="43">
         <v>156.38595943665777</v>
       </c>
-      <c r="F337">
+      <c r="F337" s="47">
         <v>52625.898437999997</v>
       </c>
       <c r="G337">
@@ -8699,7 +8692,7 @@
       <c r="E338" s="43">
         <v>155.9940146761688</v>
       </c>
-      <c r="F338">
+      <c r="F338" s="47">
         <v>54850.101562999997</v>
       </c>
       <c r="G338">
@@ -8722,7 +8715,7 @@
       <c r="E339" s="43">
         <v>158.00689411362572</v>
       </c>
-      <c r="F339">
+      <c r="F339" s="47">
         <v>56095</v>
       </c>
       <c r="G339">
@@ -8745,7 +8738,7 @@
       <c r="E340" s="43">
         <v>159.16037990604678</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="47">
         <v>56078.601562999997</v>
       </c>
       <c r="G340">
@@ -8768,7 +8761,7 @@
       <c r="E341" s="43">
         <v>160.62758443845374</v>
       </c>
-      <c r="F341">
+      <c r="F341" s="47">
         <v>55990</v>
       </c>
       <c r="G341">
@@ -8791,7 +8784,7 @@
       <c r="E342" s="43">
         <v>161.79092144164301</v>
       </c>
-      <c r="F342">
+      <c r="F342" s="47">
         <v>57109.398437999997</v>
       </c>
       <c r="G342">
@@ -8814,7 +8807,7 @@
       <c r="E343" s="43">
         <v>163.01572692409476</v>
       </c>
-      <c r="F343">
+      <c r="F343" s="47">
         <v>56221.898437999997</v>
       </c>
       <c r="G343">
@@ -8837,7 +8830,7 @@
       <c r="E344" s="43">
         <v>163.53688246818663</v>
       </c>
-      <c r="F344">
+      <c r="F344" s="47">
         <v>56599</v>
       </c>
       <c r="G344">
@@ -8860,7 +8853,7 @@
       <c r="E345" s="43">
         <v>161.35542984059342</v>
       </c>
-      <c r="F345">
+      <c r="F345" s="47">
         <v>57499.5</v>
       </c>
       <c r="G345">
@@ -8883,7 +8876,7 @@
       <c r="E346" s="43">
         <v>162.54167499734126</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="47">
         <v>59213</v>
       </c>
       <c r="G346">
@@ -8906,7 +8899,7 @@
       <c r="E347" s="43">
         <v>162.2622016909512</v>
       </c>
-      <c r="F347">
+      <c r="F347" s="47">
         <v>59268.898437999997</v>
       </c>
       <c r="G347">
@@ -8929,7 +8922,7 @@
       <c r="E348" s="43">
         <v>163.99530432225981</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="47">
         <v>61096</v>
       </c>
       <c r="G348">
@@ -8952,7 +8945,7 @@
       <c r="E349" s="43">
         <v>165.15633727817777</v>
       </c>
-      <c r="F349">
+      <c r="F349" s="47">
         <v>62659.5</v>
       </c>
       <c r="G349">
@@ -8975,7 +8968,7 @@
       <c r="E350" s="43">
         <v>166.33105862918626</v>
       </c>
-      <c r="F350">
+      <c r="F350" s="47">
         <v>64303.101562999997</v>
       </c>
       <c r="G350">
@@ -8998,7 +8991,7 @@
       <c r="E351" s="43">
         <v>164.79840083820116</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="47">
         <v>66190.101563000004</v>
       </c>
       <c r="G351">
@@ -9021,7 +9014,7 @@
       <c r="E352" s="43">
         <v>164.41110780177834</v>
       </c>
-      <c r="F352">
+      <c r="F352" s="47">
         <v>68151.101563000004</v>
       </c>
       <c r="G352">
@@ -9044,7 +9037,7 @@
       <c r="E353" s="43">
         <v>164.19505852951917</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="47">
         <v>66390.296875</v>
       </c>
       <c r="G353">
@@ -9067,7 +9060,7 @@
       <c r="E354" s="43">
         <v>164.26526707930697</v>
       </c>
-      <c r="F354">
+      <c r="F354" s="47">
         <v>68105</v>
       </c>
       <c r="G354">
@@ -9090,7 +9083,7 @@
       <c r="E355" s="43">
         <v>162.9959334379877</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="47">
         <v>68144.601563000004</v>
       </c>
       <c r="G355">
@@ -9113,7 +9106,7 @@
       <c r="E356" s="43">
         <v>163.0774966745779</v>
       </c>
-      <c r="F356">
+      <c r="F356" s="47">
         <v>66094</v>
       </c>
       <c r="G356">
@@ -9136,7 +9129,7 @@
       <c r="E357" s="43">
         <v>161.82799425294084</v>
       </c>
-      <c r="F357">
+      <c r="F357" s="47">
         <v>66836.796875</v>
       </c>
       <c r="G357">
@@ -9159,7 +9152,7 @@
       <c r="E358" s="43">
         <v>162.65512950344905</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="47">
         <v>67005.796875</v>
       </c>
       <c r="G358">
@@ -9182,7 +9175,7 @@
       <c r="E359" s="43">
         <v>163.95883983398141</v>
       </c>
-      <c r="F359">
+      <c r="F359" s="47">
         <v>67575.5</v>
       </c>
       <c r="G359">
@@ -9205,7 +9198,7 @@
       <c r="E360" s="43">
         <v>166.13269547591094</v>
       </c>
-      <c r="F360">
+      <c r="F360" s="47">
         <v>66440.203125</v>
       </c>
       <c r="G360">
@@ -9228,7 +9221,7 @@
       <c r="E361" s="43">
         <v>165.94437088165813</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="47">
         <v>65136</v>
       </c>
       <c r="G361">
@@ -9251,7 +9244,7 @@
       <c r="E362" s="43">
         <v>169.80762607678167</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="47">
         <v>65901.601563000004</v>
       </c>
       <c r="G362">
@@ -9274,7 +9267,7 @@
       <c r="E363" s="43">
         <v>168.3189104595636</v>
       </c>
-      <c r="F363">
+      <c r="F363" s="47">
         <v>65901.601563000004</v>
       </c>
       <c r="G363">
@@ -9297,7 +9290,7 @@
       <c r="E364" s="43">
         <v>168.95404123233988</v>
       </c>
-      <c r="F364">
+      <c r="F364" s="47">
         <v>66089.898438000004</v>
       </c>
       <c r="G364">
@@ -9320,7 +9313,7 @@
       <c r="E365" s="43">
         <v>169.09013883565535</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="47">
         <v>66933.101563000004</v>
       </c>
       <c r="G365">
@@ -9343,7 +9336,7 @@
       <c r="E366" s="43">
         <v>167.78605234683982</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="47">
         <v>65133.5</v>
       </c>
       <c r="G366">
@@ -9366,7 +9359,7 @@
       <c r="E367" s="43">
         <v>166.8389737155326</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="47">
         <v>64150.898437999997</v>
       </c>
       <c r="G367">
@@ -9389,7 +9382,7 @@
       <c r="E368" s="43">
         <v>167.57270264567455</v>
       </c>
-      <c r="F368">
+      <c r="F368" s="47">
         <v>62972</v>
       </c>
       <c r="G368">
@@ -9412,7 +9405,7 @@
       <c r="E369" s="43">
         <v>168.8262580264562</v>
       </c>
-      <c r="F369">
+      <c r="F369" s="47">
         <v>62372</v>
       </c>
       <c r="G369">
@@ -9435,7 +9428,7 @@
       <c r="E370" s="43">
         <v>169.34109614578682</v>
       </c>
-      <c r="F370">
+      <c r="F370" s="47">
         <v>62060</v>
       </c>
       <c r="G370">
@@ -9458,7 +9451,7 @@
       <c r="E371" s="43">
         <v>170.72391950437566</v>
       </c>
-      <c r="F371">
+      <c r="F371" s="47">
         <v>63330.398437999997</v>
       </c>
       <c r="G371">
@@ -9481,7 +9474,7 @@
       <c r="E372" s="43">
         <v>175.14621598778663</v>
       </c>
-      <c r="F372">
+      <c r="F372" s="47">
         <v>64848.601562999997</v>
       </c>
       <c r="G372">
@@ -9504,7 +9497,7 @@
       <c r="E373" s="43">
         <v>173.09345704631207</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="47">
         <v>63563</v>
       </c>
       <c r="G373">
@@ -9527,7 +9520,7 @@
       <c r="E374" s="43">
         <v>174.3784133389872</v>
       </c>
-      <c r="F374">
+      <c r="F374" s="47">
         <v>63383.199219000002</v>
       </c>
       <c r="G374">
@@ -9550,7 +9543,7 @@
       <c r="E375" s="43">
         <v>173.81218374602065</v>
       </c>
-      <c r="F375">
+      <c r="F375" s="47">
         <v>62371.601562999997</v>
       </c>
       <c r="G375">
@@ -9573,7 +9566,7 @@
       <c r="E376" s="43">
         <v>171.40664645043452</v>
       </c>
-      <c r="F376">
+      <c r="F376" s="47">
         <v>64215.300780999998</v>
       </c>
       <c r="G376">
@@ -9596,7 +9589,7 @@
       <c r="E377" s="43">
         <v>172.72791806870015</v>
       </c>
-      <c r="F377">
+      <c r="F377" s="47">
         <v>64374.699219000002</v>
       </c>
       <c r="G377">
@@ -9619,7 +9612,7 @@
       <c r="E378" s="43">
         <v>171.86076803182252</v>
       </c>
-      <c r="F378">
+      <c r="F378" s="47">
         <v>63959.300780999998</v>
       </c>
       <c r="G378">
@@ -9642,7 +9635,7 @@
       <c r="E379" s="43">
         <v>172.20482436679646</v>
       </c>
-      <c r="F379">
+      <c r="F379" s="47">
         <v>63484.601562999997</v>
       </c>
       <c r="G379">
@@ -9665,7 +9658,7 @@
       <c r="E380" s="43">
         <v>173.35654031499379</v>
       </c>
-      <c r="F380">
+      <c r="F380" s="47">
         <v>63090.800780999998</v>
       </c>
       <c r="G380">
@@ -9688,7 +9681,7 @@
       <c r="E381" s="43">
         <v>175.53345274070813</v>
       </c>
-      <c r="F381">
+      <c r="F381" s="47">
         <v>62133.199219000002</v>
       </c>
       <c r="G381">
@@ -9711,7 +9704,7 @@
       <c r="E382" s="43">
         <v>176.40939800750112</v>
       </c>
-      <c r="F382">
+      <c r="F382" s="47">
         <v>63391.699219000002</v>
       </c>
       <c r="G382">
@@ -9734,7 +9727,7 @@
       <c r="E383" s="43">
         <v>176.44517183999272</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="47">
         <v>65832.203125</v>
       </c>
       <c r="G383">
@@ -9757,7 +9750,7 @@
       <c r="E384" s="43">
         <v>180.32223483334357</v>
       </c>
-      <c r="F384">
+      <c r="F384" s="47">
         <v>65675.101563000004</v>
       </c>
       <c r="G384">
@@ -9780,7 +9773,7 @@
       <c r="E385" s="43">
         <v>180.22851313503779</v>
       </c>
-      <c r="F385">
+      <c r="F385" s="47">
         <v>64841.199219000002</v>
       </c>
       <c r="G385">
@@ -9803,7 +9796,7 @@
       <c r="E386" s="43">
         <v>180.45018730609468</v>
       </c>
-      <c r="F386">
+      <c r="F386" s="47">
         <v>65530.898437999997</v>
       </c>
       <c r="G386">
@@ -9826,7 +9819,7 @@
       <c r="E387" s="43">
         <v>180.62280337377317</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="47">
         <v>65688.296875</v>
       </c>
       <c r="G387">
@@ -9849,7 +9842,7 @@
       <c r="E388" s="43">
         <v>179.12872024254659</v>
       </c>
-      <c r="F388">
+      <c r="F388" s="47">
         <v>66553.5</v>
       </c>
       <c r="G388">
@@ -9872,7 +9865,7 @@
       <c r="E389" s="43">
         <v>181.33777673651247</v>
       </c>
-      <c r="F389">
+      <c r="F389" s="47">
         <v>67315.601563000004</v>
       </c>
       <c r="G389">
@@ -9895,7 +9888,7 @@
       <c r="E390" s="43">
         <v>181.18801949087222</v>
       </c>
-      <c r="F390">
+      <c r="F390" s="47">
         <v>66005.296875</v>
       </c>
       <c r="G390">
@@ -9918,7 +9911,7 @@
       <c r="E391" s="43">
         <v>181.39833810720864</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="47">
         <v>65939.601563000004</v>
       </c>
       <c r="G391">
@@ -9941,7 +9934,7 @@
       <c r="E392" s="43">
         <v>180.21888433229071</v>
       </c>
-      <c r="F392">
+      <c r="F392" s="47">
         <v>65873.601563000004</v>
       </c>
       <c r="G392">
@@ -9964,7 +9957,7 @@
       <c r="E393" s="43">
         <v>179.02076935512306</v>
       </c>
-      <c r="F393">
+      <c r="F393" s="47">
         <v>65088.101562999997</v>
       </c>
       <c r="G393">
@@ -9987,7 +9980,7 @@
       <c r="E394" s="43">
         <v>178.62277606437689</v>
       </c>
-      <c r="F394">
+      <c r="F394" s="47">
         <v>66136.5</v>
       </c>
       <c r="G394">
@@ -10010,7 +10003,7 @@
       <c r="E395" s="43">
         <v>175.80634274986647</v>
       </c>
-      <c r="F395">
+      <c r="F395" s="47">
         <v>65860.898438000004</v>
       </c>
       <c r="G395">
@@ -10033,7 +10026,7 @@
       <c r="E396" s="43">
         <v>174.93120381922401</v>
       </c>
-      <c r="F396">
+      <c r="F396" s="47">
         <v>66096.398438000004</v>
       </c>
       <c r="G396">
@@ -10056,7 +10049,7 @@
       <c r="E397" s="43">
         <v>175.83950521950072</v>
       </c>
-      <c r="F397">
+      <c r="F397" s="47">
         <v>68023.101563000004</v>
       </c>
       <c r="G397">
@@ -10079,7 +10072,7 @@
       <c r="E398" s="43">
         <v>177.33919297075127</v>
       </c>
-      <c r="F398">
+      <c r="F398" s="47">
         <v>69475.203125</v>
       </c>
       <c r="G398">
@@ -10102,7 +10095,7 @@
       <c r="E399" s="43">
         <v>174.77484088730975</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="47">
         <v>69492.601563000004</v>
       </c>
       <c r="G399">
@@ -10125,7 +10118,7 @@
       <c r="E400" s="43">
         <v>176.29598013680607</v>
       </c>
-      <c r="F400">
+      <c r="F400" s="47">
         <v>67999</v>
       </c>
       <c r="G400">
@@ -10148,7 +10141,7 @@
       <c r="E401" s="43">
         <v>176.29598013680607</v>
       </c>
-      <c r="F401">
+      <c r="F401" s="47">
         <v>67999</v>
       </c>
       <c r="G401">
@@ -10171,7 +10164,7 @@
       <c r="E402" s="43">
         <v>176.94207455782964</v>
       </c>
-      <c r="F402">
+      <c r="F402" s="47">
         <v>67094.296875</v>
       </c>
       <c r="G402">
@@ -10194,7 +10187,7 @@
       <c r="E403" s="43">
         <v>177.56894444489853</v>
       </c>
-      <c r="F403">
+      <c r="F403" s="47">
         <v>66681.703125</v>
       </c>
       <c r="G403">
@@ -10217,7 +10210,7 @@
       <c r="E404" s="43">
         <v>178.50465151469976</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="47">
         <v>67822.203125</v>
       </c>
       <c r="G404">
@@ -10240,7 +10233,7 @@
       <c r="E405" s="43">
         <v>178.27768918093921</v>
       </c>
-      <c r="F405">
+      <c r="F405" s="47">
         <v>69050.296875</v>
       </c>
       <c r="G405">
@@ -10263,7 +10256,7 @@
       <c r="E406" s="43">
         <v>176.10261813051676</v>
       </c>
-      <c r="F406">
+      <c r="F406" s="47">
         <v>71353.796875</v>
       </c>
       <c r="G406">
@@ -10286,7 +10279,7 @@
       <c r="E407" s="43">
         <v>173.26197261959661</v>
       </c>
-      <c r="F407">
+      <c r="F407" s="47">
         <v>72009.101563000004</v>
       </c>
       <c r="G407">
@@ -10309,7 +10302,7 @@
       <c r="E408" s="43">
         <v>173.27919407816518</v>
       </c>
-      <c r="F408">
+      <c r="F408" s="47">
         <v>71550.5</v>
       </c>
       <c r="G408">
@@ -10332,7 +10325,7 @@
       <c r="E409" s="43">
         <v>175.67141435648043</v>
       </c>
-      <c r="F409">
+      <c r="F409" s="47">
         <v>73203.601563000004</v>
       </c>
       <c r="G409">
@@ -10355,7 +10348,7 @@
       <c r="E410" s="43">
         <v>175.10338544227821</v>
       </c>
-      <c r="F410">
+      <c r="F410" s="47">
         <v>76329.398438000004</v>
       </c>
       <c r="G410">
@@ -10378,7 +10371,7 @@
       <c r="E411" s="43">
         <v>173.17815414682809</v>
       </c>
-      <c r="F411">
+      <c r="F411" s="47">
         <v>76451.703125</v>
       </c>
       <c r="G411">
@@ -10401,7 +10394,7 @@
       <c r="E412" s="43">
         <v>173.85873654581135</v>
       </c>
-      <c r="F412">
+      <c r="F412" s="47">
         <v>75232.601563000004</v>
       </c>
       <c r="G412">
@@ -10424,7 +10417,7 @@
       <c r="E413" s="43">
         <v>174.73211518961321</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="47">
         <v>75115.101563000004</v>
       </c>
       <c r="G413">
@@ -10447,7 +10440,7 @@
       <c r="E414" s="43">
         <v>175.73281505902511</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="47">
         <v>74735</v>
       </c>
       <c r="G414">
@@ -10470,7 +10463,7 @@
       <c r="E415" s="43">
         <v>176.52099502973101</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="47">
         <v>76003</v>
       </c>
       <c r="G415">
@@ -10493,7 +10486,7 @@
       <c r="E416" s="43">
         <v>179.99733847670424</v>
       </c>
-      <c r="F416">
+      <c r="F416" s="47">
         <v>79004.796875</v>
       </c>
       <c r="G416">
@@ -10516,7 +10509,7 @@
       <c r="E417" s="43">
         <v>176.74492914066508</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="47">
         <v>77459</v>
       </c>
       <c r="G417">
@@ -10539,7 +10532,7 @@
       <c r="E418" s="43">
         <v>176.81156184311328</v>
       </c>
-      <c r="F418">
+      <c r="F418" s="47">
         <v>77127</v>
       </c>
       <c r="G418">
@@ -10562,7 +10555,7 @@
       <c r="E419" s="43">
         <v>178.35376841818544</v>
       </c>
-      <c r="F419">
+      <c r="F419" s="47">
         <v>75895</v>
       </c>
       <c r="G419">
@@ -10585,7 +10578,7 @@
       <c r="E420" s="43">
         <v>179.73690533969091</v>
       </c>
-      <c r="F420">
+      <c r="F420" s="47">
         <v>80065.898438000004</v>
       </c>
       <c r="G420">
@@ -10608,7 +10601,7 @@
       <c r="E421" s="43">
         <v>177.20448177330161</v>
       </c>
-      <c r="F421">
+      <c r="F421" s="47">
         <v>78989.203125</v>
       </c>
       <c r="G421">
@@ -10631,7 +10624,7 @@
       <c r="E422" s="43">
         <v>177.2533089765007</v>
       </c>
-      <c r="F422">
+      <c r="F422" s="47">
         <v>78488.5</v>
       </c>
       <c r="G422">
@@ -10654,7 +10647,7 @@
       <c r="E423" s="43">
         <v>177.23375409399986</v>
       </c>
-      <c r="F423">
+      <c r="F423" s="47">
         <v>79738.101563000004</v>
       </c>
       <c r="G423">
@@ -10677,7 +10670,7 @@
       <c r="E424" s="43">
         <v>178.58541197282827</v>
       </c>
-      <c r="F424">
+      <c r="F424" s="47">
         <v>78512.101563000004</v>
       </c>
       <c r="G424">
@@ -10700,7 +10693,7 @@
       <c r="E425" s="43">
         <v>179.05472946373951</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="47">
         <v>73635.203125</v>
       </c>
       <c r="G425">
@@ -10723,7 +10716,7 @@
       <c r="E426" s="43">
         <v>182.48111455089457</v>
       </c>
-      <c r="F426">
+      <c r="F426" s="47">
         <v>73918.601563000004</v>
       </c>
       <c r="G426">
@@ -10746,7 +10739,7 @@
       <c r="E427" s="43">
         <v>184.85091522476444</v>
       </c>
-      <c r="F427">
+      <c r="F427" s="47">
         <v>74750.203125</v>
       </c>
       <c r="G427">
@@ -10769,7 +10762,7 @@
       <c r="E428" s="43">
         <v>189.02030138220636</v>
       </c>
-      <c r="F428">
+      <c r="F428" s="47">
         <v>74743.398438000004</v>
       </c>
       <c r="G428">
@@ -10792,7 +10785,7 @@
       <c r="E429" s="43">
         <v>190.15328796291763</v>
       </c>
-      <c r="F429">
+      <c r="F429" s="47">
         <v>74180.203125</v>
       </c>
       <c r="G429">
@@ -10815,7 +10808,7 @@
       <c r="E430" s="43">
         <v>191.81760624189218</v>
       </c>
-      <c r="F430">
+      <c r="F430" s="47">
         <v>75687.5</v>
       </c>
       <c r="G430">
@@ -10838,7 +10831,7 @@
       <c r="E431" s="43">
         <v>192.90337812614476</v>
       </c>
-      <c r="F431">
+      <c r="F431" s="47">
         <v>75808.398438000004</v>
       </c>
       <c r="G431">
@@ -10861,7 +10854,7 @@
       <c r="E432" s="43">
         <v>194.50503704934434</v>
       </c>
-      <c r="F432">
+      <c r="F432" s="47">
         <v>76589.296875</v>
       </c>
       <c r="G432">
@@ -10884,7 +10877,7 @@
       <c r="E433" s="43">
         <v>194.2660186494399</v>
       </c>
-      <c r="F433">
+      <c r="F433" s="47">
         <v>77363.601563000004</v>
       </c>
       <c r="G433">
@@ -10907,7 +10900,7 @@
       <c r="E434" s="43">
         <v>191.09513244996387</v>
       </c>
-      <c r="F434">
+      <c r="F434" s="47">
         <v>77626.203125</v>
       </c>
       <c r="G434">
@@ -10930,7 +10923,7 @@
       <c r="E435" s="43">
         <v>191.65493333659975</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="47">
         <v>77578.898438000004</v>
       </c>
       <c r="G435">
@@ -10953,7 +10946,7 @@
       <c r="E436" s="43">
         <v>192.32741684054983</v>
       </c>
-      <c r="F436">
+      <c r="F436" s="47">
         <v>78191.5</v>
       </c>
       <c r="G436">
@@ -10976,7 +10969,7 @@
       <c r="E437" s="43">
         <v>188.42800520666876</v>
       </c>
-      <c r="F437">
+      <c r="F437" s="47">
         <v>77443.101563000004</v>
       </c>
       <c r="G437">
@@ -10999,7 +10992,7 @@
       <c r="E438" s="43">
         <v>190.92042718630788</v>
       </c>
-      <c r="F438">
+      <c r="F438" s="47">
         <v>77553.296875</v>
       </c>
       <c r="G438">
@@ -11022,7 +11015,7 @@
       <c r="E439" s="43">
         <v>190.58079745561022</v>
       </c>
-      <c r="F439">
+      <c r="F439" s="47">
         <v>77927.898438000004</v>
       </c>
       <c r="G439">
@@ -11045,7 +11038,7 @@
       <c r="E440" s="43">
         <v>188.9945930114778</v>
       </c>
-      <c r="F440">
+      <c r="F440" s="47">
         <v>78427.898438000004</v>
       </c>
       <c r="G440">
@@ -11068,7 +11061,7 @@
       <c r="E441" s="43">
         <v>189.90365979594222</v>
       </c>
-      <c r="F441">
+      <c r="F441" s="47">
         <v>80138</v>
       </c>
       <c r="G441">
@@ -11091,7 +11084,7 @@
       <c r="E442" s="43">
         <v>191.51590755300865</v>
       </c>
-      <c r="F442">
+      <c r="F442" s="47">
         <v>81990.203125</v>
       </c>
       <c r="G442">
@@ -11114,7 +11107,7 @@
       <c r="E443" s="43">
         <v>193.36180386979248</v>
       </c>
-      <c r="F443">
+      <c r="F443" s="47">
         <v>82859.703125</v>
       </c>
       <c r="G443">
@@ -11137,7 +11130,7 @@
       <c r="E444" s="43">
         <v>195.12748404541986</v>
       </c>
-      <c r="F444">
+      <c r="F444" s="47">
         <v>84308</v>
       </c>
       <c r="G444">
@@ -11160,7 +11153,7 @@
       <c r="E445" s="43">
         <v>195.31068795555657</v>
       </c>
-      <c r="F445">
+      <c r="F445" s="47">
         <v>87055.703125</v>
       </c>
       <c r="G445">
@@ -11183,7 +11176,7 @@
       <c r="E446" s="43">
         <v>192.94283377227052</v>
       </c>
-      <c r="F446">
+      <c r="F446" s="47">
         <v>86795.296875</v>
       </c>
       <c r="G446">
@@ -11206,7 +11199,7 @@
       <c r="E447" s="43">
         <v>197.05751088397821</v>
       </c>
-      <c r="F447">
+      <c r="F447" s="47">
         <v>86898.5</v>
       </c>
       <c r="G447">
@@ -11229,7 +11222,7 @@
       <c r="E448" s="43">
         <v>199.14684863009032</v>
       </c>
-      <c r="F448">
+      <c r="F448" s="47">
         <v>89391.796875</v>
       </c>
       <c r="G448">
@@ -11252,7 +11245,7 @@
       <c r="E449" s="43">
         <v>197.9956116758764</v>
       </c>
-      <c r="F449">
+      <c r="F449" s="47">
         <v>88907.796875</v>
       </c>
       <c r="G449">
@@ -11275,7 +11268,7 @@
       <c r="E450" s="43">
         <v>199.47193275683702</v>
       </c>
-      <c r="F450">
+      <c r="F450" s="47">
         <v>85353.101563000004</v>
       </c>
       <c r="G450">
@@ -11298,7 +11291,7 @@
       <c r="E451" s="43">
         <v>201.69352454909614</v>
       </c>
-      <c r="F451">
+      <c r="F451" s="47">
         <v>86034.203125</v>
       </c>
       <c r="G451">
@@ -11321,7 +11314,7 @@
       <c r="E452" s="43">
         <v>203.70160122734893</v>
       </c>
-      <c r="F452">
+      <c r="F452" s="47">
         <v>83561</v>
       </c>
       <c r="G452">
@@ -11344,7 +11337,7 @@
       <c r="E453" s="43">
         <v>205.49506585686382</v>
       </c>
-      <c r="F453">
+      <c r="F453" s="47">
         <v>87460.398438000004</v>
       </c>
       <c r="G453">
@@ -11367,7 +11360,7 @@
       <c r="E454" s="43">
         <v>211.59953665403151</v>
       </c>
-      <c r="F454">
+      <c r="F454" s="47">
         <v>89273</v>
       </c>
       <c r="G454">
@@ -11390,7 +11383,7 @@
       <c r="E455" s="43">
         <v>214.35492215803819</v>
       </c>
-      <c r="F455">
+      <c r="F455" s="47">
         <v>92095</v>
       </c>
       <c r="G455">
@@ -11413,7 +11406,7 @@
       <c r="E456" s="43">
         <v>212.39324334786528</v>
       </c>
-      <c r="F456">
+      <c r="F456" s="47">
         <v>91258.203125</v>
       </c>
       <c r="G456">
@@ -11436,7 +11429,7 @@
       <c r="E457" s="43">
         <v>214.42611613314617</v>
       </c>
-      <c r="F457">
+      <c r="F457" s="47">
         <v>92895.898438000004</v>
       </c>
       <c r="G457">
@@ -11459,7 +11452,7 @@
       <c r="E458" s="43">
         <v>213.89363362038736</v>
       </c>
-      <c r="F458">
+      <c r="F458" s="47">
         <v>96044.898438000004</v>
       </c>
       <c r="G458">
@@ -11482,7 +11475,7 @@
       <c r="E459" s="43">
         <v>214.56780518573368</v>
       </c>
-      <c r="F459">
+      <c r="F459" s="47">
         <v>94381.398438000004</v>
       </c>
       <c r="G459">
@@ -11505,7 +11498,7 @@
       <c r="E460" s="43">
         <v>209.05639775385396</v>
       </c>
-      <c r="F460">
+      <c r="F460" s="47">
         <v>95130.601563000004</v>
       </c>
       <c r="G460">
@@ -11528,7 +11521,7 @@
       <c r="E461" s="43">
         <v>210.6398137367579</v>
       </c>
-      <c r="F461">
+      <c r="F461" s="47">
         <v>95943.796875</v>
       </c>
       <c r="G461">
@@ -11551,7 +11544,7 @@
       <c r="E462" s="43">
         <v>213.66214177293313</v>
       </c>
-      <c r="F462">
+      <c r="F462" s="47">
         <v>94963.398438000004</v>
       </c>
       <c r="G462">
@@ -11574,7 +11567,7 @@
       <c r="E463" s="43">
         <v>214.43637457792548</v>
       </c>
-      <c r="F463">
+      <c r="F463" s="47">
         <v>92999.398438000004</v>
       </c>
       <c r="G463">
@@ -11597,7 +11590,7 @@
       <c r="E464" s="43">
         <v>209.03994807290769</v>
       </c>
-      <c r="F464">
+      <c r="F464" s="47">
         <v>89674.101563000004</v>
       </c>
       <c r="G464">
@@ -11620,7 +11613,7 @@
       <c r="E465" s="43">
         <v>210.16648159098415</v>
       </c>
-      <c r="F465">
+      <c r="F465" s="47">
         <v>87541.796875</v>
       </c>
       <c r="G465">
@@ -11643,7 +11636,7 @@
       <c r="E466" s="43">
         <v>210.23104444903706</v>
       </c>
-      <c r="F466">
+      <c r="F466" s="47">
         <v>89512.398438000004</v>
       </c>
       <c r="G466">
@@ -11666,7 +11659,7 @@
       <c r="E467" s="43">
         <v>214.36825810191121</v>
       </c>
-      <c r="F467">
+      <c r="F467" s="47">
         <v>85695.203125</v>
       </c>
       <c r="G467">
@@ -11689,7 +11682,7 @@
       <c r="E468" s="43">
         <v>217.18961694141774</v>
       </c>
-      <c r="F468">
+      <c r="F468" s="47">
         <v>83770.5</v>
       </c>
       <c r="G468">
@@ -11712,7 +11705,7 @@
       <c r="E469" s="43">
         <v>214.61811522401055</v>
       </c>
-      <c r="F469">
+      <c r="F469" s="47">
         <v>83481.203125</v>
       </c>
       <c r="G469">
@@ -11735,7 +11728,7 @@
       <c r="E470" s="43">
         <v>218.30473309067338</v>
       </c>
-      <c r="F470">
+      <c r="F470" s="47">
         <v>84956.898438000004</v>
       </c>
       <c r="G470">
@@ -11758,7 +11751,7 @@
       <c r="E471" s="43">
         <v>222.32327792866721</v>
       </c>
-      <c r="F471">
+      <c r="F471" s="47">
         <v>80369</v>
       </c>
       <c r="G471">
@@ -11781,7 +11774,7 @@
       <c r="E472" s="43">
         <v>210.96001299201927</v>
       </c>
-      <c r="F472">
+      <c r="F472" s="47">
         <v>79094.898438000004</v>
       </c>
       <c r="G472">
@@ -11804,7 +11797,7 @@
       <c r="E473" s="43">
         <v>211.63817194352279</v>
       </c>
-      <c r="F473">
+      <c r="F473" s="47">
         <v>79315.796875</v>
       </c>
       <c r="G473">
@@ -11827,7 +11820,7 @@
       <c r="E474" s="43">
         <v>216.55034222090657</v>
       </c>
-      <c r="F474">
+      <c r="F474" s="47">
         <v>85164.796875</v>
       </c>
       <c r="G474">
@@ -11850,7 +11843,7 @@
       <c r="E475" s="43">
         <v>220.06540188601932</v>
       </c>
-      <c r="F475">
+      <c r="F475" s="47">
         <v>87451.296875</v>
       </c>
       <c r="G475">
@@ -11873,7 +11866,7 @@
       <c r="E476" s="43">
         <v>216.29791093440599</v>
       </c>
-      <c r="F476">
+      <c r="F476" s="47">
         <v>86359.796875</v>
       </c>
       <c r="G476">
@@ -11896,7 +11889,7 @@
       <c r="E477" s="43">
         <v>221.75831996122434</v>
       </c>
-      <c r="F477">
+      <c r="F477" s="47">
         <v>88287.398438000004</v>
       </c>
       <c r="G477">
@@ -11919,7 +11912,7 @@
       <c r="E478" s="43">
         <v>220.68569459342277</v>
       </c>
-      <c r="F478">
+      <c r="F478" s="47">
         <v>89242.796875</v>
       </c>
       <c r="G478">
@@ -11942,7 +11935,7 @@
       <c r="E479" s="43">
         <v>219.56676662150491</v>
       </c>
-      <c r="F479">
+      <c r="F479" s="47">
         <v>86544.898438000004</v>
       </c>
       <c r="G479">
@@ -11965,7 +11958,7 @@
       <c r="E480" s="43">
         <v>208.55626766526666</v>
       </c>
-      <c r="F480">
+      <c r="F480" s="47">
         <v>85441.398438000004</v>
       </c>
       <c r="G480">
@@ -11988,7 +11981,7 @@
       <c r="E481" s="43">
         <v>206.83617904910577</v>
       </c>
-      <c r="F481">
+      <c r="F481" s="47">
         <v>81947.703125</v>
       </c>
       <c r="G481">
@@ -12011,7 +12004,7 @@
       <c r="E482" s="43">
         <v>204.97395355001441</v>
       </c>
-      <c r="F482">
+      <c r="F482" s="47">
         <v>82178.796875</v>
       </c>
       <c r="G482">
@@ -12034,7 +12027,7 @@
       <c r="E483" s="43">
         <v>206.99644245029037</v>
       </c>
-      <c r="F483">
+      <c r="F483" s="47">
         <v>80939.398438000004</v>
       </c>
       <c r="G483">
@@ -12057,7 +12050,7 @@
       <c r="E484" s="43">
         <v>199.5305260448776</v>
       </c>
-      <c r="F484">
+      <c r="F484" s="47">
         <v>82995.203125</v>
       </c>
       <c r="G484">
@@ -12080,7 +12073,7 @@
       <c r="E485" s="43">
         <v>202.71222214841424</v>
       </c>
-      <c r="F485">
+      <c r="F485" s="47">
         <v>83234</v>
       </c>
       <c r="G485">
@@ -12103,7 +12096,7 @@
       <c r="E486" s="43">
         <v>207.56708422843494</v>
       </c>
-      <c r="F486">
+      <c r="F486" s="47">
         <v>81908.203125</v>
       </c>
       <c r="G486">
@@ -12126,7 +12119,7 @@
       <c r="E487" s="43">
         <v>205.68099712857705</v>
       </c>
-      <c r="F487">
+      <c r="F487" s="47">
         <v>84137.703125</v>
       </c>
       <c r="G487">
@@ -12149,7 +12142,7 @@
       <c r="E488" s="43">
         <v>208.68439648938048</v>
       </c>
-      <c r="F488">
+      <c r="F488" s="47">
         <v>83651.796875</v>
       </c>
       <c r="G488">
@@ -12172,7 +12165,7 @@
       <c r="E489" s="43">
         <v>206.55010805463775</v>
       </c>
-      <c r="F489">
+      <c r="F489" s="47">
         <v>84850.296875</v>
       </c>
       <c r="G489">
@@ -12195,7 +12188,7 @@
       <c r="E490" s="43">
         <v>204.1210732428768</v>
       </c>
-      <c r="F490">
+      <c r="F490" s="47">
         <v>84570.5</v>
       </c>
       <c r="G490">
@@ -12218,7 +12211,7 @@
       <c r="E491" s="43">
         <v>195.70158204828365</v>
       </c>
-      <c r="F491">
+      <c r="F491" s="47">
         <v>82783.703125</v>
       </c>
       <c r="G491">
@@ -12241,7 +12234,7 @@
       <c r="E492" s="43">
         <v>199.51916331748143</v>
       </c>
-      <c r="F492">
+      <c r="F492" s="47">
         <v>84006.5</v>
       </c>
       <c r="G492">
@@ -12264,7 +12257,7 @@
       <c r="E493" s="43">
         <v>198.53783686057471</v>
       </c>
-      <c r="F493">
+      <c r="F493" s="47">
         <v>83500.101563000004</v>
       </c>
       <c r="G493">
@@ -12287,7 +12280,7 @@
       <c r="E494" s="43">
         <v>199.09839030140679</v>
       </c>
-      <c r="F494">
+      <c r="F494" s="47">
         <v>85579.101563000004</v>
       </c>
       <c r="G494">
@@ -12310,7 +12303,7 @@
       <c r="E495" s="43">
         <v>205.95742097005126</v>
       </c>
-      <c r="F495">
+      <c r="F495" s="47">
         <v>85286</v>
       </c>
       <c r="G495">
@@ -12333,7 +12326,7 @@
       <c r="E496" s="43">
         <v>203.33119585020208</v>
       </c>
-      <c r="F496">
+      <c r="F496" s="47">
         <v>83835.703125</v>
       </c>
       <c r="G496">
@@ -12356,7 +12349,7 @@
       <c r="E497" s="43">
         <v>208.86483218747031</v>
       </c>
-      <c r="F497">
+      <c r="F497" s="47">
         <v>83747.796875</v>
       </c>
       <c r="G497">
@@ -12379,7 +12372,7 @@
       <c r="E498" s="43">
         <v>208.92519941476613</v>
       </c>
-      <c r="F498">
+      <c r="F498" s="47">
         <v>84402.101563000004</v>
       </c>
       <c r="G498">
@@ -12402,7 +12395,7 @@
       <c r="E499" s="43">
         <v>209.54419881872633</v>
       </c>
-      <c r="F499">
+      <c r="F499" s="47">
         <v>83746.296875</v>
       </c>
       <c r="G499">
@@ -12425,7 +12418,7 @@
       <c r="E500" s="43">
         <v>209.54419881872633</v>
       </c>
-      <c r="F500">
+      <c r="F500" s="47">
         <v>84702.296875</v>
       </c>
       <c r="G500">
@@ -12448,7 +12441,7 @@
       <c r="E501" s="43">
         <v>208.87182521451234</v>
       </c>
-      <c r="F501">
+      <c r="F501" s="47">
         <v>85100.296875</v>
       </c>
       <c r="G501">
@@ -12471,7 +12464,7 @@
       <c r="E502" s="43">
         <v>207.14736688117119</v>
       </c>
-      <c r="F502">
+      <c r="F502" s="47">
         <v>85370.898438000004</v>
       </c>
       <c r="G502">
@@ -12494,7 +12487,7 @@
       <c r="E503" s="43">
         <v>207.14044796403513</v>
       </c>
-      <c r="F503">
+      <c r="F503" s="47">
         <v>85481.101563000004</v>
       </c>
       <c r="G503">
@@ -12517,7 +12510,7 @@
       <c r="E504" s="43">
         <v>206.80152975414057</v>
       </c>
-      <c r="F504">
+      <c r="F504" s="47">
         <v>85038.796875</v>
       </c>
       <c r="G504">
@@ -12540,7 +12533,7 @@
       <c r="E505" s="43">
         <v>204.97096487264912</v>
       </c>
-      <c r="F505">
+      <c r="F505" s="47">
         <v>83350.601563000004</v>
       </c>
       <c r="G505">
@@ -12563,7 +12556,7 @@
       <c r="E506" s="43">
         <v>210.51472657017854</v>
       </c>
-      <c r="F506">
+      <c r="F506" s="47">
         <v>83528.203125</v>
       </c>
       <c r="G506">
@@ -12586,7 +12579,7 @@
       <c r="E507" s="43">
         <v>210.72585406785106</v>
       </c>
-      <c r="F507">
+      <c r="F507" s="47">
         <v>85126.398438000004</v>
       </c>
       <c r="G507">
@@ -12609,7 +12602,7 @@
       <c r="E508" s="43">
         <v>219.51330324075488</v>
       </c>
-      <c r="F508">
+      <c r="F508" s="47">
         <v>83622.5</v>
       </c>
       <c r="G508">
@@ -12632,7 +12625,7 @@
       <c r="E509" s="43">
         <v>223.03123547682682</v>
       </c>
-      <c r="F509">
+      <c r="F509" s="47">
         <v>81004.398438000004</v>
       </c>
       <c r="G509">
@@ -12655,7 +12648,7 @@
       <c r="E510" s="43">
         <v>218.18731405592058</v>
       </c>
-      <c r="F510">
+      <c r="F510" s="47">
         <v>85180.398438000004</v>
       </c>
       <c r="G510">
@@ -12678,7 +12671,7 @@
       <c r="E511" s="43">
         <v>229.50138968871664</v>
       </c>
-      <c r="F511">
+      <c r="F511" s="47">
         <v>85782.101563000004</v>
       </c>
       <c r="G511">
@@ -12701,7 +12694,7 @@
       <c r="E512" s="43">
         <v>227.26756411628656</v>
       </c>
-      <c r="F512">
+      <c r="F512" s="47">
         <v>85968.796875</v>
       </c>
       <c r="G512">
@@ -12724,7 +12717,7 @@
       <c r="E513" s="43">
         <v>228.44431401440067</v>
       </c>
-      <c r="F513">
+      <c r="F513" s="47">
         <v>88269.796875</v>
       </c>
       <c r="G513">
@@ -12747,7 +12740,7 @@
       <c r="E514" s="43">
         <v>218.95410969618283</v>
       </c>
-      <c r="F514">
+      <c r="F514" s="47">
         <v>90907.5</v>
       </c>
       <c r="G514">
@@ -12770,7 +12763,7 @@
       <c r="E515" s="43">
         <v>221.61170736347987</v>
       </c>
-      <c r="F515">
+      <c r="F515" s="47">
         <v>91416.601563000004</v>
       </c>
       <c r="G515">
@@ -12793,7 +12786,7 @@
       <c r="E516" s="43">
         <v>220.99640415007275</v>
       </c>
-      <c r="F516">
+      <c r="F516" s="47">
         <v>89662.703125</v>
       </c>
       <c r="G516">
@@ -12816,7 +12809,7 @@
       <c r="E517" s="43">
         <v>217.89475838973775</v>
       </c>
-      <c r="F517">
+      <c r="F517" s="47">
         <v>88091.296875</v>
       </c>
       <c r="G517">
@@ -12839,7 +12832,7 @@
       <c r="E518" s="43">
         <v>218.60510209164269</v>
       </c>
-      <c r="F518">
+      <c r="F518" s="47">
         <v>87934</v>
       </c>
       <c r="G518">
@@ -12862,7 +12855,7 @@
       <c r="E519" s="43">
         <v>217.7511759116006</v>
       </c>
-      <c r="F519">
+      <c r="F519" s="47">
         <v>89189.101563000004</v>
       </c>
       <c r="G519">
@@ -12885,7 +12878,7 @@
       <c r="E520" s="43">
         <v>219.72650674964615</v>
       </c>
-      <c r="F520">
+      <c r="F520" s="47">
         <v>88149.203125</v>
       </c>
       <c r="G520">
@@ -12908,7 +12901,7 @@
       <c r="E521" s="43">
         <v>215.59636085207595</v>
       </c>
-      <c r="F521">
+      <c r="F521" s="47">
         <v>87393.101563000004</v>
       </c>
       <c r="G521">
@@ -12931,7 +12924,7 @@
       <c r="E522" s="43">
         <v>212.92541178393128</v>
       </c>
-      <c r="F522">
+      <c r="F522" s="47">
         <v>87559.398438000004</v>
       </c>
       <c r="G522">
@@ -12954,7 +12947,7 @@
       <c r="E523" s="43">
         <v>215.26190708365965</v>
       </c>
-      <c r="F523">
+      <c r="F523" s="47">
         <v>88185</v>
       </c>
       <c r="G523">
@@ -12977,7 +12970,7 @@
       <c r="E524" s="43">
         <v>216.73164195493783</v>
       </c>
-      <c r="F524">
+      <c r="F524" s="47">
         <v>87803.703125</v>
       </c>
       <c r="G524">
@@ -13000,7 +12993,7 @@
       <c r="E525" s="43">
         <v>214.36571441028832</v>
       </c>
-      <c r="F525">
+      <c r="F525" s="47">
         <v>88042.601563000004</v>
       </c>
       <c r="G525">
@@ -13023,7 +13016,7 @@
       <c r="E526" s="43">
         <v>212.93561892297967</v>
       </c>
-      <c r="F526">
+      <c r="F526" s="47">
         <v>90577.601563000004</v>
       </c>
       <c r="G526">
@@ -13046,7 +13039,7 @@
       <c r="E527" s="43">
         <v>208.49536725867364</v>
       </c>
-      <c r="F527">
+      <c r="F527" s="47">
         <v>89977.898438000004</v>
       </c>
       <c r="G527">
@@ -13069,7 +13062,7 @@
       <c r="E528" s="43">
         <v>210.64380252280532</v>
       </c>
-      <c r="F528">
+      <c r="F528" s="47">
         <v>89443.203125</v>
       </c>
       <c r="G528">
@@ -13092,7 +13085,7 @@
       <c r="E529" s="43">
         <v>207.3571829194627</v>
       </c>
-      <c r="F529">
+      <c r="F529" s="47">
         <v>90029.5</v>
       </c>
       <c r="G529">
@@ -13115,7 +13108,7 @@
       <c r="E530" s="43">
         <v>208.84416568520811</v>
       </c>
-      <c r="F530">
+      <c r="F530" s="47">
         <v>90440.601563000004</v>
       </c>
       <c r="G530">
@@ -13138,7 +13131,7 @@
       <c r="E531" s="43">
         <v>203.3600267156271</v>
       </c>
-      <c r="F531">
+      <c r="F531" s="47">
         <v>91359.5</v>
       </c>
       <c r="G531">
@@ -13161,7 +13154,7 @@
       <c r="E532" s="43">
         <v>207.21896263239572</v>
       </c>
-      <c r="F532">
+      <c r="F532" s="47">
         <v>88721.5</v>
       </c>
       <c r="G532">
@@ -13184,7 +13177,7 @@
       <c r="E533" s="43">
         <v>203.81492078916511</v>
       </c>
-      <c r="F533">
+      <c r="F533" s="47">
         <v>87969.898438000004</v>
       </c>
       <c r="G533">
@@ -13207,7 +13200,7 @@
       <c r="E534" s="43">
         <v>200.34455125061334</v>
       </c>
-      <c r="F534">
+      <c r="F534" s="47">
         <v>90248.898438000004</v>
       </c>
       <c r="G534">
@@ -13230,7 +13223,7 @@
       <c r="E535" s="43">
         <v>203.60667445484174</v>
       </c>
-      <c r="F535">
+      <c r="F535" s="47">
         <v>91558</v>
       </c>
       <c r="G535">
@@ -13253,7 +13246,7 @@
       <c r="E536" s="43">
         <v>204.35088163352356</v>
       </c>
-      <c r="F536">
+      <c r="F536" s="47">
         <v>89515.398438000004</v>
       </c>
       <c r="G536">
@@ -13276,7 +13269,7 @@
       <c r="E537" s="43">
         <v>201.64322534118733</v>
       </c>
-      <c r="F537">
+      <c r="F537" s="47">
         <v>87948.203125</v>
       </c>
       <c r="G537">
@@ -13299,7 +13292,7 @@
       <c r="E538" s="43">
         <v>202.13374718790374</v>
       </c>
-      <c r="F538">
+      <c r="F538" s="47">
         <v>88061.101563000004</v>
       </c>
       <c r="G538">
@@ -13322,7 +13315,7 @@
       <c r="E539" s="43">
         <v>199.54322569328858</v>
       </c>
-      <c r="F539">
+      <c r="F539" s="47">
         <v>87226.5</v>
       </c>
       <c r="G539">
@@ -13345,7 +13338,7 @@
       <c r="E540" s="43">
         <v>192.25246815594076</v>
       </c>
-      <c r="F540">
+      <c r="F540" s="47">
         <v>90283.101563000004</v>
       </c>
       <c r="G540">
@@ -13368,7 +13361,7 @@
       <c r="E541" s="43">
         <v>192.36967105519736</v>
       </c>
-      <c r="F541">
+      <c r="F541" s="47">
         <v>88999.101563000004</v>
       </c>
       <c r="G541">
@@ -13391,7 +13384,7 @@
       <c r="E542" s="43">
         <v>191.97864797021407</v>
       </c>
-      <c r="F542">
+      <c r="F542" s="47">
         <v>84955.898438000004</v>
       </c>
       <c r="G542">
@@ -13414,7 +13407,7 @@
       <c r="E543" s="43">
         <v>187.17995153614612</v>
       </c>
-      <c r="F543">
+      <c r="F543" s="47">
         <v>84054.703125</v>
       </c>
       <c r="G543">
@@ -13437,7 +13430,7 @@
       <c r="E544" s="43">
         <v>187.44131123543585</v>
       </c>
-      <c r="F544">
+      <c r="F544" s="47">
         <v>87450.898438000004</v>
       </c>
       <c r="G544">
@@ -13460,7 +13453,7 @@
       <c r="E545" s="43">
         <v>193.69664330165963</v>
       </c>
-      <c r="F545">
+      <c r="F545" s="47">
         <v>89645.898438000004</v>
       </c>
       <c r="G545">
@@ -13483,7 +13476,7 @@
       <c r="E546" s="43">
         <v>192.8910867204163</v>
       </c>
-      <c r="F546">
+      <c r="F546" s="47">
         <v>89057.601563000004</v>
       </c>
       <c r="G546">
@@ -13506,7 +13499,7 @@
       <c r="E547" s="43">
         <v>193.40991027499189</v>
       </c>
-      <c r="F547">
+      <c r="F547" s="47">
         <v>90041.101563000004</v>
       </c>
       <c r="G547">
@@ -13529,7 +13522,7 @@
       <c r="E548" s="43">
         <v>193.87866348597146</v>
       </c>
-      <c r="F548">
+      <c r="F548" s="47">
         <v>90170.101563000004</v>
       </c>
       <c r="G548">
@@ -13552,7 +13545,7 @@
       <c r="E549" s="43">
         <v>197.63279393822464</v>
       </c>
-      <c r="F549">
+      <c r="F549" s="47">
         <v>90106.601563000004</v>
       </c>
       <c r="G549">
@@ -13575,7 +13568,7 @@
       <c r="E550" s="43">
         <v>198.82781422697207</v>
       </c>
-      <c r="F550">
+      <c r="F550" s="47">
         <v>93010.398438000004</v>
       </c>
       <c r="G550">
@@ -13598,7 +13591,7 @@
       <c r="E551" s="43">
         <v>198.25951279020521</v>
       </c>
-      <c r="F551">
+      <c r="F551" s="47">
         <v>91663</v>
       </c>
       <c r="G551">
@@ -13621,7 +13614,7 @@
       <c r="E552" s="43">
         <v>193.1518712207691</v>
       </c>
-      <c r="F552">
+      <c r="F552" s="47">
         <v>89967.296875</v>
       </c>
       <c r="G552">
@@ -13644,7 +13637,7 @@
       <c r="E553" s="43">
         <v>190.08744249466935</v>
       </c>
-      <c r="F553">
+      <c r="F553" s="47">
         <v>90867.601563000004</v>
       </c>
       <c r="G553">
@@ -13667,7 +13660,7 @@
       <c r="E554" s="43">
         <v>190.42583383095746</v>
       </c>
-      <c r="F554">
+      <c r="F554" s="47">
         <v>90959.601563000004</v>
       </c>
       <c r="G554">
@@ -13690,7 +13683,7 @@
       <c r="E555" s="43">
         <v>189.20839684143016</v>
       </c>
-      <c r="F555">
+      <c r="F555" s="47">
         <v>92391</v>
       </c>
       <c r="G555">
@@ -13713,7 +13706,7 @@
       <c r="E556" s="43">
         <v>187.40362033393066</v>
       </c>
-      <c r="F556">
+      <c r="F556" s="47">
         <v>93218.703125</v>
       </c>
       <c r="G556">
@@ -13736,7 +13729,7 @@
       <c r="E557" s="43">
         <v>187.76341746691085</v>
       </c>
-      <c r="F557">
+      <c r="F557" s="47">
         <v>91814.296875</v>
       </c>
       <c r="G557">
@@ -13759,7 +13752,7 @@
       <c r="E558" s="43">
         <v>187.74164092959643</v>
       </c>
-      <c r="F558">
+      <c r="F558" s="47">
         <v>90973</v>
       </c>
       <c r="G558">
@@ -13782,7 +13775,7 @@
       <c r="E559" s="43">
         <v>188.14813084027816</v>
       </c>
-      <c r="F559">
+      <c r="F559" s="47">
         <v>91558.203125</v>
       </c>
       <c r="G559">
@@ -13805,7 +13798,7 @@
       <c r="E560" s="43">
         <v>189.34270426106499</v>
       </c>
-      <c r="F560">
+      <c r="F560" s="47">
         <v>92091.5</v>
       </c>
       <c r="G560">
@@ -13828,7 +13821,7 @@
       <c r="E561" s="43">
         <v>189.18921056179545</v>
       </c>
-      <c r="F561">
+      <c r="F561" s="47">
         <v>90629.898438000004</v>
       </c>
       <c r="G561">
@@ -13851,7 +13844,7 @@
       <c r="E562" s="43">
         <v>190.38147282121389</v>
       </c>
-      <c r="F562">
+      <c r="F562" s="47">
         <v>90345.898438000004</v>
       </c>
       <c r="G562">
@@ -13874,7 +13867,7 @@
       <c r="E563" s="43">
         <v>191.93990270508567</v>
       </c>
-      <c r="F563">
+      <c r="F563" s="47">
         <v>91041.398438000004</v>
       </c>
       <c r="G563">
@@ -13897,7 +13890,7 @@
       <c r="E564" s="43">
         <v>189.67631856539666</v>
       </c>
-      <c r="F564">
+      <c r="F564" s="47">
         <v>91239.203125</v>
       </c>
       <c r="G564">
@@ -13920,7 +13913,7 @@
       <c r="E565" s="43">
         <v>188.83633347992003</v>
       </c>
-      <c r="F565">
+      <c r="F565" s="47">
         <v>92038.398438000004</v>
       </c>
       <c r="G565">
@@ -13943,7 +13936,7 @@
       <c r="E566" s="43">
         <v>190.29812426359135</v>
       </c>
-      <c r="F566">
+      <c r="F566" s="47">
         <v>92559.296875</v>
       </c>
       <c r="G566">
@@ -13966,7 +13959,7 @@
       <c r="E567" s="43">
         <v>193.09979850035219</v>
       </c>
-      <c r="F567">
+      <c r="F567" s="47">
         <v>91496.101563000004</v>
       </c>
       <c r="G567">
@@ -13989,7 +13982,7 @@
       <c r="E568" s="43">
         <v>200.93866243775247</v>
       </c>
-      <c r="F568">
+      <c r="F568" s="47">
         <v>91717.101563000004</v>
       </c>
       <c r="G568">
@@ -14012,7 +14005,7 @@
       <c r="E569" s="43">
         <v>207.00678346531802</v>
       </c>
-      <c r="F569">
+      <c r="F569" s="47">
         <v>91154.398438000004</v>
       </c>
       <c r="G569">
@@ -14035,7 +14028,7 @@
       <c r="E570" s="43">
         <v>206.97035788851991</v>
       </c>
-      <c r="F570">
+      <c r="F570" s="47">
         <v>89574.703125</v>
       </c>
       <c r="G570">
@@ -14058,7 +14051,7 @@
       <c r="E571" s="43">
         <v>213.31066350408898</v>
       </c>
-      <c r="F571">
+      <c r="F571" s="47">
         <v>90033.296875</v>
       </c>
       <c r="G571">
@@ -14081,7 +14074,7 @@
       <c r="E572" s="43">
         <v>207.17227779624741</v>
       </c>
-      <c r="F572">
+      <c r="F572" s="47">
         <v>90354.203125</v>
       </c>
       <c r="G572">
@@ -14104,7 +14097,7 @@
       <c r="E573" s="43">
         <v>203.6724360897241</v>
       </c>
-      <c r="F573">
+      <c r="F573" s="47">
         <v>88251</v>
       </c>
       <c r="G573">
@@ -14127,7 +14120,7 @@
       <c r="E574" s="43">
         <v>203.2337262912657</v>
       </c>
-      <c r="F574">
+      <c r="F574" s="47">
         <v>87608.101563000004</v>
       </c>
       <c r="G574">
@@ -14150,7 +14143,7 @@
       <c r="E575" s="43">
         <v>208.75835690374123</v>
       </c>
-      <c r="F575">
+      <c r="F575" s="47">
         <v>89585.296875</v>
       </c>
       <c r="G575">
@@ -14173,7 +14166,7 @@
       <c r="E576" s="43">
         <v>205.52784257974074</v>
       </c>
-      <c r="F576">
+      <c r="F576" s="47">
         <v>89401.398438000004</v>
       </c>
       <c r="G576">
@@ -14196,7 +14189,7 @@
       <c r="E577" s="43">
         <v>202.54492452594911</v>
       </c>
-      <c r="F577">
+      <c r="F577" s="47">
         <v>86434.101563000004</v>
       </c>
       <c r="G577">
@@ -14219,7 +14212,7 @@
       <c r="E578" s="43">
         <v>200.76359736349821</v>
       </c>
-      <c r="F578">
+      <c r="F578" s="47">
         <v>86507.203125</v>
       </c>
       <c r="G578">
@@ -14242,7 +14235,7 @@
       <c r="E579" s="43">
         <v>202.65549379097871</v>
       </c>
-      <c r="F579">
+      <c r="F579" s="47">
         <v>82243.601563000004</v>
       </c>
       <c r="G579">
@@ -14265,7 +14258,7 @@
       <c r="E580" s="43">
         <v>202.65498094293881</v>
       </c>
-      <c r="F580">
+      <c r="F580" s="47">
         <v>83676.796875</v>
       </c>
       <c r="G580">
@@ -14288,7 +14281,7 @@
       <c r="E581" s="43">
         <v>197.58548267699231</v>
       </c>
-      <c r="F581">
+      <c r="F581" s="47">
         <v>85762.796875</v>
       </c>
       <c r="G581">
@@ -14311,7 +14304,7 @@
       <c r="E582" s="43">
         <v>196.78667622674709</v>
       </c>
-      <c r="F582">
+      <c r="F582" s="47">
         <v>85520.796875</v>
       </c>
       <c r="G582">
@@ -14334,7 +14327,7 @@
       <c r="E583" s="43">
         <v>199.41245288198448</v>
       </c>
-      <c r="F583">
+      <c r="F583" s="47">
         <v>88795.796875</v>
       </c>
       <c r="G583">
@@ -14357,7 +14350,7 @@
       <c r="E584" s="43">
         <v>210.6865137577748</v>
       </c>
-      <c r="F584">
+      <c r="F584" s="47">
         <v>89964.796875</v>
       </c>
       <c r="G584">
@@ -14380,7 +14373,7 @@
       <c r="E585" s="43">
         <v>210.67902462117965</v>
       </c>
-      <c r="F585">
+      <c r="F585" s="47">
         <v>90803.398438000004</v>
       </c>
       <c r="G585">
@@ -14403,7 +14396,7 @@
       <c r="E586" s="43">
         <v>208.37058536684043</v>
       </c>
-      <c r="F586">
+      <c r="F586" s="47">
         <v>88634.296875</v>
       </c>
       <c r="G586">
@@ -14426,7 +14419,7 @@
       <c r="E587" s="43">
         <v>213.77695731149311</v>
       </c>
-      <c r="F587">
+      <c r="F587" s="47">
         <v>88634.296875</v>
       </c>
       <c r="G587">
@@ -14449,7 +14442,7 @@
       <c r="E588" s="43">
         <v>208.07880202287902</v>
       </c>
-      <c r="F588">
+      <c r="F588" s="47">
         <v>88119</v>
       </c>
       <c r="G588">
@@ -14472,7 +14465,7 @@
       <c r="E589" s="43">
         <v>209.26369574278613</v>
       </c>
-      <c r="F589">
+      <c r="F589" s="47">
         <v>90344.101563000004</v>
       </c>
       <c r="G589">
@@ -14495,7 +14488,7 @@
       <c r="E590" s="43">
         <v>208.04004883866199</v>
       </c>
-      <c r="F590">
+      <c r="F590" s="47">
         <v>91271.703125</v>
       </c>
       <c r="G590">
@@ -14518,7 +14511,7 @@
       <c r="E591" s="43">
         <v>210.42887307896359</v>
       </c>
-      <c r="F591">
+      <c r="F591" s="47">
         <v>93711</v>
       </c>
       <c r="G591">
@@ -14541,7 +14534,7 @@
       <c r="E592" s="43">
         <v>212.06970220570577</v>
       </c>
-      <c r="F592">
+      <c r="F592" s="47">
         <v>93683.296875</v>
       </c>
       <c r="G592">
@@ -14564,7 +14557,7 @@
       <c r="E593" s="43">
         <v>209.9146052307814</v>
       </c>
-      <c r="F593">
+      <c r="F593" s="47">
         <v>93236.203125</v>
       </c>
       <c r="G593">
@@ -14587,7 +14580,7 @@
       <c r="E594" s="43">
         <v>209.49128361700559</v>
       </c>
-      <c r="F594">
+      <c r="F594" s="47">
         <v>92288</v>
       </c>
       <c r="G594">
@@ -14610,7 +14603,7 @@
       <c r="E595" s="43">
         <v>210.17849179050981</v>
       </c>
-      <c r="F595">
+      <c r="F595" s="47">
         <v>91369.601563000004</v>
       </c>
       <c r="G595">
@@ -14633,7 +14626,7 @@
       <c r="E596" s="43">
         <v>210.28465887482199</v>
       </c>
-      <c r="F596">
+      <c r="F596" s="47">
         <v>91452</v>
       </c>
       <c r="G596">
@@ -14656,7 +14649,7 @@
       <c r="E597" s="43">
         <v>207.01728201484801</v>
       </c>
-      <c r="F597">
+      <c r="F597" s="47">
         <v>91775.203125</v>
       </c>
       <c r="G597">
@@ -14679,7 +14672,7 @@
       <c r="E598" s="43">
         <v>207.96348059737298</v>
       </c>
-      <c r="F598">
+      <c r="F598" s="47">
         <v>90351.703125</v>
       </c>
       <c r="G598">
@@ -14702,7 +14695,7 @@
       <c r="E599" s="43">
         <v>208.10860702313485</v>
       </c>
-      <c r="F599">
+      <c r="F599" s="47">
         <v>90938.101563000004</v>
       </c>
       <c r="G599">
@@ -14725,7 +14718,7 @@
       <c r="E600" s="43">
         <v>209.4058787203256</v>
       </c>
-      <c r="F600">
+      <c r="F600" s="47">
         <v>89946.898438000004</v>
       </c>
       <c r="G600">
@@ -14748,7 +14741,7 @@
       <c r="E601" s="43">
         <v>208.79908394570231</v>
       </c>
-      <c r="F601">
+      <c r="F601" s="47">
         <v>88869.796875</v>
       </c>
       <c r="G601">
@@ -14771,7 +14764,7 @@
       <c r="E602" s="43">
         <v>220.3744889552234</v>
       </c>
-      <c r="F602">
+      <c r="F602" s="47">
         <v>89141.398438000004</v>
       </c>
       <c r="G602">
@@ -14794,7 +14787,7 @@
       <c r="E603" s="43">
         <v>227.78671461236004</v>
       </c>
-      <c r="F603">
+      <c r="F603" s="47">
         <v>87937.898438000004</v>
       </c>
       <c r="G603">
@@ -14817,7 +14810,7 @@
       <c r="E604" s="43">
         <v>241.16022566027993</v>
       </c>
-      <c r="F604">
+      <c r="F604" s="47">
         <v>87400</v>
       </c>
       <c r="G604">
@@ -14840,7 +14833,7 @@
       <c r="E605" s="43">
         <v>240.01320688966914</v>
       </c>
-      <c r="F605">
+      <c r="F605" s="47">
         <v>88465.601563000004</v>
       </c>
       <c r="G605">
@@ -14863,7 +14856,7 @@
       <c r="E606" s="43">
         <v>237.06898163079103</v>
       </c>
-      <c r="F606">
+      <c r="F606" s="47">
         <v>87060.898438000004</v>
       </c>
       <c r="G606">
@@ -14886,7 +14879,7 @@
       <c r="E607" s="43">
         <v>238.93327309681385</v>
       </c>
-      <c r="F607">
+      <c r="F607" s="47">
         <v>86545.898438000004</v>
       </c>
       <c r="G607">
@@ -14909,7 +14902,7 @@
       <c r="E608" s="43">
         <v>236.04683087148305</v>
       </c>
-      <c r="F608">
+      <c r="F608" s="47">
         <v>86545.898438000004</v>
       </c>
       <c r="G608">
@@ -14932,7 +14925,7 @@
       <c r="E609" s="43">
         <v>237.47869307407899</v>
       </c>
-      <c r="F609">
+      <c r="F609" s="47">
         <v>85662.5</v>
       </c>
       <c r="G609">
@@ -14955,7 +14948,7 @@
       <c r="E610" s="43">
         <v>234.24799812140674</v>
       </c>
-      <c r="F610">
+      <c r="F610" s="47">
         <v>83170.101563000004</v>
       </c>
       <c r="G610">
@@ -14978,7 +14971,7 @@
       <c r="E611" s="43">
         <v>235.04976096815474</v>
       </c>
-      <c r="F611">
+      <c r="F611" s="47">
         <v>82605.601563000004</v>
       </c>
       <c r="G611">
@@ -15001,7 +14994,7 @@
       <c r="E612" s="43">
         <v>235.88516421406979</v>
       </c>
-      <c r="F612">
+      <c r="F612" s="47">
         <v>85712.296875</v>
       </c>
       <c r="G612">
@@ -15024,7 +15017,7 @@
       <c r="E613" s="43">
         <v>241.56827139022593</v>
       </c>
-      <c r="F613">
+      <c r="F613" s="47">
         <v>88194.703125</v>
       </c>
       <c r="G613">
@@ -15047,7 +15040,7 @@
       <c r="E614" s="43">
         <v>247.82275763053775</v>
       </c>
-      <c r="F614">
+      <c r="F614" s="47">
         <v>88130.796875</v>
       </c>
       <c r="G614">
@@ -15070,7 +15063,7 @@
       <c r="E615" s="43">
         <v>247.89539532696287</v>
       </c>
-      <c r="F615">
+      <c r="F615" s="47">
         <v>88449.898438000004</v>
       </c>
       <c r="G615">
@@ -15093,7 +15086,7 @@
       <c r="E616" s="43">
         <v>253.12855900748104</v>
       </c>
-      <c r="F616">
+      <c r="F616" s="47">
         <v>90050.796875</v>
       </c>
       <c r="G616">
@@ -15116,7 +15109,7 @@
       <c r="E617" s="43">
         <v>252.19296455962777</v>
       </c>
-      <c r="F617">
+      <c r="F617" s="47">
         <v>89128.796875</v>
       </c>
       <c r="G617">
@@ -15139,7 +15132,7 @@
       <c r="E618" s="43">
         <v>243.11179953562547</v>
       </c>
-      <c r="F618">
+      <c r="F618" s="47">
         <v>92689.5</v>
       </c>
       <c r="G618">
@@ -15162,7 +15155,7 @@
       <c r="E619" s="43">
         <v>271.46566070738498</v>
       </c>
-      <c r="F619">
+      <c r="F619" s="47">
         <v>95075.898438000004</v>
       </c>
       <c r="G619">
@@ -15185,7 +15178,7 @@
       <c r="E620" s="43">
         <v>277.10718261369431</v>
       </c>
-      <c r="F620">
+      <c r="F620" s="47">
         <v>102265.398438</v>
       </c>
       <c r="G620">
@@ -15208,7 +15201,7 @@
       <c r="E621" s="43">
         <v>291.72300991620915</v>
       </c>
-      <c r="F621">
+      <c r="F621" s="47">
         <v>105850</v>
       </c>
       <c r="G621">
@@ -15231,7 +15224,7 @@
       <c r="E622" s="43">
         <v>296.32069363771808</v>
       </c>
-      <c r="F622">
+      <c r="F622" s="47">
         <v>104431.898438</v>
       </c>
       <c r="G622">
@@ -15254,7 +15247,7 @@
       <c r="E623" s="43">
         <v>296.14218501230818</v>
       </c>
-      <c r="F623">
+      <c r="F623" s="47">
         <v>103209.796875</v>
       </c>
       <c r="G623">
@@ -15277,7 +15270,7 @@
       <c r="E624" s="43">
         <v>291.22961585711283</v>
       </c>
-      <c r="F624">
+      <c r="F624" s="47">
         <v>102271</v>
       </c>
       <c r="G624">
@@ -15300,7 +15293,7 @@
       <c r="E625" s="43">
         <v>291.1312346685761</v>
       </c>
-      <c r="F625" s="53">
+      <c r="F625" s="47">
         <v>102270</v>
       </c>
       <c r="G625">
@@ -15323,7 +15316,7 @@
       <c r="E626" s="43">
         <v>295.30078096566439</v>
       </c>
-      <c r="F626">
+      <c r="F626" s="47">
         <v>104222.898438</v>
       </c>
       <c r="G626">
@@ -15346,7 +15339,7 @@
       <c r="E627" s="43">
         <v>300.88424958241933</v>
       </c>
-      <c r="F627">
+      <c r="F627" s="47">
         <v>105441.203125</v>
       </c>
       <c r="G627">
@@ -15369,7 +15362,7 @@
       <c r="E628" s="43">
         <v>300.28460660893126</v>
       </c>
-      <c r="F628">
+      <c r="F628" s="47">
         <v>107185.398438</v>
       </c>
       <c r="G628">
@@ -15392,7 +15385,7 @@
       <c r="E629" s="43">
         <v>304.31490713107939</v>
       </c>
-      <c r="F629">
+      <c r="F629" s="47">
         <v>106949.101563</v>
       </c>
       <c r="G629">
@@ -15415,7 +15408,7 @@
       <c r="E630" s="43">
         <v>313.46771153737836</v>
       </c>
-      <c r="F630">
+      <c r="F630" s="47">
         <v>112017</v>
       </c>
       <c r="G630">
@@ -15438,7 +15431,7 @@
       <c r="E631" s="43">
         <v>333.71431516151176</v>
       </c>
-      <c r="F631">
+      <c r="F631" s="47">
         <v>113851.398438</v>
       </c>
       <c r="G631">
@@ -15461,7 +15454,7 @@
       <c r="E632" s="43">
         <v>324.79952126013842</v>
       </c>
-      <c r="F632">
+      <c r="F632" s="47">
         <v>119508.296875</v>
       </c>
       <c r="G632">
@@ -15484,7 +15477,7 @@
       <c r="E633" s="43">
         <v>329.38533537975803</v>
       </c>
-      <c r="F633">
+      <c r="F633" s="47">
         <v>120038.398438</v>
       </c>
       <c r="G633">
@@ -15507,7 +15500,7 @@
       <c r="E634" s="43">
         <v>328.09218803230465</v>
       </c>
-      <c r="F634">
+      <c r="F634" s="47">
         <v>126362</v>
       </c>
       <c r="G634">
@@ -15530,7 +15523,7 @@
       <c r="E635" s="43">
         <v>328.44620885329346</v>
       </c>
-      <c r="F635">
+      <c r="F635" s="47">
         <v>127400</v>
       </c>
       <c r="G635">
@@ -15553,7 +15546,7 @@
       <c r="E636" s="43">
         <v>309.49335326574379</v>
       </c>
-      <c r="F636">
+      <c r="F636" s="47">
         <v>122528.296875</v>
       </c>
       <c r="G636">
@@ -15576,7 +15569,7 @@
       <c r="E637" s="43">
         <v>287.43442599333662</v>
       </c>
-      <c r="F637">
+      <c r="F637" s="47">
         <v>117586.796875</v>
       </c>
       <c r="G637">
@@ -15599,7 +15592,7 @@
       <c r="E638" s="43">
         <v>278.79509867631822</v>
       </c>
-      <c r="F638">
+      <c r="F638" s="47">
         <v>118691.203125</v>
       </c>
       <c r="G638">
@@ -15622,7 +15615,7 @@
       <c r="E639" s="43">
         <v>286.33314466769559</v>
       </c>
-      <c r="F639">
+      <c r="F639" s="47">
         <v>120389.898438</v>
       </c>
       <c r="G639">
@@ -15645,7 +15638,7 @@
       <c r="E640" s="43">
         <v>286.38194370681344</v>
       </c>
-      <c r="F640">
+      <c r="F640" s="47">
         <v>120437.203125</v>
       </c>
       <c r="G640">
@@ -15668,7 +15661,7 @@
       <c r="E641" s="43">
         <v>290.20566664142001</v>
       </c>
-      <c r="F641">
+      <c r="F641" s="47">
         <v>121003.898438</v>
       </c>
       <c r="G641">
@@ -15691,7 +15684,7 @@
       <c r="E642" s="43">
         <v>282.42706370307019</v>
       </c>
-      <c r="F642">
+      <c r="F642" s="47">
         <v>123953.398438</v>
       </c>
       <c r="G642">
@@ -15714,7 +15707,7 @@
       <c r="E643" s="43">
         <v>280.89290611593981</v>
       </c>
-      <c r="F643">
+      <c r="F643" s="47">
         <v>121920.796875</v>
       </c>
       <c r="G643">
@@ -15737,7 +15730,7 @@
       <c r="E644" s="43">
         <v>284.1716150186619</v>
       </c>
-      <c r="F644">
+      <c r="F644" s="47">
         <v>122129.898438</v>
       </c>
       <c r="G644">
@@ -15760,7 +15753,7 @@
       <c r="E645" s="43">
         <v>284.89530773032402</v>
       </c>
-      <c r="F645">
+      <c r="F645" s="47">
         <v>123333.898438</v>
       </c>
       <c r="G645">
@@ -15783,7 +15776,7 @@
       <c r="E646" s="43">
         <v>281.87314545364688</v>
       </c>
-      <c r="F646">
+      <c r="F646" s="47">
         <v>125979.601563</v>
       </c>
       <c r="G646">
@@ -15806,7 +15799,7 @@
       <c r="E647" s="43">
         <v>282.92256801692332</v>
       </c>
-      <c r="F647">
+      <c r="F647" s="47">
         <v>124787.296875</v>
       </c>
       <c r="G647">
@@ -15829,7 +15822,7 @@
       <c r="E648" s="43">
         <v>274.7515191211283</v>
       </c>
-      <c r="F648">
+      <c r="F648" s="47">
         <v>124787.296875</v>
       </c>
       <c r="G648">
@@ -15852,7 +15845,7 @@
       <c r="E649" s="43">
         <v>280.65811001458326</v>
       </c>
-      <c r="F649">
+      <c r="F649" s="47">
         <v>125962.898438</v>
       </c>
       <c r="G649">
@@ -15875,7 +15868,7 @@
       <c r="E650" s="43">
         <v>283.36318886080693</v>
       </c>
-      <c r="F650">
+      <c r="F650" s="47">
         <v>131490.90625</v>
       </c>
       <c r="G650">
@@ -15898,7 +15891,7 @@
       <c r="E651" s="43">
         <v>291.11583554372407</v>
       </c>
-      <c r="F651">
+      <c r="F651" s="47">
         <v>131009.101563</v>
       </c>
       <c r="G651">
@@ -15921,7 +15914,7 @@
       <c r="E652" s="43">
         <v>299.77436173033647</v>
       </c>
-      <c r="F652">
+      <c r="F652" s="47">
         <v>132252.59375</v>
       </c>
       <c r="G652">
@@ -15944,7 +15937,7 @@
       <c r="E653" s="43">
         <v>295.65674777535321</v>
       </c>
-      <c r="F653">
+      <c r="F653" s="47">
         <v>136997.703125</v>
       </c>
       <c r="G653">
@@ -15967,7 +15960,7 @@
       <c r="E654" s="43">
         <v>296.2813463788176</v>
       </c>
-      <c r="F654">
+      <c r="F654" s="47">
         <v>140246.09375</v>
       </c>
       <c r="G654">
@@ -15990,7 +15983,7 @@
       <c r="E655" s="43">
         <v>295.19441533216889</v>
       </c>
-      <c r="F655">
+      <c r="F655" s="47">
         <v>142777.59375</v>
       </c>
       <c r="G655">
@@ -16013,7 +16006,7 @@
       <c r="E656" s="43">
         <v>292.45625165987269</v>
       </c>
-      <c r="F656">
+      <c r="F656" s="47">
         <v>141460</v>
       </c>
       <c r="G656">
@@ -16036,7 +16029,7 @@
       <c r="E657" s="43">
         <v>290.87837540042375</v>
       </c>
-      <c r="F657">
+      <c r="F657" s="47">
         <v>143805.203125</v>
       </c>
       <c r="G657">
@@ -16059,7 +16052,7 @@
       <c r="E658" s="43">
         <v>290.0299275797322</v>
       </c>
-      <c r="F658">
+      <c r="F658" s="47">
         <v>141133.59375</v>
       </c>
       <c r="G658">
@@ -16082,7 +16075,7 @@
       <c r="E659" s="43">
         <v>292.77900088273645</v>
       </c>
-      <c r="F659">
+      <c r="F659" s="47">
         <v>136241</v>
       </c>
       <c r="G659">
@@ -16105,7 +16098,7 @@
       <c r="E660" s="43">
         <v>293.70625126199582</v>
       </c>
-      <c r="F660">
+      <c r="F660" s="47">
         <v>136302.09375</v>
       </c>
       <c r="G660">
@@ -16128,7 +16121,7 @@
       <c r="E661" s="43">
         <v>287.80801622098079</v>
       </c>
-      <c r="F661">
+      <c r="F661" s="47">
         <v>138268</v>
       </c>
       <c r="G661">
@@ -16151,7 +16144,7 @@
       <c r="E662" s="43">
         <v>279.38272300608912</v>
       </c>
-      <c r="F662">
+      <c r="F662" s="47">
         <v>138268</v>
       </c>
       <c r="G662">
@@ -16174,7 +16167,7 @@
       <c r="E663" s="43">
         <v>283.33488135108649</v>
       </c>
-      <c r="F663">
+      <c r="F663" s="47">
         <v>137309.296875</v>
       </c>
       <c r="G663">
@@ -16197,7 +16190,7 @@
       <c r="E664" s="43">
         <v>281.33817896141574</v>
       </c>
-      <c r="F664">
+      <c r="F664" s="47">
         <v>141001.5</v>
       </c>
       <c r="G664">
@@ -16220,7 +16213,7 @@
       <c r="E665" s="43">
         <v>279.83281491062638</v>
       </c>
-      <c r="F665">
+      <c r="F665" s="47">
         <v>141509.296875</v>
       </c>
       <c r="G665">
@@ -16243,7 +16236,7 @@
       <c r="E666" s="43">
         <v>281.00226349380318</v>
       </c>
-      <c r="F666">
+      <c r="F666" s="47">
         <v>144642.203125</v>
       </c>
       <c r="G666">
@@ -16266,7 +16259,7 @@
       <c r="E667" s="43">
         <v>276.16988493972792</v>
       </c>
-      <c r="F667">
+      <c r="F667" s="47">
         <v>144714.09375</v>
       </c>
       <c r="G667">
@@ -16289,7 +16282,7 @@
       <c r="E668" s="43">
         <v>274.81704846122227</v>
       </c>
-      <c r="F668">
+      <c r="F668" s="47">
         <v>142941.59375</v>
       </c>
       <c r="G668">
@@ -16312,7 +16305,7 @@
       <c r="E669" s="43">
         <v>276.81815489023234</v>
       </c>
-      <c r="F669">
+      <c r="F669" s="47">
         <v>146750</v>
       </c>
       <c r="G669">
@@ -16335,7 +16328,7 @@
       <c r="E670" s="43">
         <v>276.67312314399811</v>
       </c>
-      <c r="F670">
+      <c r="F670" s="47">
         <v>144765.59375</v>
       </c>
       <c r="G670">
@@ -16358,7 +16351,7 @@
       <c r="E671" s="43">
         <v>288.68565399202987</v>
       </c>
-      <c r="F671">
+      <c r="F671" s="47">
         <v>145741.796875</v>
       </c>
       <c r="G671">
@@ -16381,7 +16374,7 @@
       <c r="E672" s="43">
         <v>291.23748863003794</v>
       </c>
-      <c r="F672">
+      <c r="F672" s="47">
         <v>150262.09375</v>
       </c>
       <c r="G672">
@@ -16404,7 +16397,7 @@
       <c r="E673" s="43">
         <v>289.62348776939865</v>
       </c>
-      <c r="F673">
+      <c r="F673" s="47">
         <v>147929.796875</v>
       </c>
       <c r="G673">
@@ -16427,7 +16420,7 @@
       <c r="E674" s="43">
         <v>292.58207537347562</v>
       </c>
-      <c r="F674">
+      <c r="F674" s="47">
         <v>146980.09375</v>
       </c>
       <c r="G674">
@@ -16450,7 +16443,7 @@
       <c r="E675" s="43">
         <v>302.01782366318412</v>
       </c>
-      <c r="F675">
+      <c r="F675" s="47">
         <v>149480.796875</v>
       </c>
       <c r="G675">
@@ -16473,7 +16466,7 @@
       <c r="E676" s="43">
         <v>306.20206953524951</v>
       </c>
-      <c r="F676">
+      <c r="F676" s="47">
         <v>142931.703125</v>
       </c>
       <c r="G676">
@@ -16496,7 +16489,7 @@
       <c r="E677" s="43">
         <v>305.88126061773175</v>
       </c>
-      <c r="F677">
+      <c r="F677" s="47">
         <v>138148.296875</v>
       </c>
       <c r="G677">
@@ -16519,7 +16512,7 @@
       <c r="E678" s="43">
         <v>305.94251798305601</v>
       </c>
-      <c r="F678">
+      <c r="F678" s="47">
         <v>135472.703125</v>
       </c>
       <c r="G678">
@@ -16542,7 +16535,7 @@
       <c r="E679" s="43">
         <v>302.76359209663951</v>
       </c>
-      <c r="F679">
+      <c r="F679" s="47">
         <v>138023.40625</v>
       </c>
       <c r="G679">
@@ -16565,7 +16558,7 @@
       <c r="E680" s="43">
         <v>304.26380057640301</v>
       </c>
-      <c r="F680">
+      <c r="F680" s="47">
         <v>138004.5</v>
       </c>
       <c r="G680">
@@ -16588,7 +16581,7 @@
       <c r="E681" s="43">
         <v>305.13311828671851</v>
       </c>
-      <c r="F681">
+      <c r="F681" s="47">
         <v>139115.09375</v>
       </c>
       <c r="G681">
@@ -16611,7 +16604,7 @@
       <c r="E682" s="43">
         <v>311.51278558351271</v>
       </c>
-      <c r="F682">
+      <c r="F682" s="47">
         <v>145063</v>
       </c>
       <c r="G682">
@@ -16634,7 +16627,7 @@
       <c r="E683" s="43">
         <v>308.994597280824</v>
       </c>
-      <c r="F683">
+      <c r="F683" s="47">
         <v>144926.703125</v>
       </c>
       <c r="G683">
@@ -16657,7 +16650,7 @@
       <c r="E684" s="43">
         <v>307.77055007754598</v>
       </c>
-      <c r="F684">
+      <c r="F684" s="47">
         <v>146722.90625</v>
       </c>
       <c r="G684">
@@ -16680,7 +16673,7 @@
       <c r="E685" s="43">
         <v>309.49648309090406</v>
       </c>
-      <c r="F685">
+      <c r="F685" s="47">
         <v>144645.296875</v>
       </c>
       <c r="G685">
@@ -16703,7 +16696,7 @@
       <c r="E686" s="43">
         <v>308.21913219185092</v>
       </c>
-      <c r="F686">
+      <c r="F686" s="47">
         <v>136982.40625</v>
       </c>
       <c r="G686">
@@ -16726,7 +16719,7 @@
       <c r="E687" s="43">
         <v>311.02112430268801</v>
       </c>
-      <c r="F687">
+      <c r="F687" s="47">
         <v>136982.40625</v>
       </c>
       <c r="G687">
@@ -16749,7 +16742,7 @@
       <c r="E688" s="43">
         <v>314.28643794366309</v>
       </c>
-      <c r="F688">
+      <c r="F688" s="47">
         <v>136396.40625</v>
       </c>
       <c r="G688">
@@ -16772,7 +16765,7 @@
       <c r="E689" s="43">
         <v>307.16298356537521</v>
       </c>
-      <c r="F689">
+      <c r="F689" s="47">
         <v>136396.40625</v>
       </c>
       <c r="G689">
@@ -16795,7 +16788,7 @@
       <c r="E690" s="43">
         <v>308.26690991884266</v>
       </c>
-      <c r="F690">
+      <c r="F690" s="47">
         <v>140763.796875</v>
       </c>
       <c r="G690">
@@ -16818,7 +16811,7 @@
       <c r="E691" s="43">
         <v>312.66332811716609</v>
       </c>
-      <c r="F691">
+      <c r="F691" s="47">
         <v>137290.703125</v>
       </c>
       <c r="G691">
@@ -16841,7 +16834,7 @@
       <c r="E692" s="43">
         <v>312.98824491114135</v>
       </c>
-      <c r="F692">
+      <c r="F692" s="47">
         <v>138953.5</v>
       </c>
       <c r="G692">
@@ -16864,7 +16857,7 @@
       <c r="E693" s="43">
         <v>305.33520346711941</v>
       </c>
-      <c r="F693">
+      <c r="F693" s="47">
         <v>137542.203125</v>
       </c>
       <c r="G693">
@@ -16887,7 +16880,7 @@
       <c r="E694" s="43">
         <v>303.07000667072447</v>
       </c>
-      <c r="F694">
+      <c r="F694" s="47">
         <v>136484.203125</v>
       </c>
       <c r="G694">
@@ -16910,7 +16903,7 @@
       <c r="E695" s="43">
         <v>303.52103038123005</v>
       </c>
-      <c r="F695">
+      <c r="F695" s="47">
         <v>136138.796875</v>
       </c>
       <c r="G695">
@@ -16933,7 +16926,7 @@
       <c r="E696" s="43">
         <v>302.87414772381737</v>
       </c>
-      <c r="F696">
+      <c r="F696" s="47">
         <v>138944.796875</v>
       </c>
       <c r="G696">
@@ -16956,7 +16949,7 @@
       <c r="E697" s="43">
         <v>302.36502195347384</v>
       </c>
-      <c r="F697">
+      <c r="F697" s="47">
         <v>139733.40625</v>
       </c>
       <c r="G697">
@@ -16979,7 +16972,7 @@
       <c r="E698" s="43">
         <v>304.53142395872351</v>
       </c>
-      <c r="F698">
+      <c r="F698" s="47">
         <v>143959.40625</v>
       </c>
       <c r="G698">
@@ -17002,7 +16995,7 @@
       <c r="E699" s="43">
         <v>305.80621762630028</v>
       </c>
-      <c r="F699">
+      <c r="F699" s="47">
         <v>145028.5</v>
       </c>
       <c r="G699">
@@ -17025,7 +17018,7 @@
       <c r="E700" s="43">
         <v>305.08903116026841</v>
       </c>
-      <c r="F700">
+      <c r="F700" s="47">
         <v>148109.59375</v>
       </c>
       <c r="G700">
@@ -17048,7 +17041,7 @@
       <c r="E701" s="43">
         <v>303.87670189551829</v>
       </c>
-      <c r="F701">
+      <c r="F701" s="47">
         <v>147845.40625</v>
       </c>
       <c r="G701">
@@ -17071,7 +17064,7 @@
       <c r="E702" s="43">
         <v>307.39448919970391</v>
       </c>
-      <c r="F702">
+      <c r="F702" s="47">
         <v>149938.296875</v>
       </c>
       <c r="G702">
@@ -17094,7 +17087,7 @@
       <c r="E703" s="43">
         <v>305.61011099221429</v>
       </c>
-      <c r="F703">
+      <c r="F703" s="47">
         <v>153002.09375</v>
       </c>
       <c r="G703">
@@ -17117,7 +17110,7 @@
       <c r="E704" s="43">
         <v>301.07935699735219</v>
       </c>
-      <c r="F704">
+      <c r="F704" s="47">
         <v>149309.40625</v>
       </c>
       <c r="G704">
@@ -17140,7 +17133,7 @@
       <c r="E705" s="43">
         <v>302.68156824948841</v>
       </c>
-      <c r="F705">
+      <c r="F705" s="47">
         <v>150451</v>
       </c>
       <c r="G705">
@@ -17163,7 +17156,7 @@
       <c r="E706" s="43">
         <v>304.81620182124533</v>
       </c>
-      <c r="F706">
+      <c r="F706" s="47">
         <v>151263.296875</v>
       </c>
       <c r="G706">
@@ -17186,7 +17179,7 @@
       <c r="E707" s="43">
         <v>301.65824023622247</v>
       </c>
-      <c r="F707">
+      <c r="F707" s="47">
         <v>147829.59375</v>
       </c>
       <c r="G707">
@@ -17209,7 +17202,7 @@
       <c r="E708" s="43">
         <v>303.42816122514307</v>
       </c>
-      <c r="F708">
+      <c r="F708" s="47">
         <v>147924</v>
       </c>
       <c r="G708">
@@ -17232,7 +17225,7 @@
       <c r="E709" s="43">
         <v>301.85723577085577</v>
       </c>
-      <c r="F709">
+      <c r="F709" s="47">
         <v>143091.5</v>
       </c>
       <c r="G709">
@@ -17255,7 +17248,7 @@
       <c r="E710" s="43">
         <v>304.22846429983213</v>
       </c>
-      <c r="F710">
+      <c r="F710" s="47">
         <v>144879.09375</v>
       </c>
       <c r="G710">
@@ -17278,7 +17271,7 @@
       <c r="E711" s="43">
         <v>309.86370894635888</v>
       </c>
-      <c r="F711">
+      <c r="F711" s="47">
         <v>150413.40625</v>
       </c>
       <c r="G711">
@@ -17301,7 +17294,7 @@
       <c r="E712" s="43">
         <v>309.26086126358655</v>
       </c>
-      <c r="F712">
+      <c r="F712" s="47">
         <v>152685.40625</v>
       </c>
       <c r="G712">
@@ -17324,7 +17317,7 @@
       <c r="E713" s="43">
         <v>306.85470358528653</v>
       </c>
-      <c r="F713">
+      <c r="F713" s="47">
         <v>155159</v>
       </c>
       <c r="G713">
@@ -17347,7 +17340,7 @@
       <c r="E714" s="43">
         <v>316.89693191207249</v>
       </c>
-      <c r="F714">
+      <c r="F714" s="47">
         <v>154108.796875</v>
       </c>
       <c r="G714">
@@ -17370,7 +17363,7 @@
       <c r="E715" s="43">
         <v>320.81299787302135</v>
       </c>
-      <c r="F715">
+      <c r="F715" s="47">
         <v>155259.296875</v>
       </c>
       <c r="G715">
@@ -17393,7 +17386,7 @@
       <c r="E716" s="43">
         <v>331.74543544767721</v>
       </c>
-      <c r="F716">
+      <c r="F716" s="47">
         <v>157253.59375</v>
       </c>
       <c r="G716">
@@ -17416,7 +17409,7 @@
       <c r="E717" s="43">
         <v>330.2836236662074</v>
       </c>
-      <c r="F717">
+      <c r="F717" s="47">
         <v>158169.296875</v>
       </c>
       <c r="G717">
@@ -17439,7 +17432,7 @@
       <c r="E718" s="43">
         <v>330.73730996245132</v>
       </c>
-      <c r="F718">
+      <c r="F718" s="47">
         <v>158169.296875</v>
       </c>
       <c r="G718">
@@ -17462,7 +17455,7 @@
       <c r="E719" s="43">
         <v>327.87183017698374</v>
       </c>
-      <c r="F719">
+      <c r="F719" s="47">
         <v>158563.5</v>
       </c>
       <c r="G719">
@@ -17485,7 +17478,7 @@
       <c r="E720" s="43">
         <v>322.55815670318634</v>
       </c>
-      <c r="F720">
+      <c r="F720" s="47">
         <v>160936.40625</v>
       </c>
       <c r="G720">
@@ -17508,7 +17501,7 @@
       <c r="E721" s="43">
         <v>325.84956646546976</v>
       </c>
-      <c r="F721">
+      <c r="F721" s="47">
         <v>163716.90625</v>
       </c>
       <c r="G721">
@@ -17531,7 +17524,7 @@
       <c r="E722" s="43">
         <v>324.32116318127004</v>
       </c>
-      <c r="F722">
+      <c r="F722" s="47">
         <v>164277.796875</v>
       </c>
       <c r="G722">
@@ -17554,7 +17547,7 @@
       <c r="E723" s="43">
         <v>320.18968339552913</v>
       </c>
-      <c r="F723">
+      <c r="F723" s="47">
         <v>168194.59375</v>
       </c>
       <c r="G723">
@@ -17577,7 +17570,7 @@
       <c r="E724" s="43">
         <v>319.61583585509538</v>
       </c>
-      <c r="F724">
+      <c r="F724" s="47">
         <v>168525.296875</v>
       </c>
       <c r="G724">
@@ -17600,7 +17593,7 @@
       <c r="E725" s="43">
         <v>319.80523783189489</v>
       </c>
-      <c r="F725">
+      <c r="F725" s="47">
         <v>170604.296875</v>
       </c>
       <c r="G725">
@@ -17623,7 +17616,7 @@
       <c r="E726" s="43">
         <v>321.25033750317976</v>
       </c>
-      <c r="F726">
+      <c r="F726" s="47">
         <v>169691.703125</v>
       </c>
       <c r="G726">
@@ -17646,7 +17639,7 @@
       <c r="E727" s="43">
         <v>322.68436745222584</v>
       </c>
-      <c r="F727">
+      <c r="F727" s="47">
         <v>164467.296875</v>
       </c>
       <c r="G727">
@@ -17669,7 +17662,7 @@
       <c r="E728" s="43">
         <v>329.64037442099891</v>
       </c>
-      <c r="F728">
+      <c r="F728" s="47">
         <v>168090.09375</v>
       </c>
       <c r="G728">
@@ -17692,7 +17685,7 @@
       <c r="E729" s="43">
         <v>339.17964658946289</v>
       </c>
-      <c r="F729">
+      <c r="F729" s="47">
         <v>171177.90625</v>
       </c>
       <c r="G729">
@@ -17715,7 +17708,7 @@
       <c r="E730" s="43">
         <v>335.32915779186601</v>
       </c>
-      <c r="F730">
+      <c r="F730" s="47">
         <v>166466.5</v>
       </c>
       <c r="G730">
@@ -17738,7 +17731,7 @@
       <c r="E731" s="43">
         <v>329.65979741604576</v>
       </c>
-      <c r="F731">
+      <c r="F731" s="47">
         <v>165500.40625</v>
       </c>
       <c r="G731">
@@ -17761,7 +17754,7 @@
       <c r="E732" s="43">
         <v>330.04961265503101</v>
       </c>
-      <c r="F732">
+      <c r="F732" s="47">
         <v>164216.703125</v>
       </c>
       <c r="G732">
@@ -17784,7 +17777,7 @@
       <c r="E733" s="43">
         <v>327.44506340107677</v>
       </c>
-      <c r="F733">
+      <c r="F733" s="47">
         <v>164733.203125</v>
       </c>
       <c r="G733">
@@ -17807,7 +17800,7 @@
       <c r="E734" s="43">
         <v>331.43426276951857</v>
       </c>
-      <c r="F734">
+      <c r="F734" s="47">
         <v>165109.59375</v>
       </c>
       <c r="G734">
@@ -17830,7 +17823,7 @@
       <c r="E735" s="43">
         <v>332.31821521389236</v>
       </c>
-      <c r="F735">
+      <c r="F735" s="47">
         <v>168965.796875</v>
       </c>
       <c r="G735">
@@ -17853,7 +17846,7 @@
       <c r="E736" s="43">
         <v>329.35830851053959</v>
       </c>
-      <c r="F736">
+      <c r="F736" s="47">
         <v>172335.90625</v>
       </c>
       <c r="G736">
@@ -17876,7 +17869,7 @@
       <c r="E737" s="43">
         <v>312.74921792506137</v>
       </c>
-      <c r="F737">
+      <c r="F737" s="47">
         <v>179851.90625</v>
       </c>
       <c r="G737">
@@ -17899,7 +17892,7 @@
       <c r="E738" s="43">
         <v>328.55672328946929</v>
       </c>
-      <c r="F738">
+      <c r="F738" s="47">
         <v>182459.796875</v>
       </c>
       <c r="G738">
@@ -17922,7 +17915,7 @@
       <c r="E739" s="43">
         <v>328.86295323553628</v>
       </c>
-      <c r="F739">
+      <c r="F739" s="47">
         <v>187784</v>
       </c>
       <c r="G739">
@@ -17945,7 +17938,7 @@
       <c r="E740" s="43">
         <v>328.56086525714665</v>
       </c>
-      <c r="F740">
+      <c r="F740" s="47">
         <v>192477.40625</v>
       </c>
       <c r="G740">
@@ -17968,7 +17961,7 @@
       <c r="E741" s="43">
         <v>333.74894989492822</v>
       </c>
-      <c r="F741">
+      <c r="F741" s="47">
         <v>195542.796875</v>
       </c>
       <c r="G741">
@@ -17991,7 +17984,7 @@
       <c r="E742" s="43">
         <v>334.13111913955203</v>
       </c>
-      <c r="F742">
+      <c r="F742" s="47">
         <v>202560.203125</v>
       </c>
       <c r="G742">
@@ -18014,7 +18007,7 @@
       <c r="E743" s="43">
         <v>343.47251942857707</v>
       </c>
-      <c r="F743">
+      <c r="F743" s="47">
         <v>199360.703125</v>
       </c>
       <c r="G743">
@@ -18037,7 +18030,7 @@
       <c r="E744" s="43">
         <v>337.57630117604594</v>
       </c>
-      <c r="F744">
+      <c r="F744" s="47">
         <v>202085.09375</v>
       </c>
       <c r="G744">
@@ -18060,7 +18053,7 @@
       <c r="E745" s="43">
         <v>337.49391795210164</v>
       </c>
-      <c r="F745">
+      <c r="F745" s="47">
         <v>207054.296875</v>
       </c>
       <c r="G745">
@@ -18083,7 +18076,7 @@
       <c r="E746" s="43">
         <v>342.0849779000531</v>
       </c>
-      <c r="F746">
+      <c r="F746" s="47">
         <v>198360.5</v>
       </c>
       <c r="G746">
@@ -18106,7 +18099,7 @@
       <c r="E747" s="43">
         <v>341.82810288795883</v>
       </c>
-      <c r="F747">
+      <c r="F747" s="47">
         <v>201060.59375</v>
       </c>
       <c r="G747">
@@ -18129,7 +18122,7 @@
       <c r="E748" s="43">
         <v>337.20316629580407</v>
       </c>
-      <c r="F748">
+      <c r="F748" s="47">
         <v>209646</v>
       </c>
       <c r="G748">
@@ -18152,7 +18145,7 @@
       <c r="E749" s="43">
         <v>336.5836765526937</v>
       </c>
-      <c r="F749">
+      <c r="F749" s="47">
         <v>213794.296875</v>
       </c>
       <c r="G749">
@@ -18175,7 +18168,7 @@
       <c r="E750" s="43">
         <v>335.50211485695536</v>
       </c>
-      <c r="F750">
+      <c r="F750" s="47">
         <v>215724.703125</v>
       </c>
       <c r="G750">
@@ -18198,7 +18191,7 @@
       <c r="E751" s="43">
         <v>329.15483479516291</v>
       </c>
-      <c r="F751">
+      <c r="F751" s="47">
         <v>215811</v>
       </c>
       <c r="G751">
@@ -18221,7 +18214,7 @@
       <c r="E752" s="43">
         <v>325.15285630922261</v>
       </c>
-      <c r="F752">
+      <c r="F752" s="47">
         <v>224627.5</v>
       </c>
       <c r="G752">
@@ -18244,7 +18237,7 @@
       <c r="E753" s="43">
         <v>329.45423130374542</v>
       </c>
-      <c r="F753">
+      <c r="F753" s="47">
         <v>234153.703125</v>
       </c>
       <c r="G753">
@@ -18267,7 +18260,7 @@
       <c r="E754" s="43">
         <v>340.48852761205978</v>
       </c>
-      <c r="F754">
+      <c r="F754" s="47">
         <v>242154.5</v>
       </c>
       <c r="G754">
@@ -18290,7 +18283,7 @@
       <c r="E755" s="43">
         <v>344.62453507202144</v>
       </c>
-      <c r="F755">
+      <c r="F755" s="47">
         <v>250556</v>
       </c>
       <c r="G755">
@@ -18313,7 +18306,7 @@
       <c r="E756" s="43">
         <v>352.46556160447022</v>
       </c>
-      <c r="F756">
+      <c r="F756" s="47">
         <v>260750</v>
       </c>
       <c r="G756">
@@ -18336,7 +18329,7 @@
       <c r="E757" s="43">
         <v>359.45304220850397</v>
       </c>
-      <c r="F757">
+      <c r="F757" s="47">
         <v>235372.40625</v>
       </c>
       <c r="G757">
@@ -18359,7 +18352,7 @@
       <c r="E758" s="43">
         <v>349.96296525645789</v>
       </c>
-      <c r="F758">
+      <c r="F758" s="47">
         <v>235179.703125</v>
       </c>
       <c r="G758">
@@ -18382,7 +18375,7 @@
       <c r="E759" s="43">
         <v>355.33498032377975</v>
       </c>
-      <c r="F759">
+      <c r="F759" s="47">
         <v>247680</v>
       </c>
       <c r="G759">
@@ -18405,7 +18398,7 @@
       <c r="E760" s="43">
         <v>359.3895825061573</v>
       </c>
-      <c r="F760">
+      <c r="F760" s="47">
         <v>250362.296875</v>
       </c>
       <c r="G760">
@@ -18428,7 +18421,7 @@
       <c r="E761" s="43">
         <v>357.05377914045192</v>
       </c>
-      <c r="F761">
+      <c r="F761" s="47">
         <v>252107.90625</v>
       </c>
       <c r="G761">
@@ -18451,7 +18444,7 @@
       <c r="E762" s="43">
         <v>351.18305843797134</v>
       </c>
-      <c r="F762">
+      <c r="F762" s="47">
         <v>260073.59375</v>
       </c>
       <c r="G762">
@@ -18474,7 +18467,7 @@
       <c r="E763" s="43">
         <v>360.19426772783527</v>
       </c>
-      <c r="F763">
+      <c r="F763" s="47">
         <v>261498.796875</v>
       </c>
       <c r="G763">
@@ -18497,7 +18490,7 @@
       <c r="E764" s="43">
         <v>363.25996661557969</v>
       </c>
-      <c r="F764">
+      <c r="F764" s="47">
         <v>254295.40625</v>
       </c>
       <c r="G764">
@@ -18520,7 +18513,7 @@
       <c r="E765" s="43">
         <v>366.22283389179773</v>
       </c>
-      <c r="F765">
+      <c r="F765" s="47">
         <v>245875.09375</v>
       </c>
       <c r="G765">
@@ -18543,7 +18536,7 @@
       <c r="E766" s="43">
         <v>365.71518405077052</v>
       </c>
-      <c r="F766">
+      <c r="F766" s="47">
         <v>253548.5</v>
       </c>
       <c r="G766">
@@ -18566,7 +18559,7 @@
       <c r="E767" s="43">
         <v>363.85021855996922</v>
       </c>
-      <c r="F767">
+      <c r="F767" s="47">
         <v>251062.09375</v>
       </c>
       <c r="G767">
@@ -18589,7 +18582,7 @@
       <c r="E768" s="43">
         <v>363.08153384866796</v>
       </c>
-      <c r="F768">
+      <c r="F768" s="47">
         <v>248854.59375</v>
       </c>
       <c r="G768">
@@ -18612,7 +18605,7 @@
       <c r="E769" s="43">
         <v>362.37313483348163</v>
       </c>
-      <c r="F769">
+      <c r="F769" s="47">
         <v>239370</v>
       </c>
       <c r="G769">
@@ -18635,7 +18628,7 @@
       <c r="E770" s="43">
         <v>362.09404755897901</v>
       </c>
-      <c r="F770">
+      <c r="F770" s="47">
         <v>243607.59375</v>
       </c>
       <c r="G770">
@@ -18658,7 +18651,7 @@
       <c r="E771" s="43">
         <v>362.62030619994101</v>
       </c>
-      <c r="F771">
+      <c r="F771" s="47">
         <v>246804.203125</v>
       </c>
       <c r="G771">
@@ -18681,7 +18674,7 @@
       <c r="E772" s="43">
         <v>365.19</v>
       </c>
-      <c r="F772">
+      <c r="F772" s="47">
         <v>250125.40625</v>
       </c>
       <c r="G772">
@@ -18704,7 +18697,7 @@
       <c r="E773" s="43">
         <v>366.59</v>
       </c>
-      <c r="F773">
+      <c r="F773" s="47">
         <v>248238.59375</v>
       </c>
       <c r="G773">
@@ -18727,7 +18720,7 @@
       <c r="E774" s="43">
         <v>367.28</v>
       </c>
-      <c r="F774">
+      <c r="F774" s="47">
         <v>249897.5</v>
       </c>
       <c r="G774">
@@ -18750,7 +18743,7 @@
       <c r="E775" s="43">
         <v>369.4</v>
       </c>
-      <c r="F775">
+      <c r="F775" s="47">
         <v>257625.796875</v>
       </c>
       <c r="G775">
@@ -18773,7 +18766,7 @@
       <c r="E776" s="43">
         <v>369.78</v>
       </c>
-      <c r="F776">
+      <c r="F776" s="47">
         <v>258463.5</v>
       </c>
       <c r="G776">
@@ -18796,7 +18789,7 @@
       <c r="E777" s="43">
         <v>370.79</v>
       </c>
-      <c r="F777">
+      <c r="F777" s="47">
         <v>254969.796875</v>
       </c>
       <c r="G777">
@@ -18819,7 +18812,7 @@
       <c r="E778" s="43">
         <v>369.16</v>
       </c>
-      <c r="F778">
+      <c r="F778" s="47">
         <v>257247.203125</v>
       </c>
       <c r="G778">
@@ -18842,7 +18835,7 @@
       <c r="E779" s="43">
         <v>367.95</v>
       </c>
-      <c r="F779">
+      <c r="F779" s="47">
         <v>248979.40625</v>
       </c>
       <c r="G779">
@@ -18865,7 +18858,7 @@
       <c r="E780" s="43">
         <v>366.5</v>
       </c>
-      <c r="F780">
+      <c r="F780" s="47">
         <v>244719.09375</v>
       </c>
       <c r="G780">
@@ -18888,7 +18881,7 @@
       <c r="E781" s="43">
         <v>367.27</v>
       </c>
-      <c r="F781">
+      <c r="F781" s="47">
         <v>248006.296875</v>
       </c>
       <c r="G781">
@@ -18911,7 +18904,7 @@
       <c r="E782" s="43">
         <v>366.97</v>
       </c>
-      <c r="F782">
+      <c r="F782" s="47">
         <v>248324.703125</v>
       </c>
       <c r="G782">
@@ -18934,7 +18927,7 @@
       <c r="E783" s="43">
         <v>366.16</v>
       </c>
-      <c r="F783">
+      <c r="F783" s="47">
         <v>250465.59375</v>
       </c>
       <c r="G783">
@@ -18957,7 +18950,7 @@
       <c r="E784" s="43">
         <v>366.81</v>
       </c>
-      <c r="F784">
+      <c r="F784" s="47">
         <v>247459.296875</v>
       </c>
       <c r="G784">
@@ -18980,7 +18973,7 @@
       <c r="E785" s="43">
         <v>366.86</v>
       </c>
-      <c r="F785">
+      <c r="F785" s="47">
         <v>249580.5</v>
       </c>
       <c r="G785">
@@ -19003,7 +18996,7 @@
       <c r="E786" s="43">
         <v>366.26</v>
       </c>
-      <c r="F786">
+      <c r="F786" s="47">
         <v>242748.90625</v>
       </c>
       <c r="G786">
@@ -19026,7 +19019,7 @@
       <c r="E787" s="43">
         <v>370.37</v>
       </c>
-      <c r="F787">
+      <c r="F787" s="47">
         <v>245865.203125</v>
       </c>
       <c r="G787">
@@ -19049,7 +19042,7 @@
       <c r="E788" s="43">
         <v>371.89</v>
       </c>
-      <c r="F788">
+      <c r="F788" s="47">
         <v>253018.59375</v>
       </c>
       <c r="G788">
@@ -19072,7 +19065,7 @@
       <c r="E789" s="43">
         <v>366.81</v>
       </c>
-      <c r="F789">
+      <c r="F789" s="47">
         <v>246501</v>
       </c>
       <c r="G789">
@@ -19095,7 +19088,7 @@
       <c r="E790" s="43">
         <v>368.7</v>
       </c>
-      <c r="F790">
+      <c r="F790" s="47">
         <v>250911.796875</v>
       </c>
       <c r="G790">
@@ -19118,7 +19111,7 @@
       <c r="E791" s="43">
         <v>374.2</v>
       </c>
-      <c r="F791">
+      <c r="F791" s="47">
         <v>247553.796875</v>
       </c>
       <c r="G791">
@@ -19141,7 +19134,7 @@
       <c r="E792" s="43">
         <v>380.22</v>
       </c>
-      <c r="F792">
+      <c r="F792" s="47">
         <v>236419.40625</v>
       </c>
       <c r="G792">
@@ -19164,7 +19157,7 @@
       <c r="E793" s="43">
         <v>381.3</v>
       </c>
-      <c r="F793">
+      <c r="F793" s="47">
         <v>225227.5</v>
       </c>
       <c r="G793">
@@ -19187,7 +19180,7 @@
       <c r="E794" s="43">
         <v>377.38</v>
       </c>
-      <c r="F794">
+      <c r="F794" s="47">
         <v>220447</v>
       </c>
       <c r="G794">
@@ -19210,7 +19203,7 @@
       <c r="E795" s="43">
         <v>380.73</v>
       </c>
-      <c r="F795">
+      <c r="F795" s="47">
         <v>209824.203125</v>
       </c>
       <c r="G795">
@@ -19233,7 +19226,7 @@
       <c r="E796" s="43">
         <v>384.72</v>
       </c>
-      <c r="F796">
+      <c r="F796" s="47">
         <v>223388.203125</v>
       </c>
       <c r="G796">
@@ -19256,7 +19249,7 @@
       <c r="E797" s="43">
         <v>388.89</v>
       </c>
-      <c r="F797">
+      <c r="F797" s="47">
         <v>221740.296875</v>
       </c>
       <c r="G797">
@@ -19279,7 +19272,7 @@
       <c r="E798" s="43">
         <v>394.35</v>
       </c>
-      <c r="F798">
+      <c r="F798" s="47">
         <v>221059.09375</v>
       </c>
       <c r="G798">
@@ -19302,7 +19295,7 @@
       <c r="E799" s="43">
         <v>395.85</v>
       </c>
-      <c r="F799">
+      <c r="F799" s="47">
         <v>228790.203125</v>
       </c>
       <c r="G799">
@@ -19325,7 +19318,7 @@
       <c r="E800" s="43">
         <v>397.52</v>
       </c>
-      <c r="F800">
+      <c r="F800" s="47">
         <v>224914.59375</v>
       </c>
       <c r="G800">
@@ -19348,7 +19341,7 @@
       <c r="E801" s="43">
         <v>393.94</v>
       </c>
-      <c r="F801">
+      <c r="F801" s="47">
         <v>219276.703125</v>
       </c>
       <c r="G801">
@@ -19371,7 +19364,7 @@
       <c r="E802" s="43">
         <v>388.74</v>
       </c>
-      <c r="F802">
+      <c r="F802" s="47">
         <v>233739.40625</v>
       </c>
       <c r="G802">
@@ -19394,7 +19387,7 @@
       <c r="E803" s="43">
         <v>388.03</v>
       </c>
-      <c r="F803">
+      <c r="F803" s="47">
         <v>242386</v>
       </c>
       <c r="G803">
@@ -19417,7 +19410,7 @@
       <c r="E804" s="43">
         <v>391.37</v>
       </c>
-      <c r="F804">
+      <c r="F804" s="47">
         <v>249104.09375</v>
       </c>
       <c r="G804">
@@ -19440,7 +19433,7 @@
       <c r="E805" s="43">
         <v>392.33</v>
       </c>
-      <c r="F805">
+      <c r="F805" s="47">
         <v>251639.09375</v>
       </c>
       <c r="G805">
@@ -19463,7 +19456,7 @@
       <c r="E806" s="43">
         <v>394.55</v>
       </c>
-      <c r="F806">
+      <c r="F806" s="47">
         <v>245716.203125</v>
       </c>
       <c r="G806">
@@ -19486,7 +19479,7 @@
       <c r="E807" s="43">
         <v>397.81</v>
       </c>
-      <c r="F807">
+      <c r="F807" s="47">
         <v>254696.90625</v>
       </c>
       <c r="G807">
@@ -19509,7 +19502,7 @@
       <c r="E808" s="43">
         <v>398.14</v>
       </c>
-      <c r="F808">
+      <c r="F808" s="47">
         <v>251488.296875</v>
       </c>
       <c r="G808">
@@ -19532,7 +19525,7 @@
       <c r="E809" s="43">
         <v>398.29</v>
       </c>
-      <c r="F809">
+      <c r="F809" s="47">
         <v>252848.703125</v>
       </c>
       <c r="G809">
@@ -19555,7 +19548,7 @@
       <c r="E810" s="43">
         <v>399.76</v>
       </c>
-      <c r="F810">
+      <c r="F810" s="47">
         <v>252848.703125</v>
       </c>
       <c r="G810">
@@ -19578,7 +19571,7 @@
       <c r="E811" s="43">
         <v>399.18</v>
       </c>
-      <c r="F811">
+      <c r="F811" s="47">
         <v>252848.703125</v>
       </c>
       <c r="G811">
@@ -19601,7 +19594,7 @@
       <c r="E812" s="43">
         <v>398.79</v>
       </c>
-      <c r="F812">
+      <c r="F812" s="47">
         <v>259963.40625</v>
       </c>
       <c r="G812">
@@ -19624,7 +19617,7 @@
       <c r="E813" s="43">
         <v>394.46</v>
       </c>
-      <c r="F813">
+      <c r="F813" s="47">
         <v>259963.40625</v>
       </c>
       <c r="G813">
@@ -19647,7 +19640,7 @@
       <c r="E814" s="43">
         <v>393.87</v>
       </c>
-      <c r="F814">
+      <c r="F814" s="47">
         <v>266850</v>
       </c>
       <c r="G814">
@@ -19670,7 +19663,7 @@
       <c r="E815" s="43">
         <v>398.05</v>
       </c>
-      <c r="F815">
+      <c r="F815" s="47">
         <v>270329</v>
       </c>
       <c r="G815">
@@ -19693,7 +19686,7 @@
       <c r="E816" s="43">
         <v>397.42</v>
       </c>
-      <c r="F816">
+      <c r="F816" s="47">
         <v>275717.40625</v>
       </c>
       <c r="G816">
@@ -19716,7 +19709,7 @@
       <c r="E817" s="43">
         <v>399.3</v>
       </c>
-      <c r="F817">
+      <c r="F817" s="47">
         <v>281295.1875</v>
       </c>
       <c r="G817">
@@ -19739,7 +19732,7 @@
       <c r="E818" s="43">
         <v>408.62</v>
       </c>
-      <c r="F818">
+      <c r="F818" s="47">
         <v>284298.6875</v>
       </c>
       <c r="G818">
@@ -19762,7 +19755,7 @@
       <c r="E819" s="43">
         <v>421.36</v>
       </c>
-      <c r="F819">
+      <c r="F819" s="47">
         <v>275405.90625</v>
       </c>
       <c r="G819">
@@ -19785,7 +19778,7 @@
       <c r="E820" s="43">
         <v>429.76</v>
       </c>
-      <c r="F820">
+      <c r="F820" s="47">
         <v>281827.5</v>
       </c>
       <c r="G820">
@@ -19808,7 +19801,7 @@
       <c r="E821" s="43">
         <v>434.37</v>
       </c>
-      <c r="F821">
+      <c r="F821" s="47">
         <v>290890.5</v>
       </c>
       <c r="G821">
@@ -19831,7 +19824,7 @@
       <c r="E822" s="43">
         <v>453.08</v>
       </c>
-      <c r="F822">
+      <c r="F822" s="47">
         <v>299421.6875</v>
       </c>
       <c r="G822">
@@ -19854,7 +19847,7 @@
       <c r="E823" s="43">
         <v>462.02</v>
       </c>
-      <c r="F823">
+      <c r="F823" s="47">
         <v>303058.40625</v>
       </c>
       <c r="G823">
@@ -19877,7 +19870,7 @@
       <c r="E824" s="43">
         <v>480.14</v>
       </c>
-      <c r="F824">
+      <c r="F824" s="47">
         <v>304797</v>
       </c>
       <c r="G824">
@@ -19900,7 +19893,7 @@
       <c r="E825" s="43">
         <v>462.76</v>
       </c>
-      <c r="F825">
+      <c r="F825" s="47">
         <v>296808.90625</v>
       </c>
       <c r="G825">
@@ -19923,7 +19916,7 @@
       <c r="E826" s="43">
         <v>455.13</v>
       </c>
-      <c r="F826">
+      <c r="F826" s="47">
         <v>297960</v>
       </c>
       <c r="G826">
@@ -19946,7 +19939,7 @@
       <c r="E827" s="43">
         <v>452.12</v>
       </c>
-      <c r="F827">
+      <c r="F827" s="47">
         <v>295631</v>
       </c>
       <c r="G827">
@@ -19969,7 +19962,7 @@
       <c r="E828" s="43">
         <v>454.68</v>
       </c>
-      <c r="F828">
+      <c r="F828" s="47">
         <v>288007.90625</v>
       </c>
       <c r="G828">
@@ -19992,7 +19985,7 @@
       <c r="E829" s="43">
         <v>452.42</v>
       </c>
-      <c r="F829">
+      <c r="F829" s="47">
         <v>281752.5</v>
       </c>
       <c r="G829">
@@ -20015,7 +20008,7 @@
       <c r="E830" s="43">
         <v>451.43</v>
       </c>
-      <c r="F830">
+      <c r="F830" s="47">
         <v>297140.09375</v>
       </c>
       <c r="G830">
@@ -20038,7 +20031,7 @@
       <c r="E831" s="43">
         <v>447.5</v>
       </c>
-      <c r="F831">
+      <c r="F831" s="47">
         <v>304395.90625</v>
       </c>
       <c r="G831">
@@ -20061,7 +20054,7 @@
       <c r="E832" s="43">
         <v>454.22</v>
       </c>
-      <c r="F832">
+      <c r="F832" s="47">
         <v>307773.3125</v>
       </c>
       <c r="G832">
@@ -20084,7 +20077,7 @@
       <c r="E833" s="43">
         <v>450.76</v>
       </c>
-      <c r="F833">
+      <c r="F833" s="47">
         <v>310497.1875</v>
       </c>
       <c r="G833">
@@ -20107,7 +20100,7 @@
       <c r="E834" s="43">
         <v>452.45</v>
       </c>
-      <c r="F834">
+      <c r="F834" s="47">
         <v>313281.40625</v>
       </c>
       <c r="G834">
@@ -20130,7 +20123,7 @@
       <c r="E835" s="43">
         <v>454.32</v>
       </c>
-      <c r="F835">
+      <c r="F835" s="47">
         <v>321529.59375</v>
       </c>
       <c r="G835">
@@ -20153,7 +20146,7 @@
       <c r="E836" s="43">
         <v>463.4</v>
       </c>
-      <c r="F836">
+      <c r="F836" s="47">
         <v>320582.8125</v>
       </c>
       <c r="G836">
@@ -20176,7 +20169,7 @@
       <c r="E837" s="43">
         <v>470.04</v>
       </c>
-      <c r="F837">
+      <c r="F837" s="47">
         <v>318792</v>
       </c>
       <c r="G837">
@@ -20199,7 +20192,7 @@
       <c r="E838" s="43">
         <v>480.57</v>
       </c>
-      <c r="F838">
+      <c r="F838" s="47">
         <v>327788.59375</v>
       </c>
       <c r="G838">
@@ -20222,7 +20215,7 @@
       <c r="E839" s="43">
         <v>482.71</v>
       </c>
-      <c r="F839">
+      <c r="F839" s="47">
         <v>331210.59375</v>
       </c>
       <c r="G839">
@@ -20245,7 +20238,7 @@
       <c r="E840" s="43">
         <v>485.68</v>
       </c>
-      <c r="F840">
+      <c r="F840" s="47">
         <v>338677.59375</v>
       </c>
       <c r="G840">
@@ -20268,7 +20261,7 @@
       <c r="E841" s="43">
         <v>487.01</v>
       </c>
-      <c r="F841">
+      <c r="F841" s="47">
         <v>338978.90625</v>
       </c>
       <c r="G841">
@@ -20291,7 +20284,7 @@
       <c r="E842" s="43">
         <v>487.48</v>
       </c>
-      <c r="F842">
+      <c r="F842" s="47">
         <v>340785.5</v>
       </c>
       <c r="G842">
@@ -20314,7 +20307,7 @@
       <c r="E843" s="43">
         <v>487.06</v>
       </c>
-      <c r="F843">
+      <c r="F843" s="47">
         <v>341669.3125</v>
       </c>
       <c r="G843">
@@ -20337,7 +20330,7 @@
       <c r="E844" s="43">
         <v>487.43</v>
       </c>
-      <c r="F844">
+      <c r="F844" s="47">
         <v>346369</v>
       </c>
       <c r="G844">
@@ -20360,7 +20353,7 @@
       <c r="E845" s="43">
         <v>484.02</v>
       </c>
-      <c r="F845">
+      <c r="F845" s="47">
         <v>346369</v>
       </c>
       <c r="G845">
@@ -20383,7 +20376,7 @@
       <c r="E846" s="43">
         <v>484.49</v>
       </c>
-      <c r="F846">
+      <c r="F846" s="47">
         <v>343391.90625</v>
       </c>
       <c r="G846">
@@ -20406,7 +20399,7 @@
       <c r="E847" s="43">
         <v>483.23</v>
       </c>
-      <c r="F847">
+      <c r="F847" s="47">
         <v>342078.5</v>
       </c>
       <c r="G847">
@@ -20429,7 +20422,7 @@
       <c r="E848" s="43">
         <v>483.91</v>
       </c>
-      <c r="F848">
+      <c r="F848" s="47">
         <v>353373.59375</v>
       </c>
       <c r="G848">
@@ -20452,7 +20445,7 @@
       <c r="E849" s="43">
         <v>486.97</v>
       </c>
-      <c r="F849">
+      <c r="F849" s="47">
         <v>352936.8125</v>
       </c>
       <c r="G849">
@@ -20475,7 +20468,7 @@
       <c r="E850" s="43">
         <v>488.46</v>
       </c>
-      <c r="F850">
+      <c r="F850" s="47">
         <v>360825.59375</v>
       </c>
       <c r="G850">
@@ -20498,7 +20491,7 @@
       <c r="E851" s="43">
         <v>491.31</v>
       </c>
-      <c r="F851">
+      <c r="F851" s="47">
         <v>380757.5</v>
       </c>
       <c r="G851">
@@ -20521,7 +20514,7 @@
       <c r="E852" s="43">
         <v>488.23</v>
       </c>
-      <c r="F852">
+      <c r="F852" s="47">
         <v>380430.90625</v>
       </c>
       <c r="G852">
@@ -20544,7 +20537,7 @@
       <c r="E853" s="43">
         <v>490.21</v>
       </c>
-      <c r="F853">
+      <c r="F853" s="47">
         <v>380907.5</v>
       </c>
       <c r="G853">
@@ -20567,7 +20560,7 @@
       <c r="E854" s="43">
         <v>494.14</v>
       </c>
-      <c r="F854">
+      <c r="F854" s="47">
         <v>381763.90625</v>
       </c>
       <c r="G854">
@@ -20590,7 +20583,7 @@
       <c r="E855" s="43">
         <v>493.09</v>
       </c>
-      <c r="F855">
+      <c r="F855" s="47">
         <v>381672.5</v>
       </c>
       <c r="G855">
@@ -20613,7 +20606,7 @@
       <c r="E856" s="43">
         <v>493.4</v>
       </c>
-      <c r="F856">
+      <c r="F856" s="47">
         <v>381896.09375</v>
       </c>
       <c r="G856">
@@ -20636,7 +20629,7 @@
       <c r="E857" s="43">
         <v>494.89</v>
       </c>
-      <c r="F857">
+      <c r="F857" s="47">
         <v>378695.40625</v>
       </c>
       <c r="G857">
@@ -20659,7 +20652,7 @@
       <c r="E858" s="43">
         <v>498.04</v>
       </c>
-      <c r="F858">
+      <c r="F858" s="47">
         <v>391831.40625</v>
       </c>
       <c r="G858">
@@ -20682,7 +20675,7 @@
       <c r="E859" s="43">
         <v>498.05</v>
       </c>
-      <c r="F859">
+      <c r="F859" s="47">
         <v>409416.5</v>
       </c>
       <c r="G859">
@@ -20705,7 +20698,7 @@
       <c r="E860" s="43">
         <v>496.48</v>
       </c>
-      <c r="F860">
+      <c r="F860" s="47">
         <v>429908.59375</v>
       </c>
       <c r="G860">
@@ -20728,7 +20721,7 @@
       <c r="E861" s="43">
         <v>497.85</v>
       </c>
-      <c r="F861">
+      <c r="F861" s="47">
         <v>415186.40625</v>
       </c>
       <c r="G861">
@@ -20751,7 +20744,7 @@
       <c r="E862" s="43">
         <v>505.38</v>
       </c>
-      <c r="F862">
+      <c r="F862" s="47">
         <v>420736.6875</v>
       </c>
       <c r="G862">
@@ -20774,7 +20767,7 @@
       <c r="E863" s="43">
         <v>510.63</v>
       </c>
-      <c r="F863">
+      <c r="F863" s="47">
         <v>432406.1875</v>
       </c>
       <c r="G863">
@@ -20797,7 +20790,7 @@
       <c r="E864" s="43">
         <v>507.62</v>
       </c>
-      <c r="F864">
+      <c r="F864" s="47">
         <v>416375.90625</v>
       </c>
       <c r="G864">
@@ -20820,7 +20813,7 @@
       <c r="E865" s="43">
         <v>507.17</v>
       </c>
-      <c r="F865">
+      <c r="F865" s="47">
         <v>409622.6875</v>
       </c>
       <c r="G865">
@@ -20843,7 +20836,7 @@
       <c r="E866" s="43">
         <v>508.21</v>
       </c>
-      <c r="F866">
+      <c r="F866" s="47">
         <v>416466.8125</v>
       </c>
       <c r="G866">
@@ -20866,7 +20859,7 @@
       <c r="E867" s="43">
         <v>505.23</v>
       </c>
-      <c r="F867">
+      <c r="F867" s="47">
         <v>426281</v>
       </c>
       <c r="G867">
@@ -20889,7 +20882,7 @@
       <c r="E868" s="43">
         <v>504.76</v>
       </c>
-      <c r="F868">
+      <c r="F868" s="47">
         <v>436619</v>
       </c>
       <c r="G868">
@@ -20912,7 +20905,7 @@
       <c r="E869" s="43">
         <v>501.89</v>
       </c>
-      <c r="F869">
+      <c r="F869" s="47">
         <v>441468.90625</v>
       </c>
       <c r="G869">
@@ -20935,7 +20928,7 @@
       <c r="E870" s="43">
         <v>499.88</v>
       </c>
-      <c r="F870">
+      <c r="F870" s="47">
         <v>436732.59375</v>
       </c>
       <c r="G870">
@@ -20958,7 +20951,7 @@
       <c r="E871" s="43">
         <v>504.73</v>
       </c>
-      <c r="F871">
+      <c r="F871" s="47">
         <v>417548.6875</v>
       </c>
       <c r="G871">
@@ -20981,7 +20974,7 @@
       <c r="E872" s="43">
         <v>509.01</v>
       </c>
-      <c r="F872">
+      <c r="F872" s="47">
         <v>423580.5</v>
       </c>
       <c r="G872">
@@ -21004,7 +20997,7 @@
       <c r="E873" s="43">
         <v>508.71</v>
       </c>
-      <c r="F873">
+      <c r="F873" s="47">
         <v>420772.59375</v>
       </c>
       <c r="G873">
@@ -21027,7 +21020,7 @@
       <c r="E874" s="43">
         <v>510.19</v>
       </c>
-      <c r="F874">
+      <c r="F874" s="47">
         <v>422765.40625</v>
       </c>
       <c r="G874">
@@ -21050,7 +21043,7 @@
       <c r="E875" s="43">
         <v>514.95000000000005</v>
       </c>
-      <c r="F875">
+      <c r="F875" s="47">
         <v>431551.09375</v>
       </c>
       <c r="G875">
@@ -21073,7 +21066,7 @@
       <c r="E876" s="43">
         <v>516.52</v>
       </c>
-      <c r="F876">
+      <c r="F876" s="47">
         <v>451138.59375</v>
       </c>
       <c r="G876">
@@ -21096,7 +21089,7 @@
       <c r="E877" s="43">
         <v>521.11</v>
       </c>
-      <c r="F877">
+      <c r="F877" s="47">
         <v>443303.59375</v>
       </c>
       <c r="G877">
@@ -21119,7 +21112,7 @@
       <c r="E878" s="43">
         <v>534.82000000000005</v>
       </c>
-      <c r="F878">
+      <c r="F878" s="47">
         <v>456842.8125</v>
       </c>
       <c r="G878">
@@ -21142,7 +21135,7 @@
       <c r="E879" s="43">
         <v>533.13</v>
       </c>
-      <c r="F879">
+      <c r="F879" s="47">
         <v>456880.6875</v>
       </c>
       <c r="G879">
@@ -21165,7 +21158,7 @@
       <c r="E880" s="43">
         <v>530.76</v>
       </c>
-      <c r="F880">
+      <c r="F880" s="47">
         <v>453206.90625</v>
       </c>
       <c r="G880">
@@ -21188,7 +21181,7 @@
       <c r="E881" s="43">
         <v>527.84</v>
       </c>
-      <c r="F881">
+      <c r="F881" s="47">
         <v>459108</v>
       </c>
       <c r="G881">
@@ -21211,7 +21204,7 @@
       <c r="E882" s="43">
         <v>527.24</v>
       </c>
-      <c r="F882">
+      <c r="F882" s="47">
         <v>472973.59375</v>
       </c>
       <c r="G882">
@@ -21234,7 +21227,7 @@
       <c r="E883" s="43">
         <v>528.45000000000005</v>
       </c>
-      <c r="F883">
+      <c r="F883" s="47">
         <v>466662.90625</v>
       </c>
       <c r="G883">
@@ -21257,7 +21250,7 @@
       <c r="E884" s="43">
         <v>538.6</v>
       </c>
-      <c r="F884">
+      <c r="F884" s="47">
         <v>471449.40625</v>
       </c>
       <c r="G884">
@@ -21280,7 +21273,7 @@
       <c r="E885" s="43">
         <v>540.46</v>
       </c>
-      <c r="F885">
+      <c r="F885" s="47">
         <v>471102.8125</v>
       </c>
       <c r="G885">
@@ -21303,7 +21296,7 @@
       <c r="E886" s="43">
         <v>542.77</v>
       </c>
-      <c r="F886">
+      <c r="F886" s="47">
         <v>450210.59375</v>
       </c>
       <c r="G886">
@@ -21326,7 +21319,7 @@
       <c r="E887" s="43">
         <v>546.01</v>
       </c>
-      <c r="F887">
+      <c r="F887" s="47">
         <v>457787.6875</v>
       </c>
       <c r="G887">
@@ -21349,7 +21342,7 @@
       <c r="E888" s="43">
         <v>545.86</v>
       </c>
-      <c r="F888">
+      <c r="F888" s="47">
         <v>457137.8125</v>
       </c>
       <c r="G888">
@@ -21372,7 +21365,7 @@
       <c r="E889" s="43">
         <v>546.15</v>
       </c>
-      <c r="F889">
+      <c r="F889" s="47">
         <v>457137.78</v>
       </c>
       <c r="G889">
@@ -21395,7 +21388,7 @@
       <c r="E890" s="43">
         <v>556.54999999999995</v>
       </c>
-      <c r="F890">
+      <c r="F890" s="47">
         <v>445226.1875</v>
       </c>
       <c r="G890">
@@ -21418,7 +21411,7 @@
       <c r="E891" s="43">
         <v>565.99</v>
       </c>
-      <c r="F891">
+      <c r="F891" s="47">
         <v>441515.6875</v>
       </c>
       <c r="G891">
@@ -21441,7 +21434,7 @@
       <c r="E892" s="43">
         <v>575.46</v>
       </c>
-      <c r="F892">
+      <c r="F892" s="47">
         <v>451570.59375</v>
       </c>
       <c r="G892">
@@ -21464,7 +21457,7 @@
       <c r="E893" s="43">
         <v>579.27</v>
       </c>
-      <c r="F893">
+      <c r="F893" s="47">
         <v>452400.90625</v>
       </c>
       <c r="G893">
@@ -21487,7 +21480,7 @@
       <c r="E894" s="43">
         <v>596.86</v>
       </c>
-      <c r="F894">
+      <c r="F894" s="47">
         <v>466194.1875</v>
       </c>
       <c r="G894">
@@ -21510,7 +21503,7 @@
       <c r="E895" s="43">
         <v>602.35</v>
       </c>
-      <c r="F895">
+      <c r="F895" s="47">
         <v>461280.8125</v>
       </c>
       <c r="G895">
@@ -21533,7 +21526,7 @@
       <c r="E896" s="43">
         <v>596.48</v>
       </c>
-      <c r="F896">
+      <c r="F896" s="47">
         <v>470380.5</v>
       </c>
       <c r="G896">
@@ -21556,7 +21549,7 @@
       <c r="E897" s="43">
         <v>596.73</v>
       </c>
-      <c r="F897">
+      <c r="F897" s="47">
         <v>480252.59375</v>
       </c>
       <c r="G897">
@@ -21579,7 +21572,7 @@
       <c r="E898" s="43">
         <v>600.72</v>
       </c>
-      <c r="F898">
+      <c r="F898" s="47">
         <v>496114.59375</v>
       </c>
       <c r="G898">
@@ -21602,7 +21595,7 @@
       <c r="E899" s="43">
         <v>644.1</v>
       </c>
-      <c r="F899">
+      <c r="F899" s="47">
         <v>527243.1875</v>
       </c>
       <c r="G899">
@@ -21625,7 +21618,7 @@
       <c r="E900" s="43">
         <v>667.12</v>
       </c>
-      <c r="F900">
+      <c r="F900" s="47">
         <v>563124.6875</v>
       </c>
       <c r="G900">
@@ -21648,7 +21641,7 @@
       <c r="E901" s="43">
         <v>715.53</v>
       </c>
-      <c r="F901">
+      <c r="F901" s="47">
         <v>582323</v>
       </c>
       <c r="G901">
@@ -21671,7 +21664,7 @@
       <c r="E902" s="43">
         <v>740.66</v>
       </c>
-      <c r="F902">
+      <c r="F902" s="47">
         <v>584293.1875</v>
       </c>
       <c r="G902">
@@ -21694,7 +21687,7 @@
       <c r="E903" s="43">
         <v>733.9</v>
       </c>
-      <c r="F903">
+      <c r="F903" s="47">
         <v>593946.875</v>
       </c>
       <c r="G903">
@@ -21717,7 +21710,7 @@
       <c r="E904" s="43">
         <v>715.09</v>
       </c>
-      <c r="F904">
+      <c r="F904" s="47">
         <v>593946.875</v>
       </c>
       <c r="G904">
@@ -21740,7 +21733,7 @@
       <c r="E905" s="43">
         <v>743.04</v>
       </c>
-      <c r="F905">
+      <c r="F905" s="47">
         <v>615499.3125</v>
       </c>
       <c r="G905">
@@ -21763,7 +21756,7 @@
       <c r="E906" s="43">
         <v>744.56</v>
       </c>
-      <c r="F906">
+      <c r="F906" s="47">
         <v>613509.125</v>
       </c>
       <c r="G906">
@@ -21786,7 +21779,7 @@
       <c r="E907" s="43">
         <v>748.06</v>
       </c>
-      <c r="F907">
+      <c r="F907" s="47">
         <v>631166.125</v>
       </c>
       <c r="G907">
@@ -21809,7 +21802,7 @@
       <c r="E908" s="43">
         <v>759.93</v>
       </c>
-      <c r="F908">
+      <c r="F908" s="47">
         <v>665523.875</v>
       </c>
       <c r="G908">
@@ -21832,7 +21825,7 @@
       <c r="E909" s="43">
         <v>773.46</v>
       </c>
-      <c r="F909">
+      <c r="F909" s="47">
         <v>683587.6875</v>
       </c>
       <c r="G909">
@@ -21855,7 +21848,7 @@
       <c r="E910" s="43">
         <v>785.14</v>
       </c>
-      <c r="F910">
+      <c r="F910" s="47">
         <v>675841</v>
       </c>
       <c r="G910">
@@ -21878,7 +21871,7 @@
       <c r="E911" s="43">
         <v>790.01</v>
       </c>
-      <c r="F911">
+      <c r="F911" s="47">
         <v>653602.875</v>
       </c>
       <c r="G911">
@@ -21901,7 +21894,7 @@
       <c r="E912" s="43">
         <v>772</v>
       </c>
-      <c r="F912">
+      <c r="F912" s="47">
         <v>653602.88</v>
       </c>
       <c r="G912">
@@ -21924,7 +21917,7 @@
       <c r="E913" s="43">
         <v>765.85</v>
       </c>
-      <c r="F913">
+      <c r="F913" s="47">
         <v>634791.6875</v>
       </c>
       <c r="G913">
@@ -21947,7 +21940,7 @@
       <c r="E914" s="43">
         <v>745.41</v>
       </c>
-      <c r="F914">
+      <c r="F914" s="47">
         <v>633243.3125</v>
       </c>
       <c r="G914">
@@ -21970,7 +21963,7 @@
       <c r="E915" s="43">
         <v>751.69</v>
       </c>
-      <c r="F915">
+      <c r="F915" s="47">
         <v>598133.375</v>
       </c>
       <c r="G915">
@@ -21993,7 +21986,7 @@
       <c r="E916" s="43">
         <v>759.37</v>
       </c>
-      <c r="F916">
+      <c r="F916" s="47">
         <v>583982.625</v>
       </c>
       <c r="G916">
@@ -22016,7 +22009,7 @@
       <c r="E917" s="43">
         <v>750.2</v>
       </c>
-      <c r="F917">
+      <c r="F917" s="47">
         <v>548015.125</v>
       </c>
       <c r="G917">
@@ -22039,7 +22032,7 @@
       <c r="E918" s="43">
         <v>732.76</v>
       </c>
-      <c r="F918">
+      <c r="F918" s="47">
         <v>532550.375</v>
       </c>
       <c r="G918">
@@ -22062,7 +22055,7 @@
       <c r="E919" s="43">
         <v>732.75</v>
       </c>
-      <c r="F919">
+      <c r="F919" s="47">
         <v>514073.8125</v>
       </c>
       <c r="G919">
@@ -22085,7 +22078,7 @@
       <c r="E920" s="43">
         <v>739.01</v>
       </c>
-      <c r="F920">
+      <c r="F920" s="47">
         <v>538084.5</v>
       </c>
       <c r="G920">
@@ -22108,7 +22101,7 @@
       <c r="E921" s="43">
         <v>744.43</v>
       </c>
-      <c r="F921">
+      <c r="F921" s="47">
         <v>553410.125</v>
       </c>
       <c r="G921">
@@ -22131,7 +22124,7 @@
       <c r="E922" s="43">
         <v>740.37</v>
       </c>
-      <c r="F922">
+      <c r="F922" s="47">
         <v>571753.3125</v>
       </c>
       <c r="G922">
@@ -22154,7 +22147,7 @@
       <c r="E923" s="43">
         <v>735.52</v>
       </c>
-      <c r="F923">
+      <c r="F923" s="47">
         <v>567513.375</v>
       </c>
       <c r="G923">
@@ -22177,7 +22170,7 @@
       <c r="E924" s="43">
         <v>736.81</v>
       </c>
-      <c r="F924">
+      <c r="F924" s="47">
         <v>585204.5</v>
       </c>
       <c r="G924">
@@ -22200,7 +22193,7 @@
       <c r="E925" s="43">
         <v>738.81</v>
       </c>
-      <c r="F925">
+      <c r="F925" s="47">
         <v>576676.125</v>
       </c>
       <c r="G925">
@@ -22223,7 +22216,7 @@
       <c r="E926" s="43">
         <v>742.24</v>
       </c>
-      <c r="F926">
+      <c r="F926" s="47">
         <v>562032.625</v>
       </c>
       <c r="G926">
@@ -22246,7 +22239,7 @@
       <c r="E927" s="43">
         <v>750.64</v>
       </c>
-      <c r="F927">
+      <c r="F927" s="47">
         <v>553754.8125</v>
       </c>
       <c r="G927">
@@ -22269,7 +22262,7 @@
       <c r="E928" s="43">
         <v>750.64</v>
       </c>
-      <c r="F928">
+      <c r="F928" s="47">
         <v>553392.1875</v>
       </c>
       <c r="G928">
@@ -22292,7 +22285,7 @@
       <c r="E929" s="43">
         <v>755.02</v>
       </c>
-      <c r="F929">
+      <c r="F929" s="47">
         <v>548544.8125</v>
       </c>
       <c r="G929">
@@ -22315,7 +22308,7 @@
       <c r="E930" s="43">
         <v>775.93</v>
       </c>
-      <c r="F930">
+      <c r="F930" s="47">
         <v>543252.125</v>
       </c>
       <c r="G930">
@@ -22338,7 +22331,7 @@
       <c r="E931" s="43">
         <v>790.95</v>
       </c>
-      <c r="F931">
+      <c r="F931" s="47">
         <v>557023.5</v>
       </c>
       <c r="G931">
@@ -22361,7 +22354,7 @@
       <c r="E932" s="43">
         <v>804.35</v>
       </c>
-      <c r="F932">
+      <c r="F932" s="47">
         <v>581469</v>
       </c>
       <c r="G932">
@@ -22384,7 +22377,7 @@
       <c r="E933" s="43">
         <v>814.95</v>
       </c>
-      <c r="F933">
+      <c r="F933" s="47">
         <v>562568.5</v>
       </c>
       <c r="G933">
@@ -22395,7 +22388,7 @@
       <c r="A934" s="45">
         <v>45201</v>
       </c>
-      <c r="B934" s="54">
+      <c r="B934" s="53">
         <v>800</v>
       </c>
       <c r="C934" s="47">
@@ -22407,7 +22400,7 @@
       <c r="E934" s="43">
         <v>829.7</v>
       </c>
-      <c r="F934">
+      <c r="F934" s="47">
         <v>556828</v>
       </c>
       <c r="G934">
@@ -22418,7 +22411,7 @@
       <c r="A935" s="45">
         <v>45202</v>
       </c>
-      <c r="B935" s="54">
+      <c r="B935" s="53">
         <v>800</v>
       </c>
       <c r="C935" s="47">
@@ -22430,7 +22423,7 @@
       <c r="E935" s="43">
         <v>854.92</v>
       </c>
-      <c r="F935">
+      <c r="F935" s="47">
         <v>561427</v>
       </c>
       <c r="G935">
@@ -22441,7 +22434,7 @@
       <c r="A936" s="45">
         <v>45203</v>
       </c>
-      <c r="B936" s="54">
+      <c r="B936" s="53">
         <v>810</v>
       </c>
       <c r="C936" s="47">
@@ -22453,7 +22446,7 @@
       <c r="E936" s="43">
         <v>900.17</v>
       </c>
-      <c r="F936">
+      <c r="F936" s="47">
         <v>593739.875</v>
       </c>
       <c r="G936">
@@ -22464,7 +22457,7 @@
       <c r="A937" s="45">
         <v>45204</v>
       </c>
-      <c r="B937" s="54">
+      <c r="B937" s="53">
         <v>845</v>
       </c>
       <c r="C937" s="47">
@@ -22476,7 +22469,7 @@
       <c r="E937" s="43">
         <v>881.82</v>
       </c>
-      <c r="F937">
+      <c r="F937" s="47">
         <v>613071.625</v>
       </c>
       <c r="G937">
@@ -22487,7 +22480,7 @@
       <c r="A938" s="45">
         <v>45205</v>
       </c>
-      <c r="B938" s="54">
+      <c r="B938" s="53">
         <v>843</v>
       </c>
       <c r="C938" s="47">
@@ -22499,7 +22492,7 @@
       <c r="E938" s="43">
         <v>880.83</v>
       </c>
-      <c r="F938">
+      <c r="F938" s="47">
         <v>628917.6875</v>
       </c>
       <c r="G938">
@@ -22510,7 +22503,7 @@
       <c r="A939" s="45">
         <v>45208</v>
       </c>
-      <c r="B939" s="54">
+      <c r="B939" s="53">
         <v>895</v>
       </c>
       <c r="C939" s="47">
@@ -22522,7 +22515,7 @@
       <c r="E939" s="43">
         <v>935.84</v>
       </c>
-      <c r="F939">
+      <c r="F939" s="47">
         <v>648630.8125</v>
       </c>
       <c r="G939">
@@ -22533,7 +22526,7 @@
       <c r="A940" s="45">
         <v>45209</v>
       </c>
-      <c r="B940" s="54">
+      <c r="B940" s="53">
         <v>945</v>
       </c>
       <c r="C940" s="47">
@@ -22545,7 +22538,7 @@
       <c r="E940" s="43">
         <v>973.24</v>
       </c>
-      <c r="F940">
+      <c r="F940" s="47">
         <v>697833.6875</v>
       </c>
       <c r="G940">
@@ -22556,7 +22549,7 @@
       <c r="A941" s="45">
         <v>45210</v>
       </c>
-      <c r="B941" s="54">
+      <c r="B941" s="53">
         <v>1010</v>
       </c>
       <c r="C941" s="47">
@@ -22568,7 +22561,7 @@
       <c r="E941" s="43">
         <v>974.05</v>
       </c>
-      <c r="F941">
+      <c r="F941" s="47">
         <v>716543.6875</v>
       </c>
       <c r="G941">
@@ -22579,7 +22572,7 @@
       <c r="A942" s="45">
         <v>45211</v>
       </c>
-      <c r="B942" s="54">
+      <c r="B942" s="53">
         <v>1010</v>
       </c>
       <c r="C942" s="47">
@@ -22591,7 +22584,7 @@
       <c r="E942" s="43">
         <v>961.07</v>
       </c>
-      <c r="F942">
+      <c r="F942" s="47">
         <v>760673.8125</v>
       </c>
       <c r="G942">
@@ -22602,7 +22595,7 @@
       <c r="A943" s="45">
         <v>45216</v>
       </c>
-      <c r="B943" s="54">
+      <c r="B943" s="53">
         <v>980</v>
       </c>
       <c r="C943" s="50">
@@ -22614,7 +22607,7 @@
       <c r="E943" s="43">
         <v>985.56</v>
       </c>
-      <c r="F943">
+      <c r="F943" s="47">
         <v>823683</v>
       </c>
       <c r="G943">
@@ -22625,7 +22618,7 @@
       <c r="A944" s="45">
         <v>45217</v>
       </c>
-      <c r="B944" s="54">
+      <c r="B944" s="53">
         <v>985</v>
       </c>
       <c r="C944">
@@ -22648,7 +22641,7 @@
       <c r="A945" s="45">
         <v>45218</v>
       </c>
-      <c r="B945" s="54">
+      <c r="B945" s="53">
         <v>905</v>
       </c>
       <c r="C945">
@@ -22671,7 +22664,7 @@
       <c r="A946" s="45">
         <v>45219</v>
       </c>
-      <c r="B946" s="54">
+      <c r="B946" s="53">
         <v>900</v>
       </c>
       <c r="C946">
@@ -22694,7 +22687,7 @@
       <c r="A947" s="45">
         <v>45222</v>
       </c>
-      <c r="B947" s="54">
+      <c r="B947" s="53">
         <v>900</v>
       </c>
       <c r="C947">
@@ -22717,7 +22710,7 @@
       <c r="A948" s="45">
         <v>45223</v>
       </c>
-      <c r="B948" s="54">
+      <c r="B948" s="53">
         <v>1100</v>
       </c>
       <c r="C948">
@@ -22740,7 +22733,7 @@
       <c r="A949" s="45">
         <v>45224</v>
       </c>
-      <c r="B949" s="54">
+      <c r="B949" s="53">
         <v>1100</v>
       </c>
       <c r="C949">
@@ -22763,7 +22756,7 @@
       <c r="A950" s="45">
         <v>45225</v>
       </c>
-      <c r="B950" s="54">
+      <c r="B950" s="53">
         <v>1000</v>
       </c>
       <c r="C950">
@@ -22786,7 +22779,7 @@
       <c r="A951" s="45">
         <v>45226</v>
       </c>
-      <c r="B951" s="54">
+      <c r="B951" s="53">
         <v>980</v>
       </c>
       <c r="C951">
@@ -22809,7 +22802,7 @@
       <c r="A952" s="45">
         <v>45229</v>
       </c>
-      <c r="B952" s="54">
+      <c r="B952" s="53">
         <v>990</v>
       </c>
       <c r="C952">
@@ -22832,7 +22825,7 @@
       <c r="A953" s="45">
         <v>45230</v>
       </c>
-      <c r="B953" s="54">
+      <c r="B953" s="53">
         <v>970</v>
       </c>
       <c r="C953">
@@ -22855,7 +22848,7 @@
       <c r="A954" s="45">
         <v>45231</v>
       </c>
-      <c r="B954" s="54">
+      <c r="B954" s="53">
         <v>920</v>
       </c>
       <c r="C954">
@@ -22867,7 +22860,7 @@
       <c r="E954" s="52">
         <v>887.94</v>
       </c>
-      <c r="F954" s="55">
+      <c r="F954" s="54">
         <v>616255.38</v>
       </c>
       <c r="G954">
@@ -22878,7 +22871,7 @@
       <c r="A955" s="45">
         <v>45232</v>
       </c>
-      <c r="B955" s="54">
+      <c r="B955" s="53">
         <v>915</v>
       </c>
       <c r="C955">
@@ -22890,7 +22883,7 @@
       <c r="E955" s="52">
         <v>896.36</v>
       </c>
-      <c r="F955" s="55">
+      <c r="F955" s="54">
         <v>654094.88</v>
       </c>
       <c r="G955">
@@ -22901,7 +22894,7 @@
       <c r="A956" s="45">
         <v>45233</v>
       </c>
-      <c r="B956" s="54">
+      <c r="B956" s="53">
         <v>925</v>
       </c>
       <c r="C956">
@@ -22913,7 +22906,7 @@
       <c r="E956" s="52">
         <v>886.81</v>
       </c>
-      <c r="F956" s="55">
+      <c r="F956" s="54">
         <v>637284.13</v>
       </c>
       <c r="G956">
@@ -22924,7 +22917,7 @@
       <c r="A957" s="45">
         <v>45236</v>
       </c>
-      <c r="B957" s="54">
+      <c r="B957" s="53">
         <v>925</v>
       </c>
       <c r="C957">
@@ -22936,8 +22929,8 @@
       <c r="E957" s="52">
         <v>889.67</v>
       </c>
-      <c r="F957" s="55">
-        <v>637284.13</v>
+      <c r="F957" s="54">
+        <v>633339</v>
       </c>
       <c r="G957">
         <v>11.083</v>
@@ -22947,7 +22940,7 @@
       <c r="A958" s="45">
         <v>45237</v>
       </c>
-      <c r="B958" s="54">
+      <c r="B958" s="53">
         <v>925</v>
       </c>
       <c r="C958">
@@ -22959,7 +22952,7 @@
       <c r="E958" s="52">
         <v>862.09</v>
       </c>
-      <c r="F958" s="55">
+      <c r="F958" s="54">
         <v>611207.43999999994</v>
       </c>
       <c r="G958">
@@ -22970,7 +22963,7 @@
       <c r="A959" s="45">
         <v>45238</v>
       </c>
-      <c r="B959" s="54">
+      <c r="B959" s="53">
         <v>890</v>
       </c>
       <c r="C959">
@@ -22982,8 +22975,8 @@
       <c r="E959" s="52">
         <v>868.01</v>
       </c>
-      <c r="F959" s="55">
-        <v>584969.68999999994</v>
+      <c r="F959" s="54">
+        <v>588295.93999999994</v>
       </c>
       <c r="G959">
         <v>11.083</v>
@@ -22993,7 +22986,7 @@
       <c r="A960" s="45">
         <v>45239</v>
       </c>
-      <c r="B960" s="54">
+      <c r="B960" s="53">
         <v>890</v>
       </c>
       <c r="C960">
@@ -23005,8 +22998,8 @@
       <c r="E960" s="52">
         <v>901.86</v>
       </c>
-      <c r="F960" s="55">
-        <v>623995.56000000006</v>
+      <c r="F960" s="54">
+        <v>623995.59</v>
       </c>
       <c r="G960">
         <v>11.083</v>
@@ -23016,7 +23009,7 @@
       <c r="A961" s="45">
         <v>45240</v>
       </c>
-      <c r="B961" s="54">
+      <c r="B961" s="53">
         <v>950</v>
       </c>
       <c r="C961">
@@ -23028,7 +23021,7 @@
       <c r="E961" s="52">
         <v>919.85</v>
       </c>
-      <c r="F961" s="55">
+      <c r="F961" s="54">
         <v>660274.68999999994</v>
       </c>
       <c r="G961">
@@ -23039,7 +23032,7 @@
       <c r="A962" s="45">
         <v>45243</v>
       </c>
-      <c r="B962" s="54">
+      <c r="B962" s="53">
         <v>960</v>
       </c>
       <c r="C962">
@@ -23051,7 +23044,7 @@
       <c r="E962" s="52">
         <v>909.76</v>
       </c>
-      <c r="F962" s="55">
+      <c r="F962" s="54">
         <v>636964.25</v>
       </c>
       <c r="G962">
@@ -23062,7 +23055,7 @@
       <c r="A963" s="45">
         <v>45244</v>
       </c>
-      <c r="B963" s="54">
+      <c r="B963" s="53">
         <v>925</v>
       </c>
       <c r="C963">
@@ -23074,7 +23067,7 @@
       <c r="E963" s="52">
         <v>902.11</v>
       </c>
-      <c r="F963" s="55">
+      <c r="F963" s="54">
         <v>634516.25</v>
       </c>
       <c r="G963">
@@ -23085,7 +23078,7 @@
       <c r="A964" s="45">
         <v>45245</v>
       </c>
-      <c r="B964" s="54">
+      <c r="B964" s="53">
         <v>925</v>
       </c>
       <c r="C964">
@@ -23097,7 +23090,7 @@
       <c r="E964" s="52">
         <v>929.68</v>
       </c>
-      <c r="F964" s="55">
+      <c r="F964" s="54">
         <v>629361.5</v>
       </c>
       <c r="G964">
@@ -23108,7 +23101,7 @@
       <c r="A965" s="45">
         <v>45246</v>
       </c>
-      <c r="B965" s="54">
+      <c r="B965" s="53">
         <v>970</v>
       </c>
       <c r="C965">
@@ -23120,7 +23113,7 @@
       <c r="E965" s="52">
         <v>930.45</v>
       </c>
-      <c r="F965" s="55">
+      <c r="F965" s="54">
         <v>602278.18999999994</v>
       </c>
       <c r="G965">
@@ -23131,7 +23124,7 @@
       <c r="A966" s="45">
         <v>45247</v>
       </c>
-      <c r="B966" s="54">
+      <c r="B966" s="53">
         <v>950</v>
       </c>
       <c r="C966">
@@ -23143,7 +23136,7 @@
       <c r="E966" s="52">
         <v>976.77</v>
       </c>
-      <c r="F966" s="55">
+      <c r="F966" s="54">
         <v>645079.56000000006</v>
       </c>
       <c r="G966">
@@ -23154,7 +23147,7 @@
       <c r="A967" s="45">
         <v>45251</v>
       </c>
-      <c r="B967" s="54">
+      <c r="B967" s="53">
         <v>1075</v>
       </c>
       <c r="C967">
@@ -23166,7 +23159,7 @@
       <c r="E967" s="52">
         <v>1012.05</v>
       </c>
-      <c r="F967" s="55">
+      <c r="F967" s="54">
         <v>792443.19</v>
       </c>
       <c r="G967">
@@ -23177,7 +23170,7 @@
       <c r="A968" s="45">
         <v>45252</v>
       </c>
-      <c r="B968" s="54">
+      <c r="B968" s="53">
         <v>1080</v>
       </c>
       <c r="C968">
@@ -23189,7 +23182,7 @@
       <c r="E968" s="52">
         <v>993.96</v>
       </c>
-      <c r="F968" s="55">
+      <c r="F968" s="54">
         <v>838616.63</v>
       </c>
       <c r="G968">
@@ -23200,7 +23193,7 @@
       <c r="A969" s="45">
         <v>45253</v>
       </c>
-      <c r="B969" s="54">
+      <c r="B969" s="53">
         <v>1045</v>
       </c>
       <c r="C969">
@@ -23212,8 +23205,8 @@
       <c r="E969" s="52">
         <v>1005.5</v>
       </c>
-      <c r="F969" s="55">
-        <v>884977.69</v>
+      <c r="F969" s="54">
+        <v>878971.27</v>
       </c>
       <c r="G969">
         <v>11.083</v>
@@ -23235,8 +23228,8 @@
       <c r="E970" s="52">
         <v>980.98</v>
       </c>
-      <c r="F970" s="55">
-        <v>878971.2</v>
+      <c r="F970" s="54">
+        <v>917599.31</v>
       </c>
       <c r="G970">
         <v>11.083</v>
@@ -23244,93 +23237,175 @@
     </row>
     <row r="971" spans="1:7">
       <c r="A971" s="45">
-        <v>45255</v>
-      </c>
-      <c r="B971" s="46"/>
-      <c r="D971" s="43"/>
-      <c r="E971" s="52"/>
+        <v>45257</v>
+      </c>
+      <c r="B971" s="46">
+        <v>995</v>
+      </c>
+      <c r="C971">
+        <v>858.28</v>
+      </c>
+      <c r="D971" s="43">
+        <v>889.15</v>
+      </c>
+      <c r="E971" s="52">
+        <v>940.59</v>
+      </c>
+      <c r="F971" s="54">
+        <v>843665.2</v>
+      </c>
+      <c r="G971">
+        <v>11.083</v>
+      </c>
     </row>
     <row r="972" spans="1:7">
       <c r="A972" s="45">
-        <v>45257</v>
-      </c>
-      <c r="B972" s="46"/>
-      <c r="D972" s="43"/>
-      <c r="E972" s="52"/>
+        <v>45258</v>
+      </c>
+      <c r="B972" s="43">
+        <v>945</v>
+      </c>
+      <c r="C972">
+        <v>848.9</v>
+      </c>
+      <c r="D972">
+        <v>867.12</v>
+      </c>
+      <c r="E972" s="52">
+        <v>892.35</v>
+      </c>
+      <c r="F972" s="54">
+        <v>773419.75</v>
+      </c>
+      <c r="G972">
+        <v>11.083</v>
+      </c>
     </row>
     <row r="973" spans="1:7">
       <c r="A973" s="45">
-        <v>45258</v>
-      </c>
-      <c r="B973" s="46"/>
-      <c r="D973" s="43"/>
-      <c r="E973" s="52"/>
+        <v>45259</v>
+      </c>
+      <c r="B973" s="43">
+        <v>925</v>
+      </c>
+      <c r="C973">
+        <v>820.27</v>
+      </c>
+      <c r="D973">
+        <v>838.1</v>
+      </c>
+      <c r="E973" s="52">
+        <v>896.36</v>
+      </c>
+      <c r="F973" s="54">
+        <v>790376.2</v>
+      </c>
+      <c r="G973">
+        <v>11.083</v>
+      </c>
     </row>
     <row r="974" spans="1:7">
       <c r="A974" s="45">
-        <v>45259</v>
-      </c>
-      <c r="B974" s="46"/>
-      <c r="D974" s="43"/>
-      <c r="E974" s="52"/>
+        <v>45260</v>
+      </c>
+      <c r="B974" s="46">
+        <v>905</v>
+      </c>
+      <c r="C974">
+        <v>836.84</v>
+      </c>
+      <c r="D974" s="43">
+        <v>858.82</v>
+      </c>
+      <c r="E974" s="52">
+        <v>887.94</v>
+      </c>
+      <c r="F974" s="54">
+        <v>813393.94</v>
+      </c>
+      <c r="G974">
+        <v>11.083</v>
+      </c>
     </row>
     <row r="975" spans="1:7" ht="15" thickBot="1">
       <c r="A975" s="45">
-        <v>45260</v>
-      </c>
-      <c r="B975" s="46"/>
-      <c r="D975" s="43"/>
-      <c r="E975" s="52"/>
+        <v>45261</v>
+      </c>
+      <c r="B975" s="46">
+        <v>955</v>
+      </c>
+      <c r="C975">
+        <v>904.36</v>
+      </c>
+      <c r="D975" s="52">
+        <v>907.69</v>
+      </c>
+      <c r="E975" s="52">
+        <v>931.91</v>
+      </c>
+      <c r="F975" s="54">
+        <v>870169.17</v>
+      </c>
+      <c r="G975">
+        <v>11.083</v>
+      </c>
     </row>
     <row r="976" spans="1:7" ht="15" thickBot="1">
       <c r="A976" s="44"/>
     </row>
-    <row r="977" spans="1:1" ht="15" thickBot="1">
+    <row r="977" spans="1:7" ht="15" thickBot="1">
       <c r="A977" s="44"/>
     </row>
-    <row r="978" spans="1:1" ht="15" thickBot="1">
+    <row r="978" spans="1:7" ht="15" thickBot="1">
       <c r="A978" s="44"/>
-    </row>
-    <row r="979" spans="1:1" ht="15" thickBot="1">
+      <c r="F978"/>
+      <c r="G978"/>
+    </row>
+    <row r="979" spans="1:7" ht="15" thickBot="1">
       <c r="A979" s="44"/>
-    </row>
-    <row r="980" spans="1:1" ht="15" thickBot="1">
+      <c r="F979"/>
+      <c r="G979"/>
+    </row>
+    <row r="980" spans="1:7" ht="15" thickBot="1">
       <c r="A980" s="44"/>
-    </row>
-    <row r="981" spans="1:1" ht="15" thickBot="1">
+      <c r="F980"/>
+    </row>
+    <row r="981" spans="1:7" ht="15" thickBot="1">
       <c r="A981" s="44"/>
-    </row>
-    <row r="982" spans="1:1" ht="15" thickBot="1">
+      <c r="F981"/>
+      <c r="G981"/>
+    </row>
+    <row r="982" spans="1:7" ht="15" thickBot="1">
       <c r="A982" s="44"/>
     </row>
-    <row r="983" spans="1:1" ht="15" thickBot="1">
+    <row r="983" spans="1:7" ht="15" thickBot="1">
       <c r="A983" s="44"/>
     </row>
-    <row r="984" spans="1:1" ht="15" thickBot="1">
+    <row r="984" spans="1:7" ht="15" thickBot="1">
       <c r="A984" s="44"/>
     </row>
-    <row r="985" spans="1:1" ht="15" thickBot="1">
+    <row r="985" spans="1:7" ht="15" thickBot="1">
       <c r="A985" s="44"/>
     </row>
-    <row r="986" spans="1:1" ht="15" thickBot="1">
+    <row r="986" spans="1:7" ht="15" thickBot="1">
       <c r="A986" s="44"/>
     </row>
-    <row r="987" spans="1:1" ht="15" thickBot="1">
+    <row r="987" spans="1:7" ht="15" thickBot="1">
       <c r="A987" s="44"/>
     </row>
-    <row r="988" spans="1:1" ht="15" thickBot="1">
+    <row r="988" spans="1:7" ht="15" thickBot="1">
       <c r="A988" s="44"/>
     </row>
-    <row r="989" spans="1:1" ht="15" thickBot="1">
+    <row r="989" spans="1:7" ht="15" thickBot="1">
       <c r="A989" s="44"/>
     </row>
-    <row r="990" spans="1:1" ht="15" thickBot="1">
+    <row r="990" spans="1:7" ht="15" thickBot="1">
       <c r="A990" s="44"/>
     </row>
-    <row r="991" spans="1:1" ht="15" thickBot="1">
+    <row r="991" spans="1:7" ht="15" thickBot="1">
       <c r="A991" s="44"/>
     </row>
-    <row r="992" spans="1:1" ht="15" thickBot="1">
+    <row r="992" spans="1:7" ht="15" thickBot="1">
       <c r="A992" s="44"/>
     </row>
     <row r="993" spans="1:1" ht="15" thickBot="1">

--- a/assets/dolar_blue.xlsx
+++ b/assets/dolar_blue.xlsx
@@ -908,10 +908,10 @@
   <dimension ref="A1:G3868"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B958" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B951" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A970" sqref="A970"/>
+      <selection pane="bottomRight" activeCell="C990" sqref="C990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/assets/dolar_blue.xlsx
+++ b/assets/dolar_blue.xlsx
@@ -146,7 +146,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +177,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -213,12 +219,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -370,6 +391,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,8 +625,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G975" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:G975"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G979" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G979"/>
   <tableColumns count="7">
     <tableColumn id="1" name="fecha" dataDxfId="3"/>
     <tableColumn id="3" name="Dólar Blue" dataDxfId="2"/>
@@ -908,10 +930,10 @@
   <dimension ref="A1:G3868"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B951" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B969" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C990" sqref="C990"/>
+      <selection pane="bottomRight" activeCell="F975" sqref="F975"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -23327,7 +23349,7 @@
         <v>11.083</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="15" thickBot="1">
+    <row r="975" spans="1:7">
       <c r="A975" s="45">
         <v>45261</v>
       </c>
@@ -23341,7 +23363,7 @@
         <v>907.69</v>
       </c>
       <c r="E975" s="52">
-        <v>931.91</v>
+        <v>905.02</v>
       </c>
       <c r="F975" s="54">
         <v>870169.17</v>
@@ -23350,21 +23372,97 @@
         <v>11.083</v>
       </c>
     </row>
-    <row r="976" spans="1:7" ht="15" thickBot="1">
-      <c r="A976" s="44"/>
-    </row>
-    <row r="977" spans="1:7" ht="15" thickBot="1">
-      <c r="A977" s="44"/>
-    </row>
-    <row r="978" spans="1:7" ht="15" thickBot="1">
-      <c r="A978" s="44"/>
-      <c r="F978"/>
-      <c r="G978"/>
+    <row r="976" spans="1:7">
+      <c r="A976" s="45">
+        <v>45264</v>
+      </c>
+      <c r="B976" s="46">
+        <v>930</v>
+      </c>
+      <c r="C976">
+        <v>890.78</v>
+      </c>
+      <c r="D976" s="43">
+        <v>913.05</v>
+      </c>
+      <c r="E976" s="52">
+        <v>899.35</v>
+      </c>
+      <c r="F976" s="55">
+        <v>845384.31</v>
+      </c>
+      <c r="G976">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7">
+      <c r="A977" s="45">
+        <v>45265</v>
+      </c>
+      <c r="B977" s="46">
+        <v>910</v>
+      </c>
+      <c r="C977">
+        <v>909.52</v>
+      </c>
+      <c r="D977" s="43">
+        <v>934.71</v>
+      </c>
+      <c r="E977" s="52">
+        <v>912.7</v>
+      </c>
+      <c r="F977" s="54">
+        <v>885270.37</v>
+      </c>
+      <c r="G977">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7">
+      <c r="A978" s="45">
+        <v>45266</v>
+      </c>
+      <c r="B978" s="46">
+        <v>955</v>
+      </c>
+      <c r="C978">
+        <v>937.44</v>
+      </c>
+      <c r="D978" s="43">
+        <v>936.93</v>
+      </c>
+      <c r="E978" s="52">
+        <v>918.91</v>
+      </c>
+      <c r="F978" s="55">
+        <v>894502.31</v>
+      </c>
+      <c r="G978">
+        <v>11.083</v>
+      </c>
     </row>
     <row r="979" spans="1:7" ht="15" thickBot="1">
-      <c r="A979" s="44"/>
-      <c r="F979"/>
-      <c r="G979"/>
+      <c r="A979" s="45">
+        <v>45267</v>
+      </c>
+      <c r="B979" s="46">
+        <v>990</v>
+      </c>
+      <c r="C979">
+        <v>991.93</v>
+      </c>
+      <c r="D979" s="43">
+        <v>986.37</v>
+      </c>
+      <c r="E979" s="52">
+        <v>974.02</v>
+      </c>
+      <c r="F979" s="54">
+        <v>941829.88</v>
+      </c>
+      <c r="G979">
+        <v>11.083</v>
+      </c>
     </row>
     <row r="980" spans="1:7" ht="15" thickBot="1">
       <c r="A980" s="44"/>

--- a/assets/dolar_blue.xlsx
+++ b/assets/dolar_blue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin_1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Downloads\app_var_fin-main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -625,8 +625,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G979" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:G979"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G1012" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G1012"/>
   <tableColumns count="7">
     <tableColumn id="1" name="fecha" dataDxfId="3"/>
     <tableColumn id="3" name="Dólar Blue" dataDxfId="2"/>
@@ -930,10 +930,10 @@
   <dimension ref="A1:G3868"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B969" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B970" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F975" sqref="F975"/>
+      <selection pane="bottomRight" activeCell="I993" sqref="I993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -23353,14 +23353,14 @@
       <c r="A975" s="45">
         <v>45261</v>
       </c>
-      <c r="B975" s="46">
+      <c r="B975">
         <v>955</v>
       </c>
       <c r="C975">
-        <v>904.36</v>
-      </c>
-      <c r="D975" s="52">
-        <v>907.69</v>
+        <v>904</v>
+      </c>
+      <c r="D975" s="43">
+        <v>907</v>
       </c>
       <c r="E975" s="52">
         <v>905.02</v>
@@ -23376,14 +23376,14 @@
       <c r="A976" s="45">
         <v>45264</v>
       </c>
-      <c r="B976" s="46">
+      <c r="B976">
         <v>930</v>
       </c>
       <c r="C976">
-        <v>890.78</v>
+        <v>890</v>
       </c>
       <c r="D976" s="43">
-        <v>913.05</v>
+        <v>913</v>
       </c>
       <c r="E976" s="52">
         <v>899.35</v>
@@ -23399,14 +23399,14 @@
       <c r="A977" s="45">
         <v>45265</v>
       </c>
-      <c r="B977" s="46">
+      <c r="B977">
         <v>910</v>
       </c>
       <c r="C977">
-        <v>909.52</v>
+        <v>909</v>
       </c>
       <c r="D977" s="43">
-        <v>934.71</v>
+        <v>934</v>
       </c>
       <c r="E977" s="52">
         <v>912.7</v>
@@ -23422,14 +23422,14 @@
       <c r="A978" s="45">
         <v>45266</v>
       </c>
-      <c r="B978" s="46">
+      <c r="B978">
         <v>955</v>
       </c>
       <c r="C978">
-        <v>937.44</v>
+        <v>937</v>
       </c>
       <c r="D978" s="43">
-        <v>936.93</v>
+        <v>936</v>
       </c>
       <c r="E978" s="52">
         <v>918.91</v>
@@ -23441,18 +23441,18 @@
         <v>11.083</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="15" thickBot="1">
+    <row r="979" spans="1:7">
       <c r="A979" s="45">
         <v>45267</v>
       </c>
-      <c r="B979" s="46">
+      <c r="B979">
         <v>990</v>
       </c>
       <c r="C979">
-        <v>991.93</v>
+        <v>991</v>
       </c>
       <c r="D979" s="43">
-        <v>986.37</v>
+        <v>986</v>
       </c>
       <c r="E979" s="52">
         <v>974.02</v>
@@ -23464,94 +23464,491 @@
         <v>11.083</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="15" thickBot="1">
-      <c r="A980" s="44"/>
-      <c r="F980"/>
-    </row>
-    <row r="981" spans="1:7" ht="15" thickBot="1">
-      <c r="A981" s="44"/>
-      <c r="F981"/>
-      <c r="G981"/>
-    </row>
-    <row r="982" spans="1:7" ht="15" thickBot="1">
-      <c r="A982" s="44"/>
-    </row>
-    <row r="983" spans="1:7" ht="15" thickBot="1">
-      <c r="A983" s="44"/>
-    </row>
-    <row r="984" spans="1:7" ht="15" thickBot="1">
-      <c r="A984" s="44"/>
-    </row>
-    <row r="985" spans="1:7" ht="15" thickBot="1">
-      <c r="A985" s="44"/>
-    </row>
-    <row r="986" spans="1:7" ht="15" thickBot="1">
-      <c r="A986" s="44"/>
-    </row>
-    <row r="987" spans="1:7" ht="15" thickBot="1">
-      <c r="A987" s="44"/>
-    </row>
-    <row r="988" spans="1:7" ht="15" thickBot="1">
-      <c r="A988" s="44"/>
-    </row>
-    <row r="989" spans="1:7" ht="15" thickBot="1">
-      <c r="A989" s="44"/>
-    </row>
-    <row r="990" spans="1:7" ht="15" thickBot="1">
-      <c r="A990" s="44"/>
-    </row>
-    <row r="991" spans="1:7" ht="15" thickBot="1">
-      <c r="A991" s="44"/>
-    </row>
-    <row r="992" spans="1:7" ht="15" thickBot="1">
-      <c r="A992" s="44"/>
-    </row>
-    <row r="993" spans="1:1" ht="15" thickBot="1">
-      <c r="A993" s="44"/>
-    </row>
-    <row r="994" spans="1:1" ht="15" thickBot="1">
-      <c r="A994" s="44"/>
-    </row>
-    <row r="995" spans="1:1" ht="15" thickBot="1">
-      <c r="A995" s="44"/>
-    </row>
-    <row r="996" spans="1:1" ht="15" thickBot="1">
-      <c r="A996" s="44"/>
-    </row>
-    <row r="997" spans="1:1" ht="15" thickBot="1">
-      <c r="A997" s="44"/>
-    </row>
-    <row r="998" spans="1:1" ht="15" thickBot="1">
-      <c r="A998" s="44"/>
-    </row>
-    <row r="999" spans="1:1" ht="15" thickBot="1">
-      <c r="A999" s="44"/>
-    </row>
-    <row r="1000" spans="1:1" ht="15" thickBot="1">
+    <row r="980" spans="1:7">
+      <c r="A980" s="45">
+        <v>45271</v>
+      </c>
+      <c r="B980">
+        <v>1000</v>
+      </c>
+      <c r="C980">
+        <v>1000</v>
+      </c>
+      <c r="D980" s="43">
+        <v>993</v>
+      </c>
+      <c r="E980" s="52">
+        <v>995</v>
+      </c>
+      <c r="F980" s="54">
+        <v>949524</v>
+      </c>
+      <c r="G980">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7">
+      <c r="A981" s="45">
+        <v>45272</v>
+      </c>
+      <c r="B981">
+        <v>1070</v>
+      </c>
+      <c r="C981">
+        <v>1032</v>
+      </c>
+      <c r="D981" s="43">
+        <v>1011</v>
+      </c>
+      <c r="E981" s="52">
+        <v>1119.6099999999999</v>
+      </c>
+      <c r="F981" s="54">
+        <v>1013725</v>
+      </c>
+      <c r="G981">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7">
+      <c r="A982" s="45">
+        <v>45273</v>
+      </c>
+      <c r="B982">
+        <v>1070</v>
+      </c>
+      <c r="C982">
+        <v>1008</v>
+      </c>
+      <c r="D982" s="43">
+        <v>1037</v>
+      </c>
+      <c r="E982" s="52">
+        <v>1019.68</v>
+      </c>
+      <c r="F982" s="54">
+        <v>992062</v>
+      </c>
+      <c r="G982">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7">
+      <c r="A983" s="45">
+        <v>45274</v>
+      </c>
+      <c r="B983">
+        <v>990</v>
+      </c>
+      <c r="C983">
+        <v>1016</v>
+      </c>
+      <c r="D983" s="43">
+        <v>1003</v>
+      </c>
+      <c r="E983" s="52">
+        <v>997.96</v>
+      </c>
+      <c r="F983" s="54">
+        <v>990849</v>
+      </c>
+      <c r="G983">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7">
+      <c r="A984" s="45">
+        <v>45275</v>
+      </c>
+      <c r="B984">
+        <v>970</v>
+      </c>
+      <c r="C984">
+        <v>997</v>
+      </c>
+      <c r="D984" s="43">
+        <v>993</v>
+      </c>
+      <c r="E984" s="52">
+        <v>984.82</v>
+      </c>
+      <c r="F984" s="54">
+        <v>932556</v>
+      </c>
+      <c r="G984">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7">
+      <c r="A985" s="45">
+        <v>45278</v>
+      </c>
+      <c r="B985">
+        <v>985</v>
+      </c>
+      <c r="C985">
+        <v>946</v>
+      </c>
+      <c r="D985" s="43">
+        <v>963</v>
+      </c>
+      <c r="E985" s="52">
+        <v>967.98</v>
+      </c>
+      <c r="F985" s="54">
+        <v>928029</v>
+      </c>
+      <c r="G985">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7">
+      <c r="A986" s="45">
+        <v>45279</v>
+      </c>
+      <c r="B986">
+        <v>995</v>
+      </c>
+      <c r="C986">
+        <v>951</v>
+      </c>
+      <c r="D986" s="43">
+        <v>964</v>
+      </c>
+      <c r="E986" s="52">
+        <v>972.47</v>
+      </c>
+      <c r="F986" s="54">
+        <v>920874</v>
+      </c>
+      <c r="G986">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="A987" s="45">
+        <v>45280</v>
+      </c>
+      <c r="B987">
+        <v>995</v>
+      </c>
+      <c r="C987">
+        <v>945</v>
+      </c>
+      <c r="D987" s="43">
+        <v>946</v>
+      </c>
+      <c r="E987" s="52">
+        <v>968.58</v>
+      </c>
+      <c r="F987" s="54">
+        <v>918935</v>
+      </c>
+      <c r="G987">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" s="45">
+        <v>45281</v>
+      </c>
+      <c r="B988">
+        <v>990</v>
+      </c>
+      <c r="C988">
+        <v>944</v>
+      </c>
+      <c r="D988" s="43">
+        <v>971</v>
+      </c>
+      <c r="E988" s="52">
+        <v>957.34</v>
+      </c>
+      <c r="F988" s="54">
+        <v>918286</v>
+      </c>
+      <c r="G988">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="45">
+        <v>45282</v>
+      </c>
+      <c r="B989">
+        <v>995</v>
+      </c>
+      <c r="C989">
+        <v>941</v>
+      </c>
+      <c r="D989" s="43">
+        <v>954</v>
+      </c>
+      <c r="E989" s="52">
+        <v>956.53</v>
+      </c>
+      <c r="F989" s="54">
+        <v>947788</v>
+      </c>
+      <c r="G989">
+        <v>11.083</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7">
+      <c r="A990" s="45">
+        <v>45286</v>
+      </c>
+      <c r="B990">
+        <v>995</v>
+      </c>
+      <c r="C990">
+        <v>901</v>
+      </c>
+      <c r="D990" s="43">
+        <v>939</v>
+      </c>
+      <c r="E990" s="52">
+        <v>963.83</v>
+      </c>
+      <c r="F990" s="54">
+        <v>908280</v>
+      </c>
+      <c r="G990" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7">
+      <c r="A991" s="45">
+        <v>45287</v>
+      </c>
+      <c r="B991">
+        <v>1000</v>
+      </c>
+      <c r="C991">
+        <v>870</v>
+      </c>
+      <c r="D991" s="43">
+        <v>932</v>
+      </c>
+      <c r="E991" s="52">
+        <v>956.64</v>
+      </c>
+      <c r="F991" s="54">
+        <v>890877</v>
+      </c>
+      <c r="G991" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7">
+      <c r="A992" s="45">
+        <v>45288</v>
+      </c>
+      <c r="B992">
+        <v>1000</v>
+      </c>
+      <c r="C992">
+        <v>945</v>
+      </c>
+      <c r="D992" s="43">
+        <v>950</v>
+      </c>
+      <c r="E992" s="52">
+        <v>955.01</v>
+      </c>
+      <c r="F992" s="54">
+        <v>911278</v>
+      </c>
+      <c r="G992" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7">
+      <c r="A993" s="45">
+        <v>45289</v>
+      </c>
+      <c r="B993">
+        <v>1025</v>
+      </c>
+      <c r="C993">
+        <v>973</v>
+      </c>
+      <c r="D993" s="43">
+        <v>995</v>
+      </c>
+      <c r="E993" s="52">
+        <v>977.14</v>
+      </c>
+      <c r="F993" s="54">
+        <v>923149</v>
+      </c>
+      <c r="G993" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7">
+      <c r="A994" s="45">
+        <v>45293</v>
+      </c>
+      <c r="B994">
+        <v>1005</v>
+      </c>
+      <c r="C994">
+        <v>973</v>
+      </c>
+      <c r="D994" s="43">
+        <v>995</v>
+      </c>
+      <c r="E994" s="52">
+        <v>976.95</v>
+      </c>
+      <c r="F994" s="54">
+        <v>923149</v>
+      </c>
+      <c r="G994" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7">
+      <c r="A995" s="45">
+        <v>45294</v>
+      </c>
+      <c r="B995">
+        <v>1005</v>
+      </c>
+      <c r="C995">
+        <v>997</v>
+      </c>
+      <c r="D995" s="43">
+        <v>991</v>
+      </c>
+      <c r="E995" s="52">
+        <v>1009.03</v>
+      </c>
+      <c r="F995" s="54">
+        <v>923814</v>
+      </c>
+      <c r="G995" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7">
+      <c r="A996" s="45">
+        <v>45295</v>
+      </c>
+      <c r="B996">
+        <v>1020</v>
+      </c>
+      <c r="C996">
+        <v>1049</v>
+      </c>
+      <c r="D996" s="43">
+        <v>1033</v>
+      </c>
+      <c r="E996" s="52">
+        <v>1039.3699999999999</v>
+      </c>
+      <c r="F996" s="54">
+        <v>995912</v>
+      </c>
+      <c r="G996" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7">
+      <c r="A997" s="45">
+        <v>45296</v>
+      </c>
+      <c r="B997">
+        <v>1025</v>
+      </c>
+      <c r="C997">
+        <v>1088</v>
+      </c>
+      <c r="D997" s="43">
+        <v>1050</v>
+      </c>
+      <c r="E997" s="52">
+        <v>1075.22</v>
+      </c>
+      <c r="F997" s="54">
+        <v>1044107</v>
+      </c>
+      <c r="G997" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7">
+      <c r="A998" s="45">
+        <v>45299</v>
+      </c>
+      <c r="B998">
+        <v>1050</v>
+      </c>
+      <c r="C998">
+        <v>1140</v>
+      </c>
+      <c r="D998" s="43">
+        <v>1104</v>
+      </c>
+      <c r="E998" s="52">
+        <v>1126.21</v>
+      </c>
+      <c r="F998" s="54">
+        <v>1100127</v>
+      </c>
+      <c r="G998" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" ht="15" thickBot="1">
+      <c r="A999" s="45">
+        <v>45300</v>
+      </c>
+      <c r="B999">
+        <v>1130</v>
+      </c>
+      <c r="C999">
+        <v>1200</v>
+      </c>
+      <c r="D999" s="43">
+        <v>1141</v>
+      </c>
+      <c r="E999" s="52">
+        <v>1160.01</v>
+      </c>
+      <c r="F999" s="54">
+        <v>1072777</v>
+      </c>
+      <c r="G999" s="47">
+        <v>8.3332999999999995</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" ht="15" thickBot="1">
       <c r="A1000" s="44"/>
     </row>
-    <row r="1001" spans="1:1" ht="15" thickBot="1">
+    <row r="1001" spans="1:7" ht="15" thickBot="1">
       <c r="A1001" s="44"/>
     </row>
-    <row r="1002" spans="1:1" ht="15" thickBot="1">
+    <row r="1002" spans="1:7" ht="15" thickBot="1">
       <c r="A1002" s="44"/>
     </row>
-    <row r="1003" spans="1:1" ht="15" thickBot="1">
+    <row r="1003" spans="1:7" ht="15" thickBot="1">
       <c r="A1003" s="44"/>
     </row>
-    <row r="1004" spans="1:1" ht="15" thickBot="1">
+    <row r="1004" spans="1:7" ht="15" thickBot="1">
       <c r="A1004" s="44"/>
     </row>
-    <row r="1005" spans="1:1" ht="15" thickBot="1">
+    <row r="1005" spans="1:7" ht="15" thickBot="1">
       <c r="A1005" s="44"/>
     </row>
-    <row r="1006" spans="1:1" ht="15" thickBot="1">
+    <row r="1006" spans="1:7" ht="15" thickBot="1">
       <c r="A1006" s="44"/>
     </row>
-    <row r="1007" spans="1:1" ht="15" thickBot="1">
+    <row r="1007" spans="1:7" ht="15" thickBot="1">
       <c r="A1007" s="44"/>
     </row>
-    <row r="1008" spans="1:1" ht="15" thickBot="1">
+    <row r="1008" spans="1:7" ht="15" thickBot="1">
       <c r="A1008" s="44"/>
     </row>
     <row r="1009" spans="1:1" ht="15" thickBot="1">
